--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Вариант 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Вариант 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="248">
   <si>
     <t>ID</t>
   </si>
@@ -599,6 +600,171 @@
   <si>
     <t>Убедиться что перевода в статус Исполнено нет.</t>
   </si>
+  <si>
+    <t>Приложение установлено, но не стартовано. Пользователь не авторизован.</t>
+  </si>
+  <si>
+    <t>2. Ввести логин\пароль</t>
+  </si>
+  <si>
+    <t>3. На главной странице в блоке Заявки нажать плюс и перейти в окно создания заявки</t>
+  </si>
+  <si>
+    <t>4. Создать заявку (Тема - ремонт крана, Исполнитель - Иванов Даниил Данилович, дата - текущая, время - текущее, Описание - Срочно почините кран!)</t>
+  </si>
+  <si>
+    <t>5. Сохранить заявку</t>
+  </si>
+  <si>
+    <t>Создание заявки с просмотром и комментированием</t>
+  </si>
+  <si>
+    <t>Войти с авторирацией в приложение. Создать заявку и прокомментировать.</t>
+  </si>
+  <si>
+    <t>6. Свернуть приложение</t>
+  </si>
+  <si>
+    <t>7. Развернуть приложение заново</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Зайти в меню Заявки. </t>
+  </si>
+  <si>
+    <t>9. Найти созданную заявку</t>
+  </si>
+  <si>
+    <t>10. Добавить комментарий (Текст- Срочно!!!; Нажать Сохранить)</t>
+  </si>
+  <si>
+    <t>11. Выйти из приложения с logout.</t>
+  </si>
+  <si>
+    <t>Создание заявки с просмотром и сбросом (отменой)</t>
+  </si>
+  <si>
+    <t>Войти с авторирацией в приложение. Создать заявку без исполнителя. Посмотреть заявку. Отменить.</t>
+  </si>
+  <si>
+    <t>4. Создать заявку (Тема - вкрутить лампочку, Исполнитель - нет, дата - текущая + 1, время - текущее, Описание - В коридоре не горит лампочка!)</t>
+  </si>
+  <si>
+    <t>6. Зайти в меню Заявки.</t>
+  </si>
+  <si>
+    <t>7. Найти заявку среди открытых.</t>
+  </si>
+  <si>
+    <t>8. Перевести в работу (Исполнитель - Иванов Даниил Данилович)</t>
+  </si>
+  <si>
+    <t>9. Найти заявку в по фильтру В работе</t>
+  </si>
+  <si>
+    <t>10. Сбросить</t>
+  </si>
+  <si>
+    <t>11. Найти заявку в Открытых</t>
+  </si>
+  <si>
+    <t>12. Отменить.</t>
+  </si>
+  <si>
+    <t>13. Выйти из приложения с logout.</t>
+  </si>
+  <si>
+    <t>Создание заявки с редактирование и выполнение</t>
+  </si>
+  <si>
+    <t>Войти с авторирацией в приложение. Создать заявку, исправить и выполнить.</t>
+  </si>
+  <si>
+    <t>3. На главной странице перейти по меню в Заявки, нажать плюс и перейти в окно создания заявки</t>
+  </si>
+  <si>
+    <t>6. Выйти из приложения (с logout)</t>
+  </si>
+  <si>
+    <t>7. Повторить пункты 1-2</t>
+  </si>
+  <si>
+    <t>11. Найти заявку в "В работе"</t>
+  </si>
+  <si>
+    <t>12. Выполнить заявку с комментарием "все убрано"</t>
+  </si>
+  <si>
+    <t>4. Создать заявку (Тема - уберите двор, дата - текущая, время - текущее 7-00, Описание - Срочно уберить мусор с дорожек!)</t>
+  </si>
+  <si>
+    <t>10. Войти в исправление. Изменить дату-веря на текущее и исполнителя на Иванов Даниил Данилович. Сохранить</t>
+  </si>
+  <si>
+    <t>10. Найти заявку в Выполненых. Проверить наличие последнего комментария</t>
+  </si>
+  <si>
+    <t>на каждом этапе проверять введенные данные в соответствии с тестом</t>
+  </si>
+  <si>
+    <t>Создание новости с просмотром и комментированием</t>
+  </si>
+  <si>
+    <t>Войти с авторирацией в приложение. Создать новость и отредактировать.</t>
+  </si>
+  <si>
+    <t>3. На главной странице в блоке Новости нажать Все новости и перейти в окно Новостей.</t>
+  </si>
+  <si>
+    <t>4. Создать новость (Категория - объявление, Заголовок - Медосмотр, дата - текущая, время - текущее+1час, Описание - Всем сотрудникам срочно пройти медосмотр!)</t>
+  </si>
+  <si>
+    <t>5. Сохранить новость</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.Найти новость на главном меню.  </t>
+  </si>
+  <si>
+    <t>9. Зайти в новость. Сделать неактивной.</t>
+  </si>
+  <si>
+    <t>10. Зайти во вкладку новости. Найти в в неактивный. Сделать активной снова. Исправить дату на + 1 день.</t>
+  </si>
+  <si>
+    <t>Прохождение по основным кнопкам</t>
+  </si>
+  <si>
+    <t>Войти с авторирацией в приложение. Пройти по разным страницам со сворачиванием-разворачиванием списков</t>
+  </si>
+  <si>
+    <t>3. На главной странице в блоке Заявки нажать потом отжать "домик" (свернуть/развернуть заявки)</t>
+  </si>
+  <si>
+    <t>6. На главной страницу в блоке Новости нажать потом отжать "домик" (свернуть/развернуть новости)</t>
+  </si>
+  <si>
+    <t>7. На главной странице найти Все новости - перейти по ссылке.</t>
+  </si>
+  <si>
+    <t>4. На главной странице найти кнопку Все заявки - перейти на вкладку.</t>
+  </si>
+  <si>
+    <t>8. Перейти в тематические цитаты (нажать на бабочку) потом вернуться на главную страницу</t>
+  </si>
+  <si>
+    <t>9. Перейти в О приложении и далее по ссылкам на вкладке О приложении.</t>
+  </si>
+  <si>
+    <t>п. 9 выполнить переход на сторонние ресурсы нельзя - не работает</t>
+  </si>
+  <si>
+    <t>10. Пройти в Заявки. Последовательно выбрать все варианты фильтров. Проверить пару заявок из выборки на соответсвие фильтру.</t>
+  </si>
+  <si>
+    <t>11. Пройти в Новости. Последовательно отсортировать новости по Категориям. Проверить пару новостей соответствию фильтру.</t>
+  </si>
+  <si>
+    <t>12. Выйти из приложения с logout.</t>
+  </si>
 </sst>
 </file>
 
@@ -775,22 +941,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1076,9 +1242,9 @@
   </sheetPr>
   <dimension ref="A1:AC879"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74:B79"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1141,26 +1307,26 @@
       <c r="AC1" s="8"/>
     </row>
     <row r="2" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="17" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="8"/>
@@ -1186,16 +1352,16 @@
       <c r="AC2" s="8"/>
     </row>
     <row r="3" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1219,16 +1385,16 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1252,18 +1418,18 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1287,18 +1453,18 @@
       <c r="AC5" s="8"/>
     </row>
     <row r="6" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1322,26 +1488,26 @@
       <c r="AC6" s="8"/>
     </row>
     <row r="7" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="8"/>
@@ -1367,16 +1533,16 @@
       <c r="AC7" s="8"/>
     </row>
     <row r="8" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1400,16 +1566,16 @@
       <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1433,18 +1599,18 @@
       <c r="AC9" s="8"/>
     </row>
     <row r="10" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="14"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1468,26 +1634,26 @@
       <c r="AC10" s="8"/>
     </row>
     <row r="11" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="13">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1511,18 +1677,18 @@
       <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1546,18 +1712,18 @@
       <c r="AC12" s="8"/>
     </row>
     <row r="13" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="14"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1581,18 +1747,18 @@
       <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1616,26 +1782,26 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="13">
         <v>4</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1659,18 +1825,18 @@
       <c r="AC15" s="8"/>
     </row>
     <row r="16" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1694,18 +1860,18 @@
       <c r="AC16" s="8"/>
     </row>
     <row r="17" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="10" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1729,18 +1895,18 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1764,26 +1930,26 @@
       <c r="AC18" s="8"/>
     </row>
     <row r="19" spans="1:29" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="13">
         <v>5</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -1807,16 +1973,16 @@
       <c r="AC19" s="8"/>
     </row>
     <row r="20" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1840,18 +2006,18 @@
       <c r="AC20" s="8"/>
     </row>
     <row r="21" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="10" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -1875,16 +2041,16 @@
       <c r="AC21" s="8"/>
     </row>
     <row r="22" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -1908,18 +2074,18 @@
       <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -1943,19 +2109,19 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="1:29" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="13">
         <v>6</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -1964,7 +2130,7 @@
       <c r="G24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -1988,18 +2154,18 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="10" t="s">
         <v>57</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -2023,18 +2189,18 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="10" t="s">
         <v>60</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -2058,18 +2224,18 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="15"/>
+      <c r="H27" s="19"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2093,18 +2259,18 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2128,19 +2294,19 @@
       <c r="AC28" s="8"/>
     </row>
     <row r="29" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="13">
         <v>7</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="10" t="s">
@@ -2149,7 +2315,7 @@
       <c r="G29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2173,18 +2339,18 @@
       <c r="AC29" s="8"/>
     </row>
     <row r="30" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="10" t="s">
         <v>68</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -2208,16 +2374,16 @@
       <c r="AC30" s="8"/>
     </row>
     <row r="31" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="10" t="s">
         <v>70</v>
       </c>
       <c r="G31" s="9"/>
-      <c r="H31" s="13"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -2241,18 +2407,18 @@
       <c r="AC31" s="8"/>
     </row>
     <row r="32" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="10" t="s">
         <v>71</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2276,18 +2442,18 @@
       <c r="AC32" s="8"/>
     </row>
     <row r="33" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -2311,19 +2477,19 @@
       <c r="AC33" s="8"/>
     </row>
     <row r="34" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="13">
         <v>8</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="10" t="s">
@@ -2332,7 +2498,7 @@
       <c r="G34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="17" t="s">
         <v>78</v>
       </c>
       <c r="I34" s="8"/>
@@ -2358,18 +2524,18 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="10" t="s">
         <v>76</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2393,18 +2559,18 @@
       <c r="AC35" s="8"/>
     </row>
     <row r="36" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="10" t="s">
         <v>79</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2428,18 +2594,18 @@
       <c r="AC36" s="8"/>
     </row>
     <row r="37" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="10" t="s">
         <v>81</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H37" s="13"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -2463,19 +2629,19 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="13">
         <v>9</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="10" t="s">
@@ -2484,7 +2650,7 @@
       <c r="G38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H38" s="14"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2508,18 +2674,18 @@
       <c r="AC38" s="8"/>
     </row>
     <row r="39" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="11" t="s">
         <v>167</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -2543,18 +2709,18 @@
       <c r="AC39" s="8"/>
     </row>
     <row r="40" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="10" t="s">
         <v>86</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="14"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2578,19 +2744,19 @@
       <c r="AC40" s="8"/>
     </row>
     <row r="41" spans="1:29" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="A41" s="13">
         <v>10</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="10" t="s">
@@ -2599,7 +2765,7 @@
       <c r="G41" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="17" t="s">
         <v>78</v>
       </c>
       <c r="I41" s="8"/>
@@ -2625,18 +2791,18 @@
       <c r="AC41" s="8"/>
     </row>
     <row r="42" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="10" t="s">
         <v>84</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="14"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2660,18 +2826,18 @@
       <c r="AC42" s="8"/>
     </row>
     <row r="43" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="10" t="s">
         <v>86</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="13"/>
+      <c r="H43" s="14"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -2695,18 +2861,18 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
       <c r="F44" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="14"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -2730,18 +2896,18 @@
       <c r="AC44" s="8"/>
     </row>
     <row r="45" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="14"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -2765,18 +2931,18 @@
       <c r="AC45" s="8"/>
     </row>
     <row r="46" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="10" t="s">
         <v>91</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="14"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -2800,18 +2966,18 @@
       <c r="AC46" s="8"/>
     </row>
     <row r="47" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
       <c r="F47" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H47" s="13"/>
+      <c r="H47" s="14"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -2835,18 +3001,18 @@
       <c r="AC47" s="8"/>
     </row>
     <row r="48" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H48" s="13"/>
+      <c r="H48" s="14"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -2870,18 +3036,18 @@
       <c r="AC48" s="8"/>
     </row>
     <row r="49" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H49" s="13"/>
+      <c r="H49" s="14"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -2905,18 +3071,18 @@
       <c r="AC49" s="8"/>
     </row>
     <row r="50" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
       <c r="F50" s="10" t="s">
         <v>98</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="13"/>
+      <c r="H50" s="14"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -2940,19 +3106,19 @@
       <c r="AC50" s="8"/>
     </row>
     <row r="51" spans="1:29" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="A51" s="13">
         <v>11</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="17" t="s">
         <v>118</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -2961,7 +3127,7 @@
       <c r="G51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="17" t="s">
         <v>78</v>
       </c>
       <c r="I51" s="8"/>
@@ -2987,16 +3153,16 @@
       <c r="AC51" s="8"/>
     </row>
     <row r="52" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="10" t="s">
         <v>103</v>
       </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="13"/>
+      <c r="H52" s="14"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -3020,16 +3186,16 @@
       <c r="AC52" s="8"/>
     </row>
     <row r="53" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G53" s="9"/>
-      <c r="H53" s="13"/>
+      <c r="H53" s="14"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -3053,16 +3219,16 @@
       <c r="AC53" s="8"/>
     </row>
     <row r="54" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="10" t="s">
         <v>105</v>
       </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="13"/>
+      <c r="H54" s="14"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -3086,16 +3252,16 @@
       <c r="AC54" s="8"/>
     </row>
     <row r="55" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
       <c r="F55" s="10" t="s">
         <v>106</v>
       </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="13"/>
+      <c r="H55" s="14"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -3119,18 +3285,18 @@
       <c r="AC55" s="8"/>
     </row>
     <row r="56" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
       <c r="F56" s="10" t="s">
         <v>107</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H56" s="13"/>
+      <c r="H56" s="14"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -3154,16 +3320,16 @@
       <c r="AC56" s="8"/>
     </row>
     <row r="57" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G57" s="9"/>
-      <c r="H57" s="13"/>
+      <c r="H57" s="14"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -3187,18 +3353,18 @@
       <c r="AC57" s="8"/>
     </row>
     <row r="58" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="10" t="s">
         <v>108</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H58" s="13"/>
+      <c r="H58" s="14"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -3222,18 +3388,18 @@
       <c r="AC58" s="8"/>
     </row>
     <row r="59" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
       <c r="F59" s="10" t="s">
         <v>109</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H59" s="17"/>
+      <c r="H59" s="15"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -3257,16 +3423,16 @@
       <c r="AC59" s="8"/>
     </row>
     <row r="60" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
+      <c r="A60" s="13">
         <v>12</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="16" t="s">
@@ -3278,7 +3444,7 @@
       <c r="G60" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="14"/>
+      <c r="H60" s="17"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -3302,16 +3468,16 @@
       <c r="AC60" s="8"/>
     </row>
     <row r="61" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="18"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
       <c r="F61" s="10" t="s">
         <v>120</v>
       </c>
       <c r="G61" s="9"/>
-      <c r="H61" s="13"/>
+      <c r="H61" s="14"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -3335,18 +3501,18 @@
       <c r="AC61" s="8"/>
     </row>
     <row r="62" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="18"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
       <c r="F62" s="10" t="s">
         <v>121</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H62" s="13"/>
+      <c r="H62" s="14"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -3370,16 +3536,16 @@
       <c r="AC62" s="8"/>
     </row>
     <row r="63" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="18"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="11" t="s">
         <v>170</v>
       </c>
       <c r="G63" s="11"/>
-      <c r="H63" s="13"/>
+      <c r="H63" s="14"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -3403,18 +3569,18 @@
       <c r="AC63" s="8"/>
     </row>
     <row r="64" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
+      <c r="A64" s="14"/>
       <c r="B64" s="18"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="19" t="s">
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="12" t="s">
         <v>171</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H64" s="13"/>
+      <c r="H64" s="14"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -3438,18 +3604,18 @@
       <c r="AC64" s="8"/>
     </row>
     <row r="65" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
+      <c r="A65" s="14"/>
       <c r="B65" s="18"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
       <c r="F65" s="11" t="s">
         <v>173</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H65" s="13"/>
+      <c r="H65" s="14"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -3473,18 +3639,18 @@
       <c r="AC65" s="8"/>
     </row>
     <row r="66" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="18"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
       <c r="F66" s="11" t="s">
         <v>174</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H66" s="13"/>
+      <c r="H66" s="14"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -3508,16 +3674,16 @@
       <c r="AC66" s="8"/>
     </row>
     <row r="67" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
+      <c r="A67" s="13">
         <v>13</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="16" t="s">
@@ -3527,7 +3693,7 @@
         <v>168</v>
       </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="14"/>
+      <c r="H67" s="17"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -3551,16 +3717,16 @@
       <c r="AC67" s="8"/>
     </row>
     <row r="68" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
+      <c r="A68" s="14"/>
       <c r="B68" s="18"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
       <c r="F68" s="10" t="s">
         <v>120</v>
       </c>
       <c r="G68" s="9"/>
-      <c r="H68" s="13"/>
+      <c r="H68" s="14"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -3584,18 +3750,18 @@
       <c r="AC68" s="8"/>
     </row>
     <row r="69" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="18"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
       <c r="F69" s="11" t="s">
         <v>175</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H69" s="13"/>
+      <c r="H69" s="14"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -3619,16 +3785,16 @@
       <c r="AC69" s="8"/>
     </row>
     <row r="70" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="18"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
       <c r="F70" s="11" t="s">
         <v>170</v>
       </c>
       <c r="G70" s="9"/>
-      <c r="H70" s="13"/>
+      <c r="H70" s="14"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -3652,16 +3818,16 @@
       <c r="AC70" s="8"/>
     </row>
     <row r="71" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="18"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
       <c r="F71" s="11" t="s">
         <v>176</v>
       </c>
       <c r="G71" s="9"/>
-      <c r="H71" s="13"/>
+      <c r="H71" s="14"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
@@ -3685,18 +3851,18 @@
       <c r="AC71" s="8"/>
     </row>
     <row r="72" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="18"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
       <c r="F72" s="11" t="s">
         <v>173</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H72" s="13"/>
+      <c r="H72" s="14"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -3720,18 +3886,18 @@
       <c r="AC72" s="8"/>
     </row>
     <row r="73" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="18"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
       <c r="F73" s="11" t="s">
         <v>174</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H73" s="13"/>
+      <c r="H73" s="14"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -3755,19 +3921,19 @@
       <c r="AC73" s="8"/>
     </row>
     <row r="74" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="12">
+      <c r="A74" s="13">
         <v>14</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="13" t="s">
         <v>119</v>
       </c>
       <c r="F74" s="11" t="s">
@@ -3776,7 +3942,7 @@
       <c r="G74" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H74" s="14"/>
+      <c r="H74" s="17"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -3800,16 +3966,16 @@
       <c r="AC74" s="8"/>
     </row>
     <row r="75" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
+      <c r="A75" s="14"/>
       <c r="B75" s="18"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
       <c r="F75" s="10" t="s">
         <v>120</v>
       </c>
       <c r="G75" s="9"/>
-      <c r="H75" s="13"/>
+      <c r="H75" s="14"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -3833,18 +3999,18 @@
       <c r="AC75" s="8"/>
     </row>
     <row r="76" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
+      <c r="A76" s="14"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
       <c r="F76" s="10" t="s">
         <v>123</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H76" s="13"/>
+      <c r="H76" s="14"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -3868,18 +4034,18 @@
       <c r="AC76" s="8"/>
     </row>
     <row r="77" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
+      <c r="A77" s="14"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
       <c r="F77" s="11" t="s">
         <v>188</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H77" s="13"/>
+      <c r="H77" s="14"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -3903,18 +4069,18 @@
       <c r="AC77" s="8"/>
     </row>
     <row r="78" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+      <c r="A78" s="14"/>
       <c r="B78" s="18"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
       <c r="F78" s="11" t="s">
         <v>189</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H78" s="13"/>
+      <c r="H78" s="14"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -3938,18 +4104,18 @@
       <c r="AC78" s="8"/>
     </row>
     <row r="79" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
+      <c r="A79" s="14"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
       <c r="F79" s="11" t="s">
         <v>190</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H79" s="13"/>
+      <c r="H79" s="14"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
@@ -3973,19 +4139,19 @@
       <c r="AC79" s="8"/>
     </row>
     <row r="80" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="12">
+      <c r="A80" s="13">
         <v>15</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="17" t="s">
         <v>125</v>
       </c>
       <c r="F80" s="10" t="s">
@@ -3994,7 +4160,7 @@
       <c r="G80" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="17" t="s">
         <v>133</v>
       </c>
       <c r="I80" s="8"/>
@@ -4020,18 +4186,18 @@
       <c r="AC80" s="8"/>
     </row>
     <row r="81" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
       <c r="F81" s="10" t="s">
         <v>127</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H81" s="13"/>
+      <c r="H81" s="14"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -4055,18 +4221,18 @@
       <c r="AC81" s="8"/>
     </row>
     <row r="82" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
       <c r="F82" s="10" t="s">
         <v>128</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H82" s="13"/>
+      <c r="H82" s="14"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -4090,18 +4256,18 @@
       <c r="AC82" s="8"/>
     </row>
     <row r="83" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
       <c r="F83" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H83" s="17"/>
+      <c r="H83" s="15"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -4125,16 +4291,16 @@
       <c r="AC83" s="8"/>
     </row>
     <row r="84" spans="1:29" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12">
+      <c r="A84" s="13">
         <v>16</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="16" t="s">
@@ -4170,16 +4336,16 @@
       <c r="AC84" s="8"/>
     </row>
     <row r="85" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
       <c r="F85" s="11" t="s">
         <v>144</v>
       </c>
       <c r="G85" s="9"/>
-      <c r="H85" s="13"/>
+      <c r="H85" s="14"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -4203,16 +4369,16 @@
       <c r="AC85" s="8"/>
     </row>
     <row r="86" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
       <c r="F86" s="11" t="s">
         <v>146</v>
       </c>
       <c r="G86" s="9"/>
-      <c r="H86" s="13"/>
+      <c r="H86" s="14"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -4236,18 +4402,18 @@
       <c r="AC86" s="8"/>
     </row>
     <row r="87" spans="1:29" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
       <c r="F87" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H87" s="17"/>
+      <c r="H87" s="15"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -4271,16 +4437,16 @@
       <c r="AC87" s="8"/>
     </row>
     <row r="88" spans="1:29" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12">
+      <c r="A88" s="13">
         <v>17</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="16" t="s">
@@ -4290,7 +4456,7 @@
         <v>145</v>
       </c>
       <c r="G88" s="9"/>
-      <c r="H88" s="14" t="s">
+      <c r="H88" s="17" t="s">
         <v>133</v>
       </c>
       <c r="I88" s="8"/>
@@ -4316,16 +4482,16 @@
       <c r="AC88" s="8"/>
     </row>
     <row r="89" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
       <c r="F89" s="11" t="s">
         <v>149</v>
       </c>
       <c r="G89" s="9"/>
-      <c r="H89" s="13"/>
+      <c r="H89" s="14"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -4349,16 +4515,16 @@
       <c r="AC89" s="8"/>
     </row>
     <row r="90" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
       <c r="F90" s="11" t="s">
         <v>150</v>
       </c>
       <c r="G90" s="9"/>
-      <c r="H90" s="13"/>
+      <c r="H90" s="14"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
@@ -4382,18 +4548,18 @@
       <c r="AC90" s="8"/>
     </row>
     <row r="91" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
       <c r="F91" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H91" s="17"/>
+      <c r="H91" s="15"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -4417,26 +4583,26 @@
       <c r="AC91" s="8"/>
     </row>
     <row r="92" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="12">
+      <c r="A92" s="13">
         <v>18</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D92" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="13" t="s">
         <v>135</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>145</v>
       </c>
       <c r="G92" s="9"/>
-      <c r="H92" s="12"/>
+      <c r="H92" s="13"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -4460,16 +4626,16 @@
       <c r="AC92" s="8"/>
     </row>
     <row r="93" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
       <c r="F93" s="11" t="s">
         <v>149</v>
       </c>
       <c r="G93" s="9"/>
-      <c r="H93" s="13"/>
+      <c r="H93" s="14"/>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -4492,19 +4658,19 @@
       <c r="AB93" s="8"/>
       <c r="AC93" s="8"/>
     </row>
-    <row r="94" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
+    <row r="94" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
       <c r="F94" s="11" t="s">
         <v>152</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H94" s="13"/>
+      <c r="H94" s="14"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -4528,16 +4694,16 @@
       <c r="AC94" s="8"/>
     </row>
     <row r="95" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="12">
+      <c r="A95" s="13">
         <v>19</v>
       </c>
       <c r="B95" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D95" s="12" t="s">
+      <c r="D95" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="16" t="s">
@@ -4547,7 +4713,7 @@
         <v>145</v>
       </c>
       <c r="G95" s="9"/>
-      <c r="H95" s="14" t="s">
+      <c r="H95" s="17" t="s">
         <v>133</v>
       </c>
       <c r="I95" s="8"/>
@@ -4573,16 +4739,16 @@
       <c r="AC95" s="8"/>
     </row>
     <row r="96" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
       <c r="F96" s="11" t="s">
         <v>127</v>
       </c>
       <c r="G96" s="9"/>
-      <c r="H96" s="13"/>
+      <c r="H96" s="14"/>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -4606,16 +4772,16 @@
       <c r="AC96" s="8"/>
     </row>
     <row r="97" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
       <c r="F97" s="11" t="s">
         <v>128</v>
       </c>
       <c r="G97" s="9"/>
-      <c r="H97" s="13"/>
+      <c r="H97" s="14"/>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -4639,18 +4805,18 @@
       <c r="AC97" s="8"/>
     </row>
     <row r="98" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
       <c r="F98" s="11" t="s">
         <v>154</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="H98" s="13"/>
+      <c r="H98" s="14"/>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -4674,16 +4840,16 @@
       <c r="AC98" s="8"/>
     </row>
     <row r="99" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="12">
+      <c r="A99" s="13">
         <v>20</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E99" s="16" t="s">
@@ -4693,7 +4859,7 @@
         <v>157</v>
       </c>
       <c r="G99" s="9"/>
-      <c r="H99" s="14"/>
+      <c r="H99" s="17"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -4717,18 +4883,18 @@
       <c r="AC99" s="8"/>
     </row>
     <row r="100" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
       <c r="F100" s="11" t="s">
         <v>160</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="H100" s="13"/>
+      <c r="H100" s="14"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
@@ -4752,16 +4918,16 @@
       <c r="AC100" s="8"/>
     </row>
     <row r="101" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
       <c r="F101" s="11" t="s">
         <v>161</v>
       </c>
       <c r="G101" s="9"/>
-      <c r="H101" s="13"/>
+      <c r="H101" s="14"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
@@ -4785,16 +4951,16 @@
       <c r="AC101" s="8"/>
     </row>
     <row r="102" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
       <c r="F102" s="11" t="s">
         <v>162</v>
       </c>
       <c r="G102" s="9"/>
-      <c r="H102" s="13"/>
+      <c r="H102" s="14"/>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -4818,18 +4984,18 @@
       <c r="AC102" s="8"/>
     </row>
     <row r="103" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
       <c r="F103" s="11" t="s">
         <v>163</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="H103" s="13"/>
+      <c r="H103" s="14"/>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -4853,16 +5019,16 @@
       <c r="AC103" s="8"/>
     </row>
     <row r="104" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
       <c r="F104" s="9"/>
       <c r="G104" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H104" s="13"/>
+      <c r="H104" s="14"/>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
@@ -4886,16 +5052,16 @@
       <c r="AC104" s="8"/>
     </row>
     <row r="105" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="12">
+      <c r="A105" s="13">
         <v>21</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D105" s="12" t="s">
+      <c r="D105" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E105" s="16" t="s">
@@ -4905,7 +5071,7 @@
         <v>166</v>
       </c>
       <c r="G105" s="9"/>
-      <c r="H105" s="14"/>
+      <c r="H105" s="17"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -4929,16 +5095,16 @@
       <c r="AC105" s="8"/>
     </row>
     <row r="106" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
+      <c r="A106" s="14"/>
       <c r="B106" s="18"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
       <c r="F106" s="11" t="s">
         <v>179</v>
       </c>
       <c r="G106" s="9"/>
-      <c r="H106" s="13"/>
+      <c r="H106" s="14"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
@@ -4962,16 +5128,16 @@
       <c r="AC106" s="8"/>
     </row>
     <row r="107" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
+      <c r="A107" s="14"/>
       <c r="B107" s="18"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
       <c r="F107" s="11" t="s">
         <v>180</v>
       </c>
       <c r="G107" s="9"/>
-      <c r="H107" s="13"/>
+      <c r="H107" s="14"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
@@ -4995,18 +5161,18 @@
       <c r="AC107" s="8"/>
     </row>
     <row r="108" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
+      <c r="A108" s="14"/>
       <c r="B108" s="18"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
       <c r="F108" s="11" t="s">
         <v>181</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H108" s="13"/>
+      <c r="H108" s="14"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
@@ -5030,16 +5196,16 @@
       <c r="AC108" s="8"/>
     </row>
     <row r="109" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="13"/>
+      <c r="A109" s="14"/>
       <c r="B109" s="18"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
       <c r="F109" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G109" s="11"/>
-      <c r="H109" s="13"/>
+      <c r="H109" s="14"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -5063,16 +5229,16 @@
       <c r="AC109" s="8"/>
     </row>
     <row r="110" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
+      <c r="A110" s="14"/>
       <c r="B110" s="18"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
       <c r="F110" s="11" t="s">
         <v>186</v>
       </c>
       <c r="G110" s="11"/>
-      <c r="H110" s="13"/>
+      <c r="H110" s="14"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -5096,18 +5262,18 @@
       <c r="AC110" s="8"/>
     </row>
     <row r="111" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
+      <c r="A111" s="14"/>
       <c r="B111" s="18"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
       <c r="F111" s="11" t="s">
         <v>184</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H111" s="13"/>
+      <c r="H111" s="14"/>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
@@ -5131,26 +5297,26 @@
       <c r="AC111" s="8"/>
     </row>
     <row r="112" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="12">
+      <c r="A112" s="13">
         <v>22</v>
       </c>
       <c r="B112" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D112" s="12" t="s">
+      <c r="D112" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="14" t="s">
+      <c r="E112" s="17" t="s">
         <v>136</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>137</v>
       </c>
       <c r="G112" s="9"/>
-      <c r="H112" s="14"/>
+      <c r="H112" s="17"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
@@ -5174,18 +5340,18 @@
       <c r="AC112" s="8"/>
     </row>
     <row r="113" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
       <c r="F113" s="10" t="s">
         <v>140</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H113" s="13"/>
+      <c r="H113" s="14"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
@@ -5209,18 +5375,18 @@
       <c r="AC113" s="8"/>
     </row>
     <row r="114" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A114" s="13"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
       <c r="F114" s="10" t="s">
         <v>138</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H114" s="13"/>
+      <c r="H114" s="14"/>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
@@ -5244,18 +5410,18 @@
       <c r="AC114" s="8"/>
     </row>
     <row r="115" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A115" s="17"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
       <c r="F115" s="10" t="s">
         <v>139</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H115" s="17"/>
+      <c r="H115" s="15"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
@@ -28964,24 +29130,96 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="H112:H115"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="D99:D104"/>
-    <mergeCell ref="E99:E104"/>
-    <mergeCell ref="H99:H104"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="B105:B111"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="D105:D111"/>
-    <mergeCell ref="E105:E111"/>
-    <mergeCell ref="H105:H111"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="D41:D50"/>
+    <mergeCell ref="E41:E50"/>
+    <mergeCell ref="D51:D59"/>
+    <mergeCell ref="E51:E59"/>
+    <mergeCell ref="H51:H59"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="H41:H50"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="H60:H66"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="D67:D73"/>
+    <mergeCell ref="E67:E73"/>
+    <mergeCell ref="H67:H73"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="C41:C50"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="C51:C59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:B66"/>
     <mergeCell ref="D80:D83"/>
     <mergeCell ref="E80:E83"/>
     <mergeCell ref="D84:D87"/>
@@ -29006,96 +29244,2136 @@
     <mergeCell ref="D92:D94"/>
     <mergeCell ref="E92:E94"/>
     <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="D67:D73"/>
-    <mergeCell ref="E67:E73"/>
-    <mergeCell ref="H67:H73"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="C41:C50"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="H41:H50"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="H60:H66"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="D41:D50"/>
-    <mergeCell ref="E41:E50"/>
-    <mergeCell ref="D51:D59"/>
-    <mergeCell ref="E51:E59"/>
-    <mergeCell ref="H51:H59"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="D99:D104"/>
+    <mergeCell ref="E99:E104"/>
+    <mergeCell ref="H99:H104"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="E105:E111"/>
+    <mergeCell ref="H105:H111"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="36.77734375" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+    </row>
+    <row r="2" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+    </row>
+    <row r="4" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+    </row>
+    <row r="5" spans="1:28" ht="66" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+    </row>
+    <row r="11" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+    </row>
+    <row r="13" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+    </row>
+    <row r="15" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+    </row>
+    <row r="16" spans="1:28" ht="66" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+    </row>
+    <row r="20" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+    </row>
+    <row r="26" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>3</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+    </row>
+    <row r="28" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+    </row>
+    <row r="29" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+    </row>
+    <row r="35" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+    </row>
+    <row r="37" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+    </row>
+    <row r="38" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+    </row>
+    <row r="40" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>4</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+    </row>
+    <row r="42" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+    </row>
+    <row r="43" spans="1:28" ht="66" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+    </row>
+    <row r="48" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+    </row>
+    <row r="49" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+    </row>
+    <row r="51" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>5</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+    </row>
+    <row r="53" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+    </row>
+    <row r="54" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+    </row>
+    <row r="56" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+    </row>
+    <row r="57" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+    </row>
+    <row r="58" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+    </row>
+    <row r="59" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+    </row>
+    <row r="60" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+    </row>
+    <row r="61" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="G51:G62"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="B51:B62"/>
+    <mergeCell ref="C51:C62"/>
+    <mergeCell ref="D51:D62"/>
+    <mergeCell ref="E51:E62"/>
+    <mergeCell ref="G26:G39"/>
+    <mergeCell ref="A40:A50"/>
+    <mergeCell ref="B40:B50"/>
+    <mergeCell ref="C40:C50"/>
+    <mergeCell ref="D40:D50"/>
+    <mergeCell ref="E40:E50"/>
+    <mergeCell ref="G40:G50"/>
+    <mergeCell ref="A26:A39"/>
+    <mergeCell ref="B26:B39"/>
+    <mergeCell ref="C26:C39"/>
+    <mergeCell ref="D26:D39"/>
+    <mergeCell ref="E26:E39"/>
+    <mergeCell ref="G2:G12"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="C13:C25"/>
+    <mergeCell ref="D13:D25"/>
+    <mergeCell ref="E13:E25"/>
+    <mergeCell ref="G13:G25"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="D2:D12"/>
+    <mergeCell ref="E2:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="310">
   <si>
     <t>ID</t>
   </si>
@@ -616,9 +616,6 @@
     <t>5. Сохранить заявку</t>
   </si>
   <si>
-    <t>Создание заявки с просмотром и комментированием</t>
-  </si>
-  <si>
     <t>Войти с авторирацией в приложение. Создать заявку и прокомментировать.</t>
   </si>
   <si>
@@ -640,9 +637,6 @@
     <t>11. Выйти из приложения с logout.</t>
   </si>
   <si>
-    <t>Создание заявки с просмотром и сбросом (отменой)</t>
-  </si>
-  <si>
     <t>Войти с авторирацией в приложение. Создать заявку без исполнителя. Посмотреть заявку. Отменить.</t>
   </si>
   <si>
@@ -658,9 +652,6 @@
     <t>8. Перевести в работу (Исполнитель - Иванов Даниил Данилович)</t>
   </si>
   <si>
-    <t>9. Найти заявку в по фильтру В работе</t>
-  </si>
-  <si>
     <t>10. Сбросить</t>
   </si>
   <si>
@@ -671,9 +662,6 @@
   </si>
   <si>
     <t>13. Выйти из приложения с logout.</t>
-  </si>
-  <si>
-    <t>Создание заявки с редактирование и выполнение</t>
   </si>
   <si>
     <t>Войти с авторирацией в приложение. Создать заявку, исправить и выполнить.</t>
@@ -697,9 +685,6 @@
     <t>4. Создать заявку (Тема - уберите двор, дата - текущая, время - текущее 7-00, Описание - Срочно уберить мусор с дорожек!)</t>
   </si>
   <si>
-    <t>10. Войти в исправление. Изменить дату-веря на текущее и исполнителя на Иванов Даниил Данилович. Сохранить</t>
-  </si>
-  <si>
     <t>10. Найти заявку в Выполненых. Проверить наличие последнего комментария</t>
   </si>
   <si>
@@ -721,13 +706,7 @@
     <t>5. Сохранить новость</t>
   </si>
   <si>
-    <t xml:space="preserve">8.Найти новость на главном меню.  </t>
-  </si>
-  <si>
     <t>9. Зайти в новость. Сделать неактивной.</t>
-  </si>
-  <si>
-    <t>10. Зайти во вкладку новости. Найти в в неактивный. Сделать активной снова. Исправить дату на + 1 день.</t>
   </si>
   <si>
     <t>Прохождение по основным кнопкам</t>
@@ -757,13 +736,220 @@
     <t>п. 9 выполнить переход на сторонние ресурсы нельзя - не работает</t>
   </si>
   <si>
-    <t>10. Пройти в Заявки. Последовательно выбрать все варианты фильтров. Проверить пару заявок из выборки на соответсвие фильтру.</t>
+    <t>Создание заявки с редактированием и выполнением</t>
   </si>
   <si>
-    <t>11. Пройти в Новости. Последовательно отсортировать новости по Категориям. Проверить пару новостей соответствию фильтру.</t>
+    <t>Войти с авторизацией в приложение. Сверить даты текущих новостей</t>
   </si>
   <si>
-    <t>12. Выйти из приложения с logout.</t>
+    <t>Просмотр текущих новостей</t>
+  </si>
+  <si>
+    <t>3. На главной странице сверить даты у всех новостей относительно текущей даты.  Новости запомнить.</t>
+  </si>
+  <si>
+    <t>4. Зайти в раздел Новостей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Создать новость текущей датой в категории День Рождения. Сохранить. </t>
+  </si>
+  <si>
+    <t>6. Перейти в на главный экран. Сверить новости (должна появится наша новость + 2 новости из сохраненных)</t>
+  </si>
+  <si>
+    <t>7. Повторить пункты 4-5 создав еще одну новость - благодарность от директора с датой "назавтра".</t>
+  </si>
+  <si>
+    <t>8. Проверить что данной новости в списке на главной странице и в списке новостей нет.</t>
+  </si>
+  <si>
+    <t>9. Зайти в редактирование новостей и изменить дату на текущую.</t>
+  </si>
+  <si>
+    <t>10. Проверить наличие новости на главной странице и на странице новостей.</t>
+  </si>
+  <si>
+    <t>11. Зайти в редактирование новости и сделать новость неактивной.</t>
+  </si>
+  <si>
+    <t>12. Убедиться что новость пропала с главной странице ина странице новостей.</t>
+  </si>
+  <si>
+    <t>Проверка фильтров новостей</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>3. Зайти на страницу новостей</t>
+  </si>
+  <si>
+    <t>4. Последовательно установить фильтр на каждую из категорий. Проверить, что отфильтрованные новости относятся к этой категории.</t>
+  </si>
+  <si>
+    <t>5. Установить фильтр в интервале начало/конец - текущий день. Проверить что в фильтре только новости за текущую дату.</t>
+  </si>
+  <si>
+    <t>7. Зайти в редактирование новостей проверить фильтры на активную/неактивную форму (установить, убедиться что фильтр работает)</t>
+  </si>
+  <si>
+    <t>8. Вернуться на главный экран, снова зайти в раздел новостей, убедиться что фильтр снялся.</t>
+  </si>
+  <si>
+    <t>9. Зайти в фильтр. Выбрать любой, нажать Отмена. Убедиться что фильтр не установился.</t>
+  </si>
+  <si>
+    <t>10. Повторить пункт 9 для окна редактирования новостей.</t>
+  </si>
+  <si>
+    <t>6. Установить фильтр в интервале дата начала текущая, дата конца - текущая дата минус 1 день. Проверить работу фильтра.</t>
+  </si>
+  <si>
+    <t>Пункт 6 должен выдавать ошибку установки интервала. Сейчас он просто не выдает ничего.</t>
+  </si>
+  <si>
+    <t>Создание заявки с главной страницы с просмотром и комментированием</t>
+  </si>
+  <si>
+    <t>Создание заявки из страницы с заявками с просмотром и сбросом (отменой)</t>
+  </si>
+  <si>
+    <t>9. Найти заявку по фильтру В работе</t>
+  </si>
+  <si>
+    <t>13. Проверить статус заявки в меню Заявки.</t>
+  </si>
+  <si>
+    <t>10. Войти в исправление. Изменить дату-время на текущее и исполнителя на Иванов Даниил Данилович. Сохранить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Найти новость на главном меню.  </t>
+  </si>
+  <si>
+    <t>10. Зайти во вкладку новости. Найти новость в неактивных. Сделать активной снова. Исправить дату на + 1 день.</t>
+  </si>
+  <si>
+    <t>10. Вернуться в приложение (логин не требуется/проверить).</t>
+  </si>
+  <si>
+    <t>11. Пройти в Заявки. Последовательно выбрать все варианты фильтров. Проверить пару заявок из выборки на соответсвие фильтру.</t>
+  </si>
+  <si>
+    <t>12. Пройти в Новости. Последовательно отсортировать новости по Категориям. Проверить пару новостей соответствию фильтру.</t>
+  </si>
+  <si>
+    <t>Проверка фильтров заявок</t>
+  </si>
+  <si>
+    <t>3. Зайти на страницу заявок</t>
+  </si>
+  <si>
+    <t>4. Создать 4 заявки с разным статусом (Открыта/в работе/выполнена/оменена)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Установить фильтр на одну из категорий. </t>
+  </si>
+  <si>
+    <t>6. Проверить, что отфильтрованные заявки относятся к этой категории.</t>
+  </si>
+  <si>
+    <t>7. Проверить что созданная нами заявка в данной категории попала в фильтр.</t>
+  </si>
+  <si>
+    <t>8. Повторить пункты 5-7 для других категорий</t>
+  </si>
+  <si>
+    <t>9. Выбрать фильтр из нескольких пунктов, Нажать Отмена.</t>
+  </si>
+  <si>
+    <t>10. Проверить что выбранные фильтр не установился.</t>
+  </si>
+  <si>
+    <t>11. Выбрать фильтр из всех пунктов. Убедиться что все 4 созданные заявки попали в выборку.</t>
+  </si>
+  <si>
+    <t>12. Установить фильтр без выбранных пунктов. Уюедиться что выборка пуста.</t>
+  </si>
+  <si>
+    <t>Проверка доступности символов при создании заявки</t>
+  </si>
+  <si>
+    <t>4. Создать заявку с набором из русского алфавита в теме и в описании</t>
+  </si>
+  <si>
+    <t>5. Создать заявку с набором цифр и знаков (всех) в теме и описании</t>
+  </si>
+  <si>
+    <t>6. Создать заявку с набором из латинского алфавита в теме и описании</t>
+  </si>
+  <si>
+    <t>8. Создать пустую заявку, получить ошибку, создать заявку из русской буквы (одной) в теме и описании.</t>
+  </si>
+  <si>
+    <t>9. Взять любую заявку и повторить пункты 4-6 для комментария (каждый раз создавая новый комментарий)</t>
+  </si>
+  <si>
+    <t>все введенные заявки и комментарии проверять на полное соответсвие введенному тексту</t>
+  </si>
+  <si>
+    <t>10. Выйти из приложения с logout.</t>
+  </si>
+  <si>
+    <t>Проверка доступности символов при создании новости</t>
+  </si>
+  <si>
+    <t>4. Создать новость с набором из русского алфавита в заголовке и в описании</t>
+  </si>
+  <si>
+    <t>5. Создать новость с набором цифр и знаков (всех) в заголовке и описании</t>
+  </si>
+  <si>
+    <t>6. Создать новость с набором из латинского алфавита в заголовке и описании</t>
+  </si>
+  <si>
+    <t>7. Создать заявку из русских букв в количестве 50 в теме,  без описания. Получить ошибку. Повторить тему в описании.</t>
+  </si>
+  <si>
+    <t>7. Создать новость из русских букв в количестве 50 в теме, без описания. Получить ошибку. Повторить тему в описании.</t>
+  </si>
+  <si>
+    <t>8. Создать пустую новость, получить ошибку, создать новость из русской буквы (одной) в теме и описании.</t>
+  </si>
+  <si>
+    <t>9. Взять любую из созданных новостей, отредактировать тему и описание, изменив содержание на текст "Проверка связи"</t>
+  </si>
+  <si>
+    <t>3. Дождаться открытия главной страницы</t>
+  </si>
+  <si>
+    <t>4. Свернуть приложение</t>
+  </si>
+  <si>
+    <t>Проверка сохранения авторизации</t>
+  </si>
+  <si>
+    <t>5. Открыть любое другое приложение, свернуть.</t>
+  </si>
+  <si>
+    <t>6. Вернуться в приложение, проверить наличие авторизации</t>
+  </si>
+  <si>
+    <t>7. Закрыть приложение системной кнопкой Закрыть все</t>
+  </si>
+  <si>
+    <t>8 Снова войти в приложение, проверить наличие авторизации</t>
+  </si>
+  <si>
+    <t>9. Сделать логаут</t>
+  </si>
+  <si>
+    <t>10. Закрыть приложение</t>
+  </si>
+  <si>
+    <t>11. Снова стартануть приложение, убедиться что требуется авторизация (авторизовываться не требуется)</t>
+  </si>
+  <si>
+    <t>возможно данный тест придется писать не на espresso</t>
   </si>
 </sst>
 </file>
@@ -906,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -956,6 +1142,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,7 +1432,7 @@
   <dimension ref="A1:AC879"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
@@ -29270,10 +29459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB62"/>
+  <dimension ref="A1:AB145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134:G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29335,10 +29524,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>198</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>8</v>
@@ -29350,7 +29539,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -29509,7 +29698,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="8"/>
@@ -29541,7 +29730,7 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="8"/>
@@ -29573,7 +29762,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="8"/>
@@ -29605,7 +29794,7 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="8"/>
@@ -29637,7 +29826,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="8"/>
@@ -29669,7 +29858,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="8"/>
@@ -29699,10 +29888,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>8</v>
@@ -29714,7 +29903,7 @@
         <v>26</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -29777,7 +29966,7 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="8"/>
@@ -29809,7 +29998,7 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="8"/>
@@ -29873,7 +30062,7 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="8"/>
@@ -29905,7 +30094,7 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="8"/>
@@ -29937,7 +30126,7 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="8"/>
@@ -29969,7 +30158,7 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="10" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="8"/>
@@ -30001,7 +30190,7 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="8"/>
@@ -30033,7 +30222,7 @@
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="8"/>
@@ -30065,7 +30254,7 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="8"/>
@@ -30090,14 +30279,14 @@
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="10" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="8"/>
@@ -30122,28 +30311,16 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
     </row>
-    <row r="26" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>3</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>193</v>
-      </c>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>227</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G26" s="14"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -30166,16 +30343,28 @@
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+    <row r="27" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>3</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F27" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G27" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -30198,14 +30387,14 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
     </row>
-    <row r="28" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="8"/>
@@ -30230,14 +30419,14 @@
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
     </row>
-    <row r="29" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="10" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="8"/>
@@ -30262,14 +30451,14 @@
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="10" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="8"/>
@@ -30301,7 +30490,7 @@
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="10" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="8"/>
@@ -30333,7 +30522,7 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="8"/>
@@ -30365,7 +30554,7 @@
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="10" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="8"/>
@@ -30397,7 +30586,7 @@
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="8"/>
@@ -30422,14 +30611,14 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
     </row>
-    <row r="35" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="10" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="8"/>
@@ -30454,14 +30643,14 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="10" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="8"/>
@@ -30486,14 +30675,14 @@
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
     </row>
-    <row r="37" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="8"/>
@@ -30518,14 +30707,14 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
     </row>
-    <row r="38" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="10" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="8"/>
@@ -30550,14 +30739,14 @@
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="10" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="8"/>
@@ -30582,28 +30771,16 @@
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
     </row>
-    <row r="40" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>4</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>193</v>
-      </c>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>227</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G40" s="14"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -30626,16 +30803,28 @@
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+    <row r="41" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>4</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F41" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G41" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -30658,14 +30847,14 @@
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
     </row>
-    <row r="42" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="10" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="8"/>
@@ -30690,14 +30879,14 @@
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
     </row>
-    <row r="43" spans="1:28" ht="66" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="8"/>
@@ -30722,14 +30911,14 @@
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="66" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="8"/>
@@ -30761,7 +30950,7 @@
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="10" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="8"/>
@@ -30793,7 +30982,7 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="8"/>
@@ -30825,7 +31014,7 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="10" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="8"/>
@@ -30850,14 +31039,14 @@
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
     </row>
-    <row r="48" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="10" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="8"/>
@@ -30882,14 +31071,14 @@
       <c r="AA48" s="8"/>
       <c r="AB48" s="8"/>
     </row>
-    <row r="49" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="10" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="8"/>
@@ -30914,14 +31103,14 @@
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="10" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="8"/>
@@ -30946,28 +31135,16 @@
       <c r="AA50" s="8"/>
       <c r="AB50" s="8"/>
     </row>
-    <row r="51" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
-        <v>5</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>193</v>
-      </c>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>244</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G51" s="14"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -30990,16 +31167,28 @@
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
+    <row r="52" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>5</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="F52" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G52" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -31022,14 +31211,14 @@
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
     </row>
-    <row r="53" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="10" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="8"/>
@@ -31054,14 +31243,14 @@
       <c r="AA53" s="8"/>
       <c r="AB53" s="8"/>
     </row>
-    <row r="54" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="10" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G54" s="14"/>
       <c r="H54" s="8"/>
@@ -31086,14 +31275,14 @@
       <c r="AA54" s="8"/>
       <c r="AB54" s="8"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="10" t="s">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="8"/>
@@ -31118,14 +31307,14 @@
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
     </row>
-    <row r="56" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="10" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="8"/>
@@ -31150,14 +31339,14 @@
       <c r="AA56" s="8"/>
       <c r="AB56" s="8"/>
     </row>
-    <row r="57" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="10" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="8"/>
@@ -31182,14 +31371,14 @@
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
     </row>
-    <row r="58" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="10" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="8"/>
@@ -31214,14 +31403,14 @@
       <c r="AA58" s="8"/>
       <c r="AB58" s="8"/>
     </row>
-    <row r="59" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="10" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="8"/>
@@ -31246,14 +31435,14 @@
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
     </row>
-    <row r="60" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="10" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="8"/>
@@ -31278,14 +31467,14 @@
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
     </row>
-    <row r="61" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="10" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="8"/>
@@ -31310,14 +31499,14 @@
       <c r="AA61" s="8"/>
       <c r="AB61" s="8"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="10" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="8"/>
@@ -31342,38 +31531,2778 @@
       <c r="AA62" s="8"/>
       <c r="AB62" s="8"/>
     </row>
+    <row r="63" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G64" s="14"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+    </row>
+    <row r="65" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>6</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+    </row>
+    <row r="67" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+    </row>
+    <row r="69" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+    </row>
+    <row r="70" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8"/>
+    </row>
+    <row r="71" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+    </row>
+    <row r="72" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+    </row>
+    <row r="73" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+    </row>
+    <row r="74" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+    </row>
+    <row r="75" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="8"/>
+    </row>
+    <row r="76" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
+      <c r="AB76" s="8"/>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="8"/>
+      <c r="AB77" s="8"/>
+    </row>
+    <row r="78" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
+        <v>7</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="8"/>
+      <c r="AB79" s="8"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G80" s="14"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="8"/>
+      <c r="AB80" s="8"/>
+    </row>
+    <row r="81" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+      <c r="U81" s="8"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="8"/>
+      <c r="X81" s="8"/>
+      <c r="Y81" s="8"/>
+      <c r="Z81" s="8"/>
+      <c r="AA81" s="8"/>
+      <c r="AB81" s="8"/>
+    </row>
+    <row r="82" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G82" s="14"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="8"/>
+      <c r="X82" s="8"/>
+      <c r="Y82" s="8"/>
+      <c r="Z82" s="8"/>
+      <c r="AA82" s="8"/>
+      <c r="AB82" s="8"/>
+    </row>
+    <row r="83" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+      <c r="U83" s="8"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="8"/>
+      <c r="X83" s="8"/>
+      <c r="Y83" s="8"/>
+      <c r="Z83" s="8"/>
+      <c r="AA83" s="8"/>
+      <c r="AB83" s="8"/>
+    </row>
+    <row r="84" spans="1:28" ht="66" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G84" s="14"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="8"/>
+      <c r="X84" s="8"/>
+      <c r="Y84" s="8"/>
+      <c r="Z84" s="8"/>
+      <c r="AA84" s="8"/>
+      <c r="AB84" s="8"/>
+    </row>
+    <row r="85" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G85" s="14"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="8"/>
+      <c r="X85" s="8"/>
+      <c r="Y85" s="8"/>
+      <c r="Z85" s="8"/>
+      <c r="AA85" s="8"/>
+      <c r="AB85" s="8"/>
+    </row>
+    <row r="86" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G86" s="14"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="8"/>
+      <c r="X86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="8"/>
+      <c r="AB86" s="8"/>
+    </row>
+    <row r="87" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G87" s="14"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="8"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G88" s="14"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="8"/>
+      <c r="AB88" s="8"/>
+    </row>
+    <row r="89" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
+        <v>8</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="16"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="8"/>
+      <c r="AB89" s="8"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G90" s="14"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="8"/>
+      <c r="AB90" s="8"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G91" s="14"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="8"/>
+      <c r="AB91" s="8"/>
+    </row>
+    <row r="92" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G92" s="14"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="8"/>
+      <c r="X92" s="8"/>
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="8"/>
+      <c r="AB92" s="8"/>
+    </row>
+    <row r="93" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G93" s="14"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="8"/>
+      <c r="X93" s="8"/>
+      <c r="Y93" s="8"/>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="8"/>
+      <c r="AB93" s="8"/>
+    </row>
+    <row r="94" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G94" s="14"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="8"/>
+      <c r="V94" s="8"/>
+      <c r="W94" s="8"/>
+      <c r="X94" s="8"/>
+      <c r="Y94" s="8"/>
+      <c r="Z94" s="8"/>
+      <c r="AA94" s="8"/>
+      <c r="AB94" s="8"/>
+    </row>
+    <row r="95" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G95" s="14"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="8"/>
+      <c r="W95" s="8"/>
+      <c r="X95" s="8"/>
+      <c r="Y95" s="8"/>
+      <c r="Z95" s="8"/>
+      <c r="AA95" s="8"/>
+      <c r="AB95" s="8"/>
+    </row>
+    <row r="96" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="G96" s="14"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8"/>
+      <c r="X96" s="8"/>
+      <c r="Y96" s="8"/>
+      <c r="Z96" s="8"/>
+      <c r="AA96" s="8"/>
+      <c r="AB96" s="8"/>
+    </row>
+    <row r="97" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="G97" s="14"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="8"/>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="8"/>
+      <c r="Z97" s="8"/>
+      <c r="AA97" s="8"/>
+      <c r="AB97" s="8"/>
+    </row>
+    <row r="98" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G98" s="14"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="8"/>
+      <c r="X98" s="8"/>
+      <c r="Y98" s="8"/>
+      <c r="Z98" s="8"/>
+      <c r="AA98" s="8"/>
+      <c r="AB98" s="8"/>
+    </row>
+    <row r="99" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="W99" s="8"/>
+      <c r="X99" s="8"/>
+      <c r="Y99" s="8"/>
+      <c r="Z99" s="8"/>
+      <c r="AA99" s="8"/>
+      <c r="AB99" s="8"/>
+    </row>
+    <row r="100" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G100" s="14"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8"/>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
+      <c r="U100" s="8"/>
+      <c r="V100" s="8"/>
+      <c r="W100" s="8"/>
+      <c r="X100" s="8"/>
+      <c r="Y100" s="8"/>
+      <c r="Z100" s="8"/>
+      <c r="AA100" s="8"/>
+      <c r="AB100" s="8"/>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G101" s="14"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="8"/>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
+      <c r="U101" s="8"/>
+      <c r="V101" s="8"/>
+      <c r="W101" s="8"/>
+      <c r="X101" s="8"/>
+      <c r="Y101" s="8"/>
+      <c r="Z101" s="8"/>
+      <c r="AA101" s="8"/>
+      <c r="AB101" s="8"/>
+    </row>
+    <row r="102" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="13">
+        <v>9</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="8"/>
+      <c r="X102" s="8"/>
+      <c r="Y102" s="8"/>
+      <c r="Z102" s="8"/>
+      <c r="AA102" s="8"/>
+      <c r="AB102" s="8"/>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G103" s="14"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="8"/>
+      <c r="W103" s="8"/>
+      <c r="X103" s="8"/>
+      <c r="Y103" s="8"/>
+      <c r="Z103" s="8"/>
+      <c r="AA103" s="8"/>
+      <c r="AB103" s="8"/>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G104" s="14"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="8"/>
+      <c r="V104" s="8"/>
+      <c r="W104" s="8"/>
+      <c r="X104" s="8"/>
+      <c r="Y104" s="8"/>
+      <c r="Z104" s="8"/>
+      <c r="AA104" s="8"/>
+      <c r="AB104" s="8"/>
+    </row>
+    <row r="105" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G105" s="14"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="8"/>
+      <c r="W105" s="8"/>
+      <c r="X105" s="8"/>
+      <c r="Y105" s="8"/>
+      <c r="Z105" s="8"/>
+      <c r="AA105" s="8"/>
+      <c r="AB105" s="8"/>
+    </row>
+    <row r="106" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G106" s="14"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="8"/>
+      <c r="R106" s="8"/>
+      <c r="S106" s="8"/>
+      <c r="T106" s="8"/>
+      <c r="U106" s="8"/>
+      <c r="V106" s="8"/>
+      <c r="W106" s="8"/>
+      <c r="X106" s="8"/>
+      <c r="Y106" s="8"/>
+      <c r="Z106" s="8"/>
+      <c r="AA106" s="8"/>
+      <c r="AB106" s="8"/>
+    </row>
+    <row r="107" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G107" s="14"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="8"/>
+      <c r="W107" s="8"/>
+      <c r="X107" s="8"/>
+      <c r="Y107" s="8"/>
+      <c r="Z107" s="8"/>
+      <c r="AA107" s="8"/>
+      <c r="AB107" s="8"/>
+    </row>
+    <row r="108" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G108" s="14"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="8"/>
+      <c r="W108" s="8"/>
+      <c r="X108" s="8"/>
+      <c r="Y108" s="8"/>
+      <c r="Z108" s="8"/>
+      <c r="AA108" s="8"/>
+      <c r="AB108" s="8"/>
+    </row>
+    <row r="109" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G109" s="14"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="8"/>
+      <c r="X109" s="8"/>
+      <c r="Y109" s="8"/>
+      <c r="Z109" s="8"/>
+      <c r="AA109" s="8"/>
+      <c r="AB109" s="8"/>
+    </row>
+    <row r="110" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G110" s="14"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="8"/>
+      <c r="W110" s="8"/>
+      <c r="X110" s="8"/>
+      <c r="Y110" s="8"/>
+      <c r="Z110" s="8"/>
+      <c r="AA110" s="8"/>
+      <c r="AB110" s="8"/>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G111" s="14"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+      <c r="Q111" s="8"/>
+      <c r="R111" s="8"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="8"/>
+      <c r="W111" s="8"/>
+      <c r="X111" s="8"/>
+      <c r="Y111" s="8"/>
+      <c r="Z111" s="8"/>
+      <c r="AA111" s="8"/>
+      <c r="AB111" s="8"/>
+    </row>
+    <row r="112" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="13">
+        <v>10</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="8"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="8"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="8"/>
+      <c r="W112" s="8"/>
+      <c r="X112" s="8"/>
+      <c r="Y112" s="8"/>
+      <c r="Z112" s="8"/>
+      <c r="AA112" s="8"/>
+      <c r="AB112" s="8"/>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G113" s="14"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
+      <c r="R113" s="8"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
+      <c r="U113" s="8"/>
+      <c r="V113" s="8"/>
+      <c r="W113" s="8"/>
+      <c r="X113" s="8"/>
+      <c r="Y113" s="8"/>
+      <c r="Z113" s="8"/>
+      <c r="AA113" s="8"/>
+      <c r="AB113" s="8"/>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G114" s="14"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="8"/>
+      <c r="W114" s="8"/>
+      <c r="X114" s="8"/>
+      <c r="Y114" s="8"/>
+      <c r="Z114" s="8"/>
+      <c r="AA114" s="8"/>
+      <c r="AB114" s="8"/>
+    </row>
+    <row r="115" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G115" s="14"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="8"/>
+      <c r="R115" s="8"/>
+      <c r="S115" s="8"/>
+      <c r="T115" s="8"/>
+      <c r="U115" s="8"/>
+      <c r="V115" s="8"/>
+      <c r="W115" s="8"/>
+      <c r="X115" s="8"/>
+      <c r="Y115" s="8"/>
+      <c r="Z115" s="8"/>
+      <c r="AA115" s="8"/>
+      <c r="AB115" s="8"/>
+    </row>
+    <row r="116" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A116" s="14"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="G116" s="14"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8"/>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="8"/>
+      <c r="W116" s="8"/>
+      <c r="X116" s="8"/>
+      <c r="Y116" s="8"/>
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8"/>
+      <c r="AB116" s="8"/>
+    </row>
+    <row r="117" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="G117" s="14"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+      <c r="S117" s="8"/>
+      <c r="T117" s="8"/>
+      <c r="U117" s="8"/>
+      <c r="V117" s="8"/>
+      <c r="W117" s="8"/>
+      <c r="X117" s="8"/>
+      <c r="Y117" s="8"/>
+      <c r="Z117" s="8"/>
+      <c r="AA117" s="8"/>
+      <c r="AB117" s="8"/>
+    </row>
+    <row r="118" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G118" s="14"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="8"/>
+      <c r="R118" s="8"/>
+      <c r="S118" s="8"/>
+      <c r="T118" s="8"/>
+      <c r="U118" s="8"/>
+      <c r="V118" s="8"/>
+      <c r="W118" s="8"/>
+      <c r="X118" s="8"/>
+      <c r="Y118" s="8"/>
+      <c r="Z118" s="8"/>
+      <c r="AA118" s="8"/>
+      <c r="AB118" s="8"/>
+    </row>
+    <row r="119" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G119" s="14"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="8"/>
+      <c r="R119" s="8"/>
+      <c r="S119" s="8"/>
+      <c r="T119" s="8"/>
+      <c r="U119" s="8"/>
+      <c r="V119" s="8"/>
+      <c r="W119" s="8"/>
+      <c r="X119" s="8"/>
+      <c r="Y119" s="8"/>
+      <c r="Z119" s="8"/>
+      <c r="AA119" s="8"/>
+      <c r="AB119" s="8"/>
+    </row>
+    <row r="120" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="G120" s="14"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+      <c r="Q120" s="8"/>
+      <c r="R120" s="8"/>
+      <c r="S120" s="8"/>
+      <c r="T120" s="8"/>
+      <c r="U120" s="8"/>
+      <c r="V120" s="8"/>
+      <c r="W120" s="8"/>
+      <c r="X120" s="8"/>
+      <c r="Y120" s="8"/>
+      <c r="Z120" s="8"/>
+      <c r="AA120" s="8"/>
+      <c r="AB120" s="8"/>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A121" s="14"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G121" s="14"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="8"/>
+      <c r="R121" s="8"/>
+      <c r="S121" s="8"/>
+      <c r="T121" s="8"/>
+      <c r="U121" s="8"/>
+      <c r="V121" s="8"/>
+      <c r="W121" s="8"/>
+      <c r="X121" s="8"/>
+      <c r="Y121" s="8"/>
+      <c r="Z121" s="8"/>
+      <c r="AA121" s="8"/>
+      <c r="AB121" s="8"/>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="8"/>
+      <c r="R122" s="8"/>
+      <c r="S122" s="8"/>
+      <c r="T122" s="8"/>
+      <c r="U122" s="8"/>
+      <c r="V122" s="8"/>
+      <c r="W122" s="8"/>
+      <c r="X122" s="8"/>
+      <c r="Y122" s="8"/>
+      <c r="Z122" s="8"/>
+      <c r="AA122" s="8"/>
+      <c r="AB122" s="8"/>
+    </row>
+    <row r="123" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13">
+        <v>11</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="8"/>
+      <c r="R123" s="8"/>
+      <c r="S123" s="8"/>
+      <c r="T123" s="8"/>
+      <c r="U123" s="8"/>
+      <c r="V123" s="8"/>
+      <c r="W123" s="8"/>
+      <c r="X123" s="8"/>
+      <c r="Y123" s="8"/>
+      <c r="Z123" s="8"/>
+      <c r="AA123" s="8"/>
+      <c r="AB123" s="8"/>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G124" s="14"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+      <c r="Q124" s="8"/>
+      <c r="R124" s="8"/>
+      <c r="S124" s="8"/>
+      <c r="T124" s="8"/>
+      <c r="U124" s="8"/>
+      <c r="V124" s="8"/>
+      <c r="W124" s="8"/>
+      <c r="X124" s="8"/>
+      <c r="Y124" s="8"/>
+      <c r="Z124" s="8"/>
+      <c r="AA124" s="8"/>
+      <c r="AB124" s="8"/>
+    </row>
+    <row r="125" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A125" s="14"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G125" s="14"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+      <c r="Q125" s="8"/>
+      <c r="R125" s="8"/>
+      <c r="S125" s="8"/>
+      <c r="T125" s="8"/>
+      <c r="U125" s="8"/>
+      <c r="V125" s="8"/>
+      <c r="W125" s="8"/>
+      <c r="X125" s="8"/>
+      <c r="Y125" s="8"/>
+      <c r="Z125" s="8"/>
+      <c r="AA125" s="8"/>
+      <c r="AB125" s="8"/>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A126" s="14"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G126" s="14"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="8"/>
+      <c r="R126" s="8"/>
+      <c r="S126" s="8"/>
+      <c r="T126" s="8"/>
+      <c r="U126" s="8"/>
+      <c r="V126" s="8"/>
+      <c r="W126" s="8"/>
+      <c r="X126" s="8"/>
+      <c r="Y126" s="8"/>
+      <c r="Z126" s="8"/>
+      <c r="AA126" s="8"/>
+      <c r="AB126" s="8"/>
+    </row>
+    <row r="127" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G127" s="14"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="8"/>
+      <c r="S127" s="8"/>
+      <c r="T127" s="8"/>
+      <c r="U127" s="8"/>
+      <c r="V127" s="8"/>
+      <c r="W127" s="8"/>
+      <c r="X127" s="8"/>
+      <c r="Y127" s="8"/>
+      <c r="Z127" s="8"/>
+      <c r="AA127" s="8"/>
+      <c r="AB127" s="8"/>
+    </row>
+    <row r="128" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="G128" s="14"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+      <c r="Q128" s="8"/>
+      <c r="R128" s="8"/>
+      <c r="S128" s="8"/>
+      <c r="T128" s="8"/>
+      <c r="U128" s="8"/>
+      <c r="V128" s="8"/>
+      <c r="W128" s="8"/>
+      <c r="X128" s="8"/>
+      <c r="Y128" s="8"/>
+      <c r="Z128" s="8"/>
+      <c r="AA128" s="8"/>
+      <c r="AB128" s="8"/>
+    </row>
+    <row r="129" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G129" s="14"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+      <c r="Q129" s="8"/>
+      <c r="R129" s="8"/>
+      <c r="S129" s="8"/>
+      <c r="T129" s="8"/>
+      <c r="U129" s="8"/>
+      <c r="V129" s="8"/>
+      <c r="W129" s="8"/>
+      <c r="X129" s="8"/>
+      <c r="Y129" s="8"/>
+      <c r="Z129" s="8"/>
+      <c r="AA129" s="8"/>
+      <c r="AB129" s="8"/>
+    </row>
+    <row r="130" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A130" s="14"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="G130" s="14"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="8"/>
+      <c r="P130" s="8"/>
+      <c r="Q130" s="8"/>
+      <c r="R130" s="8"/>
+      <c r="S130" s="8"/>
+      <c r="T130" s="8"/>
+      <c r="U130" s="8"/>
+      <c r="V130" s="8"/>
+      <c r="W130" s="8"/>
+      <c r="X130" s="8"/>
+      <c r="Y130" s="8"/>
+      <c r="Z130" s="8"/>
+      <c r="AA130" s="8"/>
+      <c r="AB130" s="8"/>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G131" s="14"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="8"/>
+      <c r="P131" s="8"/>
+      <c r="Q131" s="8"/>
+      <c r="R131" s="8"/>
+      <c r="S131" s="8"/>
+      <c r="T131" s="8"/>
+      <c r="U131" s="8"/>
+      <c r="V131" s="8"/>
+      <c r="W131" s="8"/>
+      <c r="X131" s="8"/>
+      <c r="Y131" s="8"/>
+      <c r="Z131" s="8"/>
+      <c r="AA131" s="8"/>
+      <c r="AB131" s="8"/>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A132" s="14"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="G132" s="14"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+      <c r="Q132" s="8"/>
+      <c r="R132" s="8"/>
+      <c r="S132" s="8"/>
+      <c r="T132" s="8"/>
+      <c r="U132" s="8"/>
+      <c r="V132" s="8"/>
+      <c r="W132" s="8"/>
+      <c r="X132" s="8"/>
+      <c r="Y132" s="8"/>
+      <c r="Z132" s="8"/>
+      <c r="AA132" s="8"/>
+      <c r="AB132" s="8"/>
+    </row>
+    <row r="133" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A133" s="14"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G133" s="14"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+      <c r="N133" s="8"/>
+      <c r="O133" s="8"/>
+      <c r="P133" s="8"/>
+      <c r="Q133" s="8"/>
+      <c r="R133" s="8"/>
+      <c r="S133" s="8"/>
+      <c r="T133" s="8"/>
+      <c r="U133" s="8"/>
+      <c r="V133" s="8"/>
+      <c r="W133" s="8"/>
+      <c r="X133" s="8"/>
+      <c r="Y133" s="8"/>
+      <c r="Z133" s="8"/>
+      <c r="AA133" s="8"/>
+      <c r="AB133" s="8"/>
+    </row>
+    <row r="134" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="13"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
+      <c r="N134" s="8"/>
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+      <c r="Q134" s="8"/>
+      <c r="R134" s="8"/>
+      <c r="S134" s="8"/>
+      <c r="T134" s="8"/>
+      <c r="U134" s="8"/>
+      <c r="V134" s="8"/>
+      <c r="W134" s="8"/>
+      <c r="X134" s="8"/>
+      <c r="Y134" s="8"/>
+      <c r="Z134" s="8"/>
+      <c r="AA134" s="8"/>
+      <c r="AB134" s="8"/>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A135" s="14"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="8"/>
+      <c r="P135" s="8"/>
+      <c r="Q135" s="8"/>
+      <c r="R135" s="8"/>
+      <c r="S135" s="8"/>
+      <c r="T135" s="8"/>
+      <c r="U135" s="8"/>
+      <c r="V135" s="8"/>
+      <c r="W135" s="8"/>
+      <c r="X135" s="8"/>
+      <c r="Y135" s="8"/>
+      <c r="Z135" s="8"/>
+      <c r="AA135" s="8"/>
+      <c r="AB135" s="8"/>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A136" s="14"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="8"/>
+      <c r="R136" s="8"/>
+      <c r="S136" s="8"/>
+      <c r="T136" s="8"/>
+      <c r="U136" s="8"/>
+      <c r="V136" s="8"/>
+      <c r="W136" s="8"/>
+      <c r="X136" s="8"/>
+      <c r="Y136" s="8"/>
+      <c r="Z136" s="8"/>
+      <c r="AA136" s="8"/>
+      <c r="AB136" s="8"/>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A137" s="14"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+      <c r="Q137" s="8"/>
+      <c r="R137" s="8"/>
+      <c r="S137" s="8"/>
+      <c r="T137" s="8"/>
+      <c r="U137" s="8"/>
+      <c r="V137" s="8"/>
+      <c r="W137" s="8"/>
+      <c r="X137" s="8"/>
+      <c r="Y137" s="8"/>
+      <c r="Z137" s="8"/>
+      <c r="AA137" s="8"/>
+      <c r="AB137" s="8"/>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A138" s="14"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+      <c r="Q138" s="8"/>
+      <c r="R138" s="8"/>
+      <c r="S138" s="8"/>
+      <c r="T138" s="8"/>
+      <c r="U138" s="8"/>
+      <c r="V138" s="8"/>
+      <c r="W138" s="8"/>
+      <c r="X138" s="8"/>
+      <c r="Y138" s="8"/>
+      <c r="Z138" s="8"/>
+      <c r="AA138" s="8"/>
+      <c r="AB138" s="8"/>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A139" s="14"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="8"/>
+      <c r="N139" s="8"/>
+      <c r="O139" s="8"/>
+      <c r="P139" s="8"/>
+      <c r="Q139" s="8"/>
+      <c r="R139" s="8"/>
+      <c r="S139" s="8"/>
+      <c r="T139" s="8"/>
+      <c r="U139" s="8"/>
+      <c r="V139" s="8"/>
+      <c r="W139" s="8"/>
+      <c r="X139" s="8"/>
+      <c r="Y139" s="8"/>
+      <c r="Z139" s="8"/>
+      <c r="AA139" s="8"/>
+      <c r="AB139" s="8"/>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A140" s="14"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+      <c r="Q140" s="8"/>
+      <c r="R140" s="8"/>
+      <c r="S140" s="8"/>
+      <c r="T140" s="8"/>
+      <c r="U140" s="8"/>
+      <c r="V140" s="8"/>
+      <c r="W140" s="8"/>
+      <c r="X140" s="8"/>
+      <c r="Y140" s="8"/>
+      <c r="Z140" s="8"/>
+      <c r="AA140" s="8"/>
+      <c r="AB140" s="8"/>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A141" s="14"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="8"/>
+      <c r="R141" s="8"/>
+      <c r="S141" s="8"/>
+      <c r="T141" s="8"/>
+      <c r="U141" s="8"/>
+      <c r="V141" s="8"/>
+      <c r="W141" s="8"/>
+      <c r="X141" s="8"/>
+      <c r="Y141" s="8"/>
+      <c r="Z141" s="8"/>
+      <c r="AA141" s="8"/>
+      <c r="AB141" s="8"/>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A142" s="14"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="8"/>
+      <c r="N142" s="8"/>
+      <c r="O142" s="8"/>
+      <c r="P142" s="8"/>
+      <c r="Q142" s="8"/>
+      <c r="R142" s="8"/>
+      <c r="S142" s="8"/>
+      <c r="T142" s="8"/>
+      <c r="U142" s="8"/>
+      <c r="V142" s="8"/>
+      <c r="W142" s="8"/>
+      <c r="X142" s="8"/>
+      <c r="Y142" s="8"/>
+      <c r="Z142" s="8"/>
+      <c r="AA142" s="8"/>
+      <c r="AB142" s="8"/>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A143" s="14"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
+      <c r="N143" s="8"/>
+      <c r="O143" s="8"/>
+      <c r="P143" s="8"/>
+      <c r="Q143" s="8"/>
+      <c r="R143" s="8"/>
+      <c r="S143" s="8"/>
+      <c r="T143" s="8"/>
+      <c r="U143" s="8"/>
+      <c r="V143" s="8"/>
+      <c r="W143" s="8"/>
+      <c r="X143" s="8"/>
+      <c r="Y143" s="8"/>
+      <c r="Z143" s="8"/>
+      <c r="AA143" s="8"/>
+      <c r="AB143" s="8"/>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A144" s="14"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="8"/>
+      <c r="N144" s="8"/>
+      <c r="O144" s="8"/>
+      <c r="P144" s="8"/>
+      <c r="Q144" s="8"/>
+      <c r="R144" s="8"/>
+      <c r="S144" s="8"/>
+      <c r="T144" s="8"/>
+      <c r="U144" s="8"/>
+      <c r="V144" s="8"/>
+      <c r="W144" s="8"/>
+      <c r="X144" s="8"/>
+      <c r="Y144" s="8"/>
+      <c r="Z144" s="8"/>
+      <c r="AA144" s="8"/>
+      <c r="AB144" s="8"/>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A145" s="14"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="8"/>
+      <c r="P145" s="8"/>
+      <c r="Q145" s="8"/>
+      <c r="R145" s="8"/>
+      <c r="S145" s="8"/>
+      <c r="T145" s="8"/>
+      <c r="U145" s="8"/>
+      <c r="V145" s="8"/>
+      <c r="W145" s="8"/>
+      <c r="X145" s="8"/>
+      <c r="Y145" s="8"/>
+      <c r="Z145" s="8"/>
+      <c r="AA145" s="8"/>
+      <c r="AB145" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="G51:G62"/>
-    <mergeCell ref="A51:A62"/>
-    <mergeCell ref="B51:B62"/>
-    <mergeCell ref="C51:C62"/>
-    <mergeCell ref="D51:D62"/>
-    <mergeCell ref="E51:E62"/>
-    <mergeCell ref="G26:G39"/>
-    <mergeCell ref="A40:A50"/>
-    <mergeCell ref="B40:B50"/>
-    <mergeCell ref="C40:C50"/>
-    <mergeCell ref="D40:D50"/>
-    <mergeCell ref="E40:E50"/>
-    <mergeCell ref="G40:G50"/>
-    <mergeCell ref="A26:A39"/>
-    <mergeCell ref="B26:B39"/>
-    <mergeCell ref="C26:C39"/>
-    <mergeCell ref="D26:D39"/>
-    <mergeCell ref="E26:E39"/>
+  <mergeCells count="72">
+    <mergeCell ref="G134:G145"/>
+    <mergeCell ref="A134:A145"/>
+    <mergeCell ref="B134:B145"/>
+    <mergeCell ref="C134:C145"/>
+    <mergeCell ref="D134:D145"/>
+    <mergeCell ref="E134:E145"/>
+    <mergeCell ref="G52:G64"/>
+    <mergeCell ref="A52:A64"/>
+    <mergeCell ref="B52:B64"/>
+    <mergeCell ref="C52:C64"/>
+    <mergeCell ref="D52:D64"/>
+    <mergeCell ref="E52:E64"/>
+    <mergeCell ref="G27:G40"/>
+    <mergeCell ref="A41:A51"/>
+    <mergeCell ref="B41:B51"/>
+    <mergeCell ref="C41:C51"/>
+    <mergeCell ref="D41:D51"/>
+    <mergeCell ref="E41:E51"/>
+    <mergeCell ref="G41:G51"/>
+    <mergeCell ref="A27:A40"/>
+    <mergeCell ref="B27:B40"/>
+    <mergeCell ref="C27:C40"/>
+    <mergeCell ref="D27:D40"/>
+    <mergeCell ref="E27:E40"/>
     <mergeCell ref="G2:G12"/>
-    <mergeCell ref="A13:A25"/>
-    <mergeCell ref="B13:B25"/>
-    <mergeCell ref="C13:C25"/>
-    <mergeCell ref="D13:D25"/>
-    <mergeCell ref="E13:E25"/>
-    <mergeCell ref="G13:G25"/>
+    <mergeCell ref="A13:A26"/>
+    <mergeCell ref="B13:B26"/>
+    <mergeCell ref="C13:C26"/>
+    <mergeCell ref="D13:D26"/>
+    <mergeCell ref="E13:E26"/>
+    <mergeCell ref="G13:G26"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="C2:C12"/>
     <mergeCell ref="D2:D12"/>
     <mergeCell ref="E2:E12"/>
+    <mergeCell ref="G65:G77"/>
+    <mergeCell ref="A78:A88"/>
+    <mergeCell ref="B78:B88"/>
+    <mergeCell ref="C78:C88"/>
+    <mergeCell ref="D78:D88"/>
+    <mergeCell ref="E78:E88"/>
+    <mergeCell ref="G78:G88"/>
+    <mergeCell ref="A65:A77"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="C65:C77"/>
+    <mergeCell ref="D65:D77"/>
+    <mergeCell ref="E65:E77"/>
+    <mergeCell ref="G89:G101"/>
+    <mergeCell ref="A102:A111"/>
+    <mergeCell ref="B102:B111"/>
+    <mergeCell ref="C102:C111"/>
+    <mergeCell ref="D102:D111"/>
+    <mergeCell ref="E102:E111"/>
+    <mergeCell ref="G102:G111"/>
+    <mergeCell ref="A89:A101"/>
+    <mergeCell ref="B89:B101"/>
+    <mergeCell ref="C89:C101"/>
+    <mergeCell ref="D89:D101"/>
+    <mergeCell ref="E89:E101"/>
+    <mergeCell ref="G112:G122"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="B123:B133"/>
+    <mergeCell ref="C123:C133"/>
+    <mergeCell ref="D123:D133"/>
+    <mergeCell ref="E123:E133"/>
+    <mergeCell ref="G123:G133"/>
+    <mergeCell ref="A112:A122"/>
+    <mergeCell ref="B112:B122"/>
+    <mergeCell ref="C112:C122"/>
+    <mergeCell ref="D112:D122"/>
+    <mergeCell ref="E112:E122"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="324">
   <si>
     <t>ID</t>
   </si>
@@ -610,82 +610,16 @@
     <t>3. На главной странице в блоке Заявки нажать плюс и перейти в окно создания заявки</t>
   </si>
   <si>
-    <t>4. Создать заявку (Тема - ремонт крана, Исполнитель - Иванов Даниил Данилович, дата - текущая, время - текущее, Описание - Срочно почините кран!)</t>
-  </si>
-  <si>
-    <t>5. Сохранить заявку</t>
-  </si>
-  <si>
-    <t>Войти с авторирацией в приложение. Создать заявку и прокомментировать.</t>
-  </si>
-  <si>
     <t>6. Свернуть приложение</t>
   </si>
   <si>
     <t>7. Развернуть приложение заново</t>
   </si>
   <si>
-    <t xml:space="preserve">8. Зайти в меню Заявки. </t>
-  </si>
-  <si>
-    <t>9. Найти созданную заявку</t>
-  </si>
-  <si>
-    <t>10. Добавить комментарий (Текст- Срочно!!!; Нажать Сохранить)</t>
-  </si>
-  <si>
     <t>11. Выйти из приложения с logout.</t>
   </si>
   <si>
-    <t>Войти с авторирацией в приложение. Создать заявку без исполнителя. Посмотреть заявку. Отменить.</t>
-  </si>
-  <si>
-    <t>4. Создать заявку (Тема - вкрутить лампочку, Исполнитель - нет, дата - текущая + 1, время - текущее, Описание - В коридоре не горит лампочка!)</t>
-  </si>
-  <si>
-    <t>6. Зайти в меню Заявки.</t>
-  </si>
-  <si>
-    <t>7. Найти заявку среди открытых.</t>
-  </si>
-  <si>
-    <t>8. Перевести в работу (Исполнитель - Иванов Даниил Данилович)</t>
-  </si>
-  <si>
-    <t>10. Сбросить</t>
-  </si>
-  <si>
-    <t>11. Найти заявку в Открытых</t>
-  </si>
-  <si>
-    <t>12. Отменить.</t>
-  </si>
-  <si>
     <t>13. Выйти из приложения с logout.</t>
-  </si>
-  <si>
-    <t>Войти с авторирацией в приложение. Создать заявку, исправить и выполнить.</t>
-  </si>
-  <si>
-    <t>3. На главной странице перейти по меню в Заявки, нажать плюс и перейти в окно создания заявки</t>
-  </si>
-  <si>
-    <t>6. Выйти из приложения (с logout)</t>
-  </si>
-  <si>
-    <t>7. Повторить пункты 1-2</t>
-  </si>
-  <si>
-    <t>11. Найти заявку в "В работе"</t>
-  </si>
-  <si>
-    <t>12. Выполнить заявку с комментарием "все убрано"</t>
-  </si>
-  <si>
-    <t>4. Создать заявку (Тема - уберите двор, дата - текущая, время - текущее 7-00, Описание - Срочно уберить мусор с дорожек!)</t>
-  </si>
-  <si>
-    <t>10. Найти заявку в Выполненых. Проверить наличие последнего комментария</t>
   </si>
   <si>
     <t>на каждом этапе проверять введенные данные в соответствии с тестом</t>
@@ -734,9 +668,6 @@
   </si>
   <si>
     <t>п. 9 выполнить переход на сторонние ресурсы нельзя - не работает</t>
-  </si>
-  <si>
-    <t>Создание заявки с редактированием и выполнением</t>
   </si>
   <si>
     <t>Войти с авторизацией в приложение. Сверить даты текущих новостей</t>
@@ -806,21 +737,6 @@
   </si>
   <si>
     <t>Пункт 6 должен выдавать ошибку установки интервала. Сейчас он просто не выдает ничего.</t>
-  </si>
-  <si>
-    <t>Создание заявки с главной страницы с просмотром и комментированием</t>
-  </si>
-  <si>
-    <t>Создание заявки из страницы с заявками с просмотром и сбросом (отменой)</t>
-  </si>
-  <si>
-    <t>9. Найти заявку по фильтру В работе</t>
-  </si>
-  <si>
-    <t>13. Проверить статус заявки в меню Заявки.</t>
-  </si>
-  <si>
-    <t>10. Войти в исправление. Изменить дату-время на текущее и исполнителя на Иванов Даниил Данилович. Сохранить</t>
   </si>
   <si>
     <t xml:space="preserve">8. Найти новость на главном меню.  </t>
@@ -950,6 +866,132 @@
   </si>
   <si>
     <t>возможно данный тест придется писать не на espresso</t>
+  </si>
+  <si>
+    <t>2. Ввести неверный логин\пароль. Проверить.</t>
+  </si>
+  <si>
+    <t>3. Ввести пустой логин, верный пароль. Проверить.</t>
+  </si>
+  <si>
+    <t>4. Ввести пустой пароль, верный логин. Проверить.</t>
+  </si>
+  <si>
+    <t>5. Ввести верный логин-пароль. Проверить наличие авторизации.</t>
+  </si>
+  <si>
+    <t>8. В главном меню проверить наличие авторизации</t>
+  </si>
+  <si>
+    <t>9. Выйти из приложения.</t>
+  </si>
+  <si>
+    <t>Пункт 6-8 не сделан. Не сделана проверка всплывающих сообщений при неправильном входе.</t>
+  </si>
+  <si>
+    <t>Авторизация в приложении</t>
+  </si>
+  <si>
+    <t>Последовательная проверка авторизации с ошибочными и пустыми паролями и логинами. Проверка выхода.</t>
+  </si>
+  <si>
+    <t>1. Запустить приложение. Авторизоваться.</t>
+  </si>
+  <si>
+    <t>3. Войти в создание заявки, заполнить. Нажать Отменить. Отказаться от отмены. Сохранить заявку.</t>
+  </si>
+  <si>
+    <t>4. Проверить сохраненную заявку в списке заявок.</t>
+  </si>
+  <si>
+    <t>2. Войти в создание заявки, заполнить, отменить. Отмену подтвердить.</t>
+  </si>
+  <si>
+    <t>Создание простой заявки c главной страницы. Проверка ввода пустых полей (кроме исполнителя).</t>
+  </si>
+  <si>
+    <t>Создание заявки из главной страницы и проверка пустых полей.</t>
+  </si>
+  <si>
+    <t>2. Войти в создание заявки. Проверить выдачу сообщений при попытке сохранения заявки с пустыми полями (кроме исполнителя).</t>
+  </si>
+  <si>
+    <t>Проверка отмены создания заявки.</t>
+  </si>
+  <si>
+    <t>Проверка отмены создания. Вызов создания заявки из главной страницы.</t>
+  </si>
+  <si>
+    <t>3. Войти в создание заявки. Заполнить все поля включая исполнителя. Сохранить заявку.</t>
+  </si>
+  <si>
+    <t>Создание заявки из страницы с заявками с проверкой заполнения поля Исполнитель.</t>
+  </si>
+  <si>
+    <t>2. На главной странице перейти по меню в Заявки, нажать плюс и перейти в окно создания заявки</t>
+  </si>
+  <si>
+    <t>4. Сменить исполнителя на текущего (под логином). Проверить изменение статуса.</t>
+  </si>
+  <si>
+    <t>Создание простых заявок в статусе Открыта и В работе. Проверка ввода "нового" исполнителя и автоматическое заполение поля в зависимости от наличия исполнителя.</t>
+  </si>
+  <si>
+    <t>7. Создать заявку с текущим исполнителем. Проверить статус заявки. /Должно быть доступно изменение/</t>
+  </si>
+  <si>
+    <t>8. Выйти из приложения с logout.</t>
+  </si>
+  <si>
+    <t>Проверка добавления комментариев к заявке на этапах Открыто и в Работе.</t>
+  </si>
+  <si>
+    <t>Создание заявки со статусом Открыто. Добавление и редактирование комментария. Добавление и редактирование комментария после изменения статуса.</t>
+  </si>
+  <si>
+    <t>3. Создать заявку без исполнителя. Проверить статус и содержимое созданной заявки</t>
+  </si>
+  <si>
+    <t>5. Создать заявку с "новым" исполнителем. Проверить статус  заявки и исполнителя.</t>
+  </si>
+  <si>
+    <t>6.   Проверить возможность изменения статуса с "новым" исполнителем.</t>
+  </si>
+  <si>
+    <t>Проверка с "новым" исполнителем не проходит - в базе нет других исполнителей, а введеный вручную не сохраняется. Соответсвенно проверит пункт 6 на данном этапе нельзя</t>
+  </si>
+  <si>
+    <t>2. На главное странице из блока заявок перейти в меню Заявки</t>
+  </si>
+  <si>
+    <t>4. Создать заявку без исполнителя в статусе открыто</t>
+  </si>
+  <si>
+    <t>7. Создать еще один комментарий</t>
+  </si>
+  <si>
+    <t>8. Сменить статус заявки на В работе</t>
+  </si>
+  <si>
+    <t>9. Добавить комментарий</t>
+  </si>
+  <si>
+    <t>10. Создать новую заявку в статусе В работе</t>
+  </si>
+  <si>
+    <t>11. Добавить и отредактировать комментарий к ней</t>
+  </si>
+  <si>
+    <t>5. Добавить к заявке комментарий с проверкой отмены</t>
+  </si>
+  <si>
+    <t>6. Отредактировать комментарий с проверкой отмены</t>
+  </si>
+  <si>
+    <t>Прохождение статусов заявки</t>
+  </si>
+  <si>
+    <t>Последовательно проверить все изменения статусов от Открыта до Исполнено/Отменено.</t>
   </si>
 </sst>
 </file>
@@ -1128,6 +1170,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1142,9 +1187,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1496,26 +1538,26 @@
       <c r="AC1" s="8"/>
     </row>
     <row r="2" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="8"/>
@@ -1541,16 +1583,16 @@
       <c r="AC2" s="8"/>
     </row>
     <row r="3" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="14"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1574,16 +1616,16 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1607,18 +1649,18 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1642,18 +1684,18 @@
       <c r="AC5" s="8"/>
     </row>
     <row r="6" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1677,26 +1719,26 @@
       <c r="AC6" s="8"/>
     </row>
     <row r="7" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="18" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="8"/>
@@ -1722,16 +1764,16 @@
       <c r="AC7" s="8"/>
     </row>
     <row r="8" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1755,16 +1797,16 @@
       <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1788,18 +1830,18 @@
       <c r="AC9" s="8"/>
     </row>
     <row r="10" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1823,26 +1865,26 @@
       <c r="AC10" s="8"/>
     </row>
     <row r="11" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1866,18 +1908,18 @@
       <c r="AC11" s="8"/>
     </row>
     <row r="12" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1901,18 +1943,18 @@
       <c r="AC12" s="8"/>
     </row>
     <row r="13" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1936,18 +1978,18 @@
       <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1971,26 +2013,26 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="14">
         <v>4</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="17"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -2014,18 +2056,18 @@
       <c r="AC15" s="8"/>
     </row>
     <row r="16" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -2049,18 +2091,18 @@
       <c r="AC16" s="8"/>
     </row>
     <row r="17" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="10" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -2084,18 +2126,18 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -2119,26 +2161,26 @@
       <c r="AC18" s="8"/>
     </row>
     <row r="19" spans="1:29" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="14">
         <v>5</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="17"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -2162,16 +2204,16 @@
       <c r="AC19" s="8"/>
     </row>
     <row r="20" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -2195,18 +2237,18 @@
       <c r="AC20" s="8"/>
     </row>
     <row r="21" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="10" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -2230,16 +2272,16 @@
       <c r="AC21" s="8"/>
     </row>
     <row r="22" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="14"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -2263,18 +2305,18 @@
       <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -2298,19 +2340,19 @@
       <c r="AC23" s="8"/>
     </row>
     <row r="24" spans="1:29" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="14">
         <v>6</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -2319,7 +2361,7 @@
       <c r="G24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -2343,18 +2385,18 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="10" t="s">
         <v>57</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -2378,18 +2420,18 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="10" t="s">
         <v>60</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -2413,18 +2455,18 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="19"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2448,18 +2490,18 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2483,19 +2525,19 @@
       <c r="AC28" s="8"/>
     </row>
     <row r="29" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="14">
         <v>7</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="10" t="s">
@@ -2504,7 +2546,7 @@
       <c r="G29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="17"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2528,18 +2570,18 @@
       <c r="AC29" s="8"/>
     </row>
     <row r="30" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="10" t="s">
         <v>68</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -2563,16 +2605,16 @@
       <c r="AC30" s="8"/>
     </row>
     <row r="31" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="10" t="s">
         <v>70</v>
       </c>
       <c r="G31" s="9"/>
-      <c r="H31" s="14"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -2596,18 +2638,18 @@
       <c r="AC31" s="8"/>
     </row>
     <row r="32" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="10" t="s">
         <v>71</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -2631,18 +2673,18 @@
       <c r="AC32" s="8"/>
     </row>
     <row r="33" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -2666,19 +2708,19 @@
       <c r="AC33" s="8"/>
     </row>
     <row r="34" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="A34" s="14">
         <v>8</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="10" t="s">
@@ -2687,7 +2729,7 @@
       <c r="G34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I34" s="8"/>
@@ -2713,18 +2755,18 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="10" t="s">
         <v>76</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H35" s="14"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2748,18 +2790,18 @@
       <c r="AC35" s="8"/>
     </row>
     <row r="36" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
       <c r="F36" s="10" t="s">
         <v>79</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="14"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2783,18 +2825,18 @@
       <c r="AC36" s="8"/>
     </row>
     <row r="37" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
       <c r="F37" s="10" t="s">
         <v>81</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H37" s="14"/>
+      <c r="H37" s="15"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -2818,19 +2860,19 @@
       <c r="AC37" s="8"/>
     </row>
     <row r="38" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
+      <c r="A38" s="14">
         <v>9</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="14" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="10" t="s">
@@ -2839,7 +2881,7 @@
       <c r="G38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H38" s="17"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2863,18 +2905,18 @@
       <c r="AC38" s="8"/>
     </row>
     <row r="39" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
       <c r="F39" s="11" t="s">
         <v>167</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="14"/>
+      <c r="H39" s="15"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -2898,18 +2940,18 @@
       <c r="AC39" s="8"/>
     </row>
     <row r="40" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="10" t="s">
         <v>86</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="14"/>
+      <c r="H40" s="15"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2933,19 +2975,19 @@
       <c r="AC40" s="8"/>
     </row>
     <row r="41" spans="1:29" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="A41" s="14">
         <v>10</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="10" t="s">
@@ -2954,7 +2996,7 @@
       <c r="G41" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I41" s="8"/>
@@ -2980,18 +3022,18 @@
       <c r="AC41" s="8"/>
     </row>
     <row r="42" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
       <c r="F42" s="10" t="s">
         <v>84</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="14"/>
+      <c r="H42" s="15"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -3015,18 +3057,18 @@
       <c r="AC42" s="8"/>
     </row>
     <row r="43" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
       <c r="F43" s="10" t="s">
         <v>86</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="14"/>
+      <c r="H43" s="15"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
@@ -3050,18 +3092,18 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
       <c r="F44" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H44" s="14"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -3085,18 +3127,18 @@
       <c r="AC44" s="8"/>
     </row>
     <row r="45" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
       <c r="F45" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H45" s="14"/>
+      <c r="H45" s="15"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
@@ -3120,18 +3162,18 @@
       <c r="AC45" s="8"/>
     </row>
     <row r="46" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
       <c r="F46" s="10" t="s">
         <v>91</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H46" s="14"/>
+      <c r="H46" s="15"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -3155,18 +3197,18 @@
       <c r="AC46" s="8"/>
     </row>
     <row r="47" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
       <c r="F47" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H47" s="14"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
@@ -3190,18 +3232,18 @@
       <c r="AC47" s="8"/>
     </row>
     <row r="48" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
       <c r="F48" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H48" s="14"/>
+      <c r="H48" s="15"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -3225,18 +3267,18 @@
       <c r="AC48" s="8"/>
     </row>
     <row r="49" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
       <c r="F49" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H49" s="14"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -3260,18 +3302,18 @@
       <c r="AC49" s="8"/>
     </row>
     <row r="50" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
       <c r="F50" s="10" t="s">
         <v>98</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="14"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -3295,19 +3337,19 @@
       <c r="AC50" s="8"/>
     </row>
     <row r="51" spans="1:29" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
+      <c r="A51" s="14">
         <v>11</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="18" t="s">
         <v>118</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -3316,7 +3358,7 @@
       <c r="G51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="17" t="s">
+      <c r="H51" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I51" s="8"/>
@@ -3342,16 +3384,16 @@
       <c r="AC51" s="8"/>
     </row>
     <row r="52" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
       <c r="F52" s="10" t="s">
         <v>103</v>
       </c>
       <c r="G52" s="9"/>
-      <c r="H52" s="14"/>
+      <c r="H52" s="15"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
@@ -3375,16 +3417,16 @@
       <c r="AC52" s="8"/>
     </row>
     <row r="53" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
       <c r="F53" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G53" s="9"/>
-      <c r="H53" s="14"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -3408,16 +3450,16 @@
       <c r="AC53" s="8"/>
     </row>
     <row r="54" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
       <c r="F54" s="10" t="s">
         <v>105</v>
       </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="14"/>
+      <c r="H54" s="15"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -3441,16 +3483,16 @@
       <c r="AC54" s="8"/>
     </row>
     <row r="55" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
       <c r="F55" s="10" t="s">
         <v>106</v>
       </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="14"/>
+      <c r="H55" s="15"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -3474,18 +3516,18 @@
       <c r="AC55" s="8"/>
     </row>
     <row r="56" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
       <c r="F56" s="10" t="s">
         <v>107</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H56" s="14"/>
+      <c r="H56" s="15"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
@@ -3509,16 +3551,16 @@
       <c r="AC56" s="8"/>
     </row>
     <row r="57" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
       <c r="F57" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G57" s="9"/>
-      <c r="H57" s="14"/>
+      <c r="H57" s="15"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
@@ -3542,18 +3584,18 @@
       <c r="AC57" s="8"/>
     </row>
     <row r="58" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
       <c r="F58" s="10" t="s">
         <v>108</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H58" s="14"/>
+      <c r="H58" s="15"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
@@ -3577,18 +3619,18 @@
       <c r="AC58" s="8"/>
     </row>
     <row r="59" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
       <c r="F59" s="10" t="s">
         <v>109</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H59" s="15"/>
+      <c r="H59" s="16"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -3612,19 +3654,19 @@
       <c r="AC59" s="8"/>
     </row>
     <row r="60" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
+      <c r="A60" s="14">
         <v>12</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="17" t="s">
         <v>100</v>
       </c>
       <c r="F60" s="11" t="s">
@@ -3633,7 +3675,7 @@
       <c r="G60" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="17"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -3657,16 +3699,16 @@
       <c r="AC60" s="8"/>
     </row>
     <row r="61" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
       <c r="F61" s="10" t="s">
         <v>120</v>
       </c>
       <c r="G61" s="9"/>
-      <c r="H61" s="14"/>
+      <c r="H61" s="15"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -3690,18 +3732,18 @@
       <c r="AC61" s="8"/>
     </row>
     <row r="62" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
       <c r="F62" s="10" t="s">
         <v>121</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H62" s="14"/>
+      <c r="H62" s="15"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -3725,16 +3767,16 @@
       <c r="AC62" s="8"/>
     </row>
     <row r="63" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
       <c r="F63" s="11" t="s">
         <v>170</v>
       </c>
       <c r="G63" s="11"/>
-      <c r="H63" s="14"/>
+      <c r="H63" s="15"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -3758,18 +3800,18 @@
       <c r="AC63" s="8"/>
     </row>
     <row r="64" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
       <c r="F64" s="12" t="s">
         <v>171</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H64" s="14"/>
+      <c r="H64" s="15"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -3793,18 +3835,18 @@
       <c r="AC64" s="8"/>
     </row>
     <row r="65" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
       <c r="F65" s="11" t="s">
         <v>173</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H65" s="14"/>
+      <c r="H65" s="15"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -3828,18 +3870,18 @@
       <c r="AC65" s="8"/>
     </row>
     <row r="66" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
       <c r="F66" s="11" t="s">
         <v>174</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H66" s="14"/>
+      <c r="H66" s="15"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -3863,26 +3905,26 @@
       <c r="AC66" s="8"/>
     </row>
     <row r="67" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
+      <c r="A67" s="14">
         <v>13</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="17" t="s">
         <v>100</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>168</v>
       </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="17"/>
+      <c r="H67" s="18"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -3906,16 +3948,16 @@
       <c r="AC67" s="8"/>
     </row>
     <row r="68" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
       <c r="F68" s="10" t="s">
         <v>120</v>
       </c>
       <c r="G68" s="9"/>
-      <c r="H68" s="14"/>
+      <c r="H68" s="15"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -3939,18 +3981,18 @@
       <c r="AC68" s="8"/>
     </row>
     <row r="69" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
       <c r="F69" s="11" t="s">
         <v>175</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H69" s="14"/>
+      <c r="H69" s="15"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -3974,16 +4016,16 @@
       <c r="AC69" s="8"/>
     </row>
     <row r="70" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
       <c r="F70" s="11" t="s">
         <v>170</v>
       </c>
       <c r="G70" s="9"/>
-      <c r="H70" s="14"/>
+      <c r="H70" s="15"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -4007,16 +4049,16 @@
       <c r="AC70" s="8"/>
     </row>
     <row r="71" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
       <c r="F71" s="11" t="s">
         <v>176</v>
       </c>
       <c r="G71" s="9"/>
-      <c r="H71" s="14"/>
+      <c r="H71" s="15"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
@@ -4040,18 +4082,18 @@
       <c r="AC71" s="8"/>
     </row>
     <row r="72" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
       <c r="F72" s="11" t="s">
         <v>173</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H72" s="14"/>
+      <c r="H72" s="15"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -4075,18 +4117,18 @@
       <c r="AC72" s="8"/>
     </row>
     <row r="73" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
       <c r="F73" s="11" t="s">
         <v>174</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H73" s="14"/>
+      <c r="H73" s="15"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -4110,19 +4152,19 @@
       <c r="AC73" s="8"/>
     </row>
     <row r="74" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
+      <c r="A74" s="14">
         <v>14</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="14" t="s">
         <v>119</v>
       </c>
       <c r="F74" s="11" t="s">
@@ -4131,7 +4173,7 @@
       <c r="G74" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H74" s="17"/>
+      <c r="H74" s="18"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -4155,16 +4197,16 @@
       <c r="AC74" s="8"/>
     </row>
     <row r="75" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
       <c r="F75" s="10" t="s">
         <v>120</v>
       </c>
       <c r="G75" s="9"/>
-      <c r="H75" s="14"/>
+      <c r="H75" s="15"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -4188,18 +4230,18 @@
       <c r="AC75" s="8"/>
     </row>
     <row r="76" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
       <c r="F76" s="10" t="s">
         <v>123</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="H76" s="14"/>
+      <c r="H76" s="15"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -4223,18 +4265,18 @@
       <c r="AC76" s="8"/>
     </row>
     <row r="77" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
       <c r="F77" s="11" t="s">
         <v>188</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H77" s="14"/>
+      <c r="H77" s="15"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -4258,18 +4300,18 @@
       <c r="AC77" s="8"/>
     </row>
     <row r="78" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
       <c r="F78" s="11" t="s">
         <v>189</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H78" s="14"/>
+      <c r="H78" s="15"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -4293,18 +4335,18 @@
       <c r="AC78" s="8"/>
     </row>
     <row r="79" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
       <c r="F79" s="11" t="s">
         <v>190</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H79" s="14"/>
+      <c r="H79" s="15"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
@@ -4328,19 +4370,19 @@
       <c r="AC79" s="8"/>
     </row>
     <row r="80" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
+      <c r="A80" s="14">
         <v>15</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="17" t="s">
+      <c r="E80" s="18" t="s">
         <v>125</v>
       </c>
       <c r="F80" s="10" t="s">
@@ -4349,7 +4391,7 @@
       <c r="G80" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H80" s="17" t="s">
+      <c r="H80" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I80" s="8"/>
@@ -4375,18 +4417,18 @@
       <c r="AC80" s="8"/>
     </row>
     <row r="81" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
       <c r="F81" s="10" t="s">
         <v>127</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H81" s="14"/>
+      <c r="H81" s="15"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -4410,18 +4452,18 @@
       <c r="AC81" s="8"/>
     </row>
     <row r="82" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
       <c r="F82" s="10" t="s">
         <v>128</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H82" s="14"/>
+      <c r="H82" s="15"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -4445,18 +4487,18 @@
       <c r="AC82" s="8"/>
     </row>
     <row r="83" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H83" s="15"/>
+      <c r="H83" s="16"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -4480,26 +4522,26 @@
       <c r="AC83" s="8"/>
     </row>
     <row r="84" spans="1:29" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
+      <c r="A84" s="14">
         <v>16</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>145</v>
       </c>
       <c r="G84" s="9"/>
-      <c r="H84" s="16" t="s">
+      <c r="H84" s="17" t="s">
         <v>78</v>
       </c>
       <c r="I84" s="8"/>
@@ -4525,16 +4567,16 @@
       <c r="AC84" s="8"/>
     </row>
     <row r="85" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
       <c r="F85" s="11" t="s">
         <v>144</v>
       </c>
       <c r="G85" s="9"/>
-      <c r="H85" s="14"/>
+      <c r="H85" s="15"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -4558,16 +4600,16 @@
       <c r="AC85" s="8"/>
     </row>
     <row r="86" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
       <c r="F86" s="11" t="s">
         <v>146</v>
       </c>
       <c r="G86" s="9"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="15"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -4591,18 +4633,18 @@
       <c r="AC86" s="8"/>
     </row>
     <row r="87" spans="1:29" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
       <c r="F87" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H87" s="15"/>
+      <c r="H87" s="16"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -4626,26 +4668,26 @@
       <c r="AC87" s="8"/>
     </row>
     <row r="88" spans="1:29" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
+      <c r="A88" s="14">
         <v>17</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>145</v>
       </c>
       <c r="G88" s="9"/>
-      <c r="H88" s="17" t="s">
+      <c r="H88" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I88" s="8"/>
@@ -4671,16 +4713,16 @@
       <c r="AC88" s="8"/>
     </row>
     <row r="89" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
       <c r="F89" s="11" t="s">
         <v>149</v>
       </c>
       <c r="G89" s="9"/>
-      <c r="H89" s="14"/>
+      <c r="H89" s="15"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -4704,16 +4746,16 @@
       <c r="AC89" s="8"/>
     </row>
     <row r="90" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
       <c r="F90" s="11" t="s">
         <v>150</v>
       </c>
       <c r="G90" s="9"/>
-      <c r="H90" s="14"/>
+      <c r="H90" s="15"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
@@ -4737,18 +4779,18 @@
       <c r="AC90" s="8"/>
     </row>
     <row r="91" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
       <c r="F91" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H91" s="15"/>
+      <c r="H91" s="16"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -4772,26 +4814,26 @@
       <c r="AC91" s="8"/>
     </row>
     <row r="92" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
+      <c r="A92" s="14">
         <v>18</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="E92" s="14" t="s">
         <v>135</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>145</v>
       </c>
       <c r="G92" s="9"/>
-      <c r="H92" s="13"/>
+      <c r="H92" s="14"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -4815,16 +4857,16 @@
       <c r="AC92" s="8"/>
     </row>
     <row r="93" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
       <c r="F93" s="11" t="s">
         <v>149</v>
       </c>
       <c r="G93" s="9"/>
-      <c r="H93" s="14"/>
+      <c r="H93" s="15"/>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -4847,19 +4889,19 @@
       <c r="AB93" s="8"/>
       <c r="AC93" s="8"/>
     </row>
-    <row r="94" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
+    <row r="94" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
       <c r="F94" s="11" t="s">
         <v>152</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H94" s="14"/>
+      <c r="H94" s="15"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -4883,26 +4925,26 @@
       <c r="AC94" s="8"/>
     </row>
     <row r="95" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
+      <c r="A95" s="14">
         <v>19</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>145</v>
       </c>
       <c r="G95" s="9"/>
-      <c r="H95" s="17" t="s">
+      <c r="H95" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I95" s="8"/>
@@ -4928,16 +4970,16 @@
       <c r="AC95" s="8"/>
     </row>
     <row r="96" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
       <c r="F96" s="11" t="s">
         <v>127</v>
       </c>
       <c r="G96" s="9"/>
-      <c r="H96" s="14"/>
+      <c r="H96" s="15"/>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -4961,16 +5003,16 @@
       <c r="AC96" s="8"/>
     </row>
     <row r="97" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
       <c r="F97" s="11" t="s">
         <v>128</v>
       </c>
       <c r="G97" s="9"/>
-      <c r="H97" s="14"/>
+      <c r="H97" s="15"/>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -4994,18 +5036,18 @@
       <c r="AC97" s="8"/>
     </row>
     <row r="98" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
       <c r="F98" s="11" t="s">
         <v>154</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="H98" s="14"/>
+      <c r="H98" s="15"/>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -5029,26 +5071,26 @@
       <c r="AC98" s="8"/>
     </row>
     <row r="99" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
+      <c r="A99" s="14">
         <v>20</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="17" t="s">
         <v>158</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>157</v>
       </c>
       <c r="G99" s="9"/>
-      <c r="H99" s="17"/>
+      <c r="H99" s="18"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -5072,18 +5114,18 @@
       <c r="AC99" s="8"/>
     </row>
     <row r="100" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
       <c r="F100" s="11" t="s">
         <v>160</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="H100" s="14"/>
+      <c r="H100" s="15"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
@@ -5107,16 +5149,16 @@
       <c r="AC100" s="8"/>
     </row>
     <row r="101" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
       <c r="F101" s="11" t="s">
         <v>161</v>
       </c>
       <c r="G101" s="9"/>
-      <c r="H101" s="14"/>
+      <c r="H101" s="15"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
@@ -5140,16 +5182,16 @@
       <c r="AC101" s="8"/>
     </row>
     <row r="102" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
       <c r="F102" s="11" t="s">
         <v>162</v>
       </c>
       <c r="G102" s="9"/>
-      <c r="H102" s="14"/>
+      <c r="H102" s="15"/>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -5173,18 +5215,18 @@
       <c r="AC102" s="8"/>
     </row>
     <row r="103" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
       <c r="F103" s="11" t="s">
         <v>163</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="H103" s="14"/>
+      <c r="H103" s="15"/>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -5208,16 +5250,16 @@
       <c r="AC103" s="8"/>
     </row>
     <row r="104" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
       <c r="F104" s="9"/>
       <c r="G104" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H104" s="14"/>
+      <c r="H104" s="15"/>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
@@ -5241,26 +5283,26 @@
       <c r="AC104" s="8"/>
     </row>
     <row r="105" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A105" s="13">
+      <c r="A105" s="14">
         <v>21</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D105" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="17" t="s">
         <v>100</v>
       </c>
       <c r="F105" s="11" t="s">
         <v>166</v>
       </c>
       <c r="G105" s="9"/>
-      <c r="H105" s="17"/>
+      <c r="H105" s="18"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -5284,16 +5326,16 @@
       <c r="AC105" s="8"/>
     </row>
     <row r="106" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
       <c r="F106" s="11" t="s">
         <v>179</v>
       </c>
       <c r="G106" s="9"/>
-      <c r="H106" s="14"/>
+      <c r="H106" s="15"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
@@ -5317,16 +5359,16 @@
       <c r="AC106" s="8"/>
     </row>
     <row r="107" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
       <c r="F107" s="11" t="s">
         <v>180</v>
       </c>
       <c r="G107" s="9"/>
-      <c r="H107" s="14"/>
+      <c r="H107" s="15"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
@@ -5350,18 +5392,18 @@
       <c r="AC107" s="8"/>
     </row>
     <row r="108" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
       <c r="F108" s="11" t="s">
         <v>181</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H108" s="14"/>
+      <c r="H108" s="15"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
@@ -5385,16 +5427,16 @@
       <c r="AC108" s="8"/>
     </row>
     <row r="109" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
       <c r="F109" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G109" s="11"/>
-      <c r="H109" s="14"/>
+      <c r="H109" s="15"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -5418,16 +5460,16 @@
       <c r="AC109" s="8"/>
     </row>
     <row r="110" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
       <c r="F110" s="11" t="s">
         <v>186</v>
       </c>
       <c r="G110" s="11"/>
-      <c r="H110" s="14"/>
+      <c r="H110" s="15"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -5451,18 +5493,18 @@
       <c r="AC110" s="8"/>
     </row>
     <row r="111" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
       <c r="F111" s="11" t="s">
         <v>184</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H111" s="14"/>
+      <c r="H111" s="15"/>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
@@ -5486,26 +5528,26 @@
       <c r="AC111" s="8"/>
     </row>
     <row r="112" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="13">
+      <c r="A112" s="14">
         <v>22</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D112" s="13" t="s">
+      <c r="D112" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="17" t="s">
+      <c r="E112" s="18" t="s">
         <v>136</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>137</v>
       </c>
       <c r="G112" s="9"/>
-      <c r="H112" s="17"/>
+      <c r="H112" s="18"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
@@ -5529,18 +5571,18 @@
       <c r="AC112" s="8"/>
     </row>
     <row r="113" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
       <c r="F113" s="10" t="s">
         <v>140</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H113" s="14"/>
+      <c r="H113" s="15"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
@@ -5564,18 +5606,18 @@
       <c r="AC113" s="8"/>
     </row>
     <row r="114" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
       <c r="F114" s="10" t="s">
         <v>138</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H114" s="14"/>
+      <c r="H114" s="15"/>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
@@ -5599,18 +5641,18 @@
       <c r="AC114" s="8"/>
     </row>
     <row r="115" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
       <c r="F115" s="10" t="s">
         <v>139</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H115" s="15"/>
+      <c r="H115" s="16"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
@@ -29459,10 +29501,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB145"/>
+  <dimension ref="A1:AB157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134:G145"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29471,7 +29514,7 @@
     <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="36.77734375" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" customWidth="1"/>
     <col min="7" max="7" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29520,26 +29563,26 @@
       <c r="AB1" s="8"/>
     </row>
     <row r="2" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>222</v>
+      <c r="G2" s="17" t="s">
+        <v>288</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -29563,16 +29606,16 @@
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+    <row r="3" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" s="14"/>
+        <v>282</v>
+      </c>
+      <c r="G3" s="15"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -29595,16 +29638,16 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
     </row>
-    <row r="4" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+    <row r="4" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="14"/>
+        <v>283</v>
+      </c>
+      <c r="G4" s="15"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -29627,16 +29670,16 @@
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="66" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+    <row r="5" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" s="14"/>
+        <v>284</v>
+      </c>
+      <c r="G5" s="15"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -29659,16 +29702,16 @@
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+    <row r="6" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="14"/>
+        <v>285</v>
+      </c>
+      <c r="G6" s="15"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -29692,15 +29735,15 @@
       <c r="AB6" s="8"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="14"/>
+        <v>196</v>
+      </c>
+      <c r="G7" s="15"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -29724,15 +29767,15 @@
       <c r="AB7" s="8"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="G8" s="15"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -29755,16 +29798,16 @@
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+    <row r="9" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G9" s="14"/>
+        <v>286</v>
+      </c>
+      <c r="G9" s="15"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -29788,15 +29831,15 @@
       <c r="AB9" s="8"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="14"/>
+        <v>287</v>
+      </c>
+      <c r="G10" s="15"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -29819,16 +29862,16 @@
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="14"/>
+        <v>262</v>
+      </c>
+      <c r="G11" s="15"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -29851,16 +29894,26 @@
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+    <row r="12" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>2</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F12" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="14"/>
+        <v>291</v>
+      </c>
+      <c r="G12" s="17"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -29883,28 +29936,16 @@
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
     </row>
-    <row r="13" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>193</v>
-      </c>
+    <row r="13" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>222</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="G13" s="15"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -29927,16 +29968,16 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G14" s="14"/>
+    <row r="14" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" s="15"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -29959,16 +30000,16 @@
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+    <row r="15" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G15" s="14"/>
+        <v>293</v>
+      </c>
+      <c r="G15" s="15"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -29991,16 +30032,16 @@
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
     </row>
-    <row r="16" spans="1:28" ht="66" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -30023,16 +30064,26 @@
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+    <row r="17" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>3</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F17" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" s="14"/>
+        <v>291</v>
+      </c>
+      <c r="G17" s="17"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -30055,16 +30106,16 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+    <row r="18" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" s="14"/>
+        <v>294</v>
+      </c>
+      <c r="G18" s="15"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -30087,16 +30138,16 @@
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+    <row r="19" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="14"/>
+        <v>292</v>
+      </c>
+      <c r="G19" s="15"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -30120,15 +30171,15 @@
       <c r="AB19" s="8"/>
     </row>
     <row r="20" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G20" s="14"/>
+        <v>293</v>
+      </c>
+      <c r="G20" s="15"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -30152,15 +30203,15 @@
       <c r="AB20" s="8"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="G21" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="G21" s="15"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -30183,16 +30234,28 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+    <row r="22" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>4</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F22" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="14"/>
+        <v>291</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>312</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -30215,16 +30278,16 @@
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G23" s="14"/>
+    <row r="23" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G23" s="15"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -30247,16 +30310,16 @@
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G24" s="14"/>
+    <row r="24" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G24" s="15"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -30280,15 +30343,15 @@
       <c r="AB24" s="8"/>
     </row>
     <row r="25" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G25" s="15"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -30311,16 +30374,16 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G26" s="14"/>
+    <row r="26" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G26" s="15"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -30343,28 +30406,16 @@
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
     </row>
-    <row r="27" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>3</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>222</v>
-      </c>
+    <row r="27" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G27" s="15"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -30387,16 +30438,16 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" s="14"/>
+    <row r="28" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="G28" s="15"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -30419,16 +30470,16 @@
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
     </row>
-    <row r="29" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="G29" s="14"/>
+        <v>306</v>
+      </c>
+      <c r="G29" s="15"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -30451,16 +30502,26 @@
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
     </row>
-    <row r="30" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+    <row r="30" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>5</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F30" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G30" s="14"/>
+        <v>291</v>
+      </c>
+      <c r="G30" s="17"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -30483,16 +30544,16 @@
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+    <row r="31" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="14"/>
+        <v>313</v>
+      </c>
+      <c r="G31" s="15"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -30515,16 +30576,16 @@
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+    <row r="32" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" s="14"/>
+        <v>195</v>
+      </c>
+      <c r="G32" s="15"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -30547,16 +30608,16 @@
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+    <row r="33" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G33" s="14"/>
+        <v>314</v>
+      </c>
+      <c r="G33" s="15"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -30579,16 +30640,16 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+    <row r="34" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" s="14"/>
+        <v>320</v>
+      </c>
+      <c r="G34" s="15"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -30611,16 +30672,16 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+    <row r="35" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G35" s="14"/>
+        <v>321</v>
+      </c>
+      <c r="G35" s="15"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -30643,16 +30704,16 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
     </row>
-    <row r="36" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
       <c r="F36" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="G36" s="14"/>
+        <v>315</v>
+      </c>
+      <c r="G36" s="15"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -30676,15 +30737,15 @@
       <c r="AB36" s="8"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
       <c r="F37" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="G37" s="14"/>
+        <v>316</v>
+      </c>
+      <c r="G37" s="15"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -30707,16 +30768,16 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
     </row>
-    <row r="38" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
       <c r="F38" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="G38" s="14"/>
+        <v>317</v>
+      </c>
+      <c r="G38" s="15"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -30739,16 +30800,16 @@
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
     </row>
-    <row r="39" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+    <row r="39" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
       <c r="F39" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G39" s="14"/>
+        <v>318</v>
+      </c>
+      <c r="G39" s="15"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -30771,16 +30832,16 @@
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+    <row r="40" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G40" s="14"/>
+        <v>319</v>
+      </c>
+      <c r="G40" s="15"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -30803,28 +30864,16 @@
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
     </row>
-    <row r="41" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>4</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>193</v>
-      </c>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
       <c r="F41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>222</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G41" s="15"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -30847,16 +30896,26 @@
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+    <row r="42" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>6</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F42" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G42" s="14"/>
+        <v>291</v>
+      </c>
+      <c r="G42" s="17"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -30879,16 +30938,14 @@
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
     </row>
-    <row r="43" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="G43" s="14"/>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="15"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -30911,16 +30968,14 @@
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
     </row>
-    <row r="44" spans="1:28" ht="66" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="G44" s="14"/>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="15"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -30944,15 +30999,13 @@
       <c r="AB44" s="8"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G45" s="14"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="15"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -30976,15 +31029,13 @@
       <c r="AB45" s="8"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G46" s="14"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="15"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -31008,15 +31059,13 @@
       <c r="AB46" s="8"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="G47" s="14"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -31040,15 +31089,13 @@
       <c r="AB47" s="8"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="G48" s="14"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="15"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -31071,16 +31118,14 @@
       <c r="AA48" s="8"/>
       <c r="AB48" s="8"/>
     </row>
-    <row r="49" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="G49" s="14"/>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -31103,16 +31148,14 @@
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
     </row>
-    <row r="50" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="G50" s="14"/>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="15"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -31136,15 +31179,13 @@
       <c r="AB50" s="8"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G51" s="14"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -31167,28 +31208,16 @@
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
     </row>
-    <row r="52" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
-        <v>5</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>193</v>
-      </c>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
       <c r="F52" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>237</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G52" s="15"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -31211,16 +31240,28 @@
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+    <row r="53" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>4</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F53" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G53" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>200</v>
+      </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -31243,16 +31284,16 @@
       <c r="AA53" s="8"/>
       <c r="AB53" s="8"/>
     </row>
-    <row r="54" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
       <c r="F54" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G54" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="G54" s="15"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
@@ -31275,16 +31316,16 @@
       <c r="AA54" s="8"/>
       <c r="AB54" s="8"/>
     </row>
-    <row r="55" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+    <row r="55" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
       <c r="F55" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="G55" s="14"/>
+        <v>203</v>
+      </c>
+      <c r="G55" s="15"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -31307,16 +31348,16 @@
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+    <row r="56" spans="1:28" ht="66" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
       <c r="F56" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" s="14"/>
+        <v>204</v>
+      </c>
+      <c r="G56" s="15"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
@@ -31339,16 +31380,16 @@
       <c r="AA56" s="8"/>
       <c r="AB56" s="8"/>
     </row>
-    <row r="57" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
       <c r="F57" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G57" s="14"/>
+        <v>205</v>
+      </c>
+      <c r="G57" s="15"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
@@ -31371,16 +31412,16 @@
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
     </row>
-    <row r="58" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
       <c r="F58" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="G58" s="14"/>
+        <v>196</v>
+      </c>
+      <c r="G58" s="15"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -31403,16 +31444,16 @@
       <c r="AA58" s="8"/>
       <c r="AB58" s="8"/>
     </row>
-    <row r="59" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
       <c r="F59" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="G59" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="G59" s="15"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -31435,16 +31476,16 @@
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
     </row>
-    <row r="60" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
       <c r="F60" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G60" s="14"/>
+        <v>239</v>
+      </c>
+      <c r="G60" s="15"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -31467,16 +31508,16 @@
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
     </row>
-    <row r="61" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
       <c r="F61" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="G61" s="14"/>
+        <v>206</v>
+      </c>
+      <c r="G61" s="15"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -31499,16 +31540,16 @@
       <c r="AA61" s="8"/>
       <c r="AB61" s="8"/>
     </row>
-    <row r="62" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
+    <row r="62" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
       <c r="F62" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G62" s="14"/>
+        <v>240</v>
+      </c>
+      <c r="G62" s="15"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
@@ -31531,16 +31572,16 @@
       <c r="AA62" s="8"/>
       <c r="AB62" s="8"/>
     </row>
-    <row r="63" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
       <c r="F63" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="G63" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="G63" s="15"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -31563,16 +31604,28 @@
       <c r="AA63" s="8"/>
       <c r="AB63" s="8"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
+    <row r="64" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>5</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F64" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G64" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>215</v>
+      </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
@@ -31595,26 +31648,16 @@
       <c r="AA64" s="8"/>
       <c r="AB64" s="8"/>
     </row>
-    <row r="65" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>6</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>193</v>
-      </c>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
       <c r="F65" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="16"/>
+        <v>194</v>
+      </c>
+      <c r="G65" s="15"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -31637,16 +31680,16 @@
       <c r="AA65" s="8"/>
       <c r="AB65" s="8"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
+    <row r="66" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
       <c r="F66" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G66" s="14"/>
+        <v>209</v>
+      </c>
+      <c r="G66" s="15"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
@@ -31669,16 +31712,16 @@
       <c r="AA66" s="8"/>
       <c r="AB66" s="8"/>
     </row>
-    <row r="67" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
+    <row r="67" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
       <c r="F67" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="G67" s="14"/>
+        <v>212</v>
+      </c>
+      <c r="G67" s="15"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
@@ -31702,15 +31745,15 @@
       <c r="AB67" s="8"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
       <c r="F68" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="G68" s="14"/>
+        <v>72</v>
+      </c>
+      <c r="G68" s="15"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
@@ -31733,16 +31776,16 @@
       <c r="AA68" s="8"/>
       <c r="AB68" s="8"/>
     </row>
-    <row r="69" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
+    <row r="69" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
       <c r="F69" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G69" s="14"/>
+        <v>210</v>
+      </c>
+      <c r="G69" s="15"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -31765,16 +31808,16 @@
       <c r="AA69" s="8"/>
       <c r="AB69" s="8"/>
     </row>
-    <row r="70" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
+    <row r="70" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
       <c r="F70" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G70" s="14"/>
+        <v>211</v>
+      </c>
+      <c r="G70" s="15"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
@@ -31798,15 +31841,15 @@
       <c r="AB70" s="8"/>
     </row>
     <row r="71" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
       <c r="F71" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G71" s="14"/>
+        <v>213</v>
+      </c>
+      <c r="G71" s="15"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
@@ -31829,16 +31872,16 @@
       <c r="AA71" s="8"/>
       <c r="AB71" s="8"/>
     </row>
-    <row r="72" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
+    <row r="72" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
       <c r="F72" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="G72" s="14"/>
+        <v>214</v>
+      </c>
+      <c r="G72" s="15"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
@@ -31862,15 +31905,15 @@
       <c r="AB72" s="8"/>
     </row>
     <row r="73" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
       <c r="F73" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G73" s="14"/>
+        <v>241</v>
+      </c>
+      <c r="G73" s="15"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
@@ -31893,16 +31936,16 @@
       <c r="AA73" s="8"/>
       <c r="AB73" s="8"/>
     </row>
-    <row r="74" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
+    <row r="74" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
       <c r="F74" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="G74" s="14"/>
+        <v>242</v>
+      </c>
+      <c r="G74" s="15"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
@@ -31925,16 +31968,16 @@
       <c r="AA74" s="8"/>
       <c r="AB74" s="8"/>
     </row>
-    <row r="75" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
+    <row r="75" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
       <c r="F75" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G75" s="14"/>
+        <v>243</v>
+      </c>
+      <c r="G75" s="15"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
@@ -31957,16 +32000,16 @@
       <c r="AA75" s="8"/>
       <c r="AB75" s="8"/>
     </row>
-    <row r="76" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
       <c r="F76" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G76" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="G76" s="15"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
@@ -31989,16 +32032,26 @@
       <c r="AA76" s="8"/>
       <c r="AB76" s="8"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
+    <row r="77" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
+        <v>6</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F77" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G77" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="G77" s="17"/>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
@@ -32021,28 +32074,16 @@
       <c r="AA77" s="8"/>
       <c r="AB77" s="8"/>
     </row>
-    <row r="78" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>7</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>193</v>
-      </c>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
       <c r="F78" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>261</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G78" s="15"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
@@ -32065,16 +32106,16 @@
       <c r="AA78" s="8"/>
       <c r="AB78" s="8"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
+    <row r="79" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
       <c r="F79" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G79" s="14"/>
+        <v>218</v>
+      </c>
+      <c r="G79" s="15"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
@@ -32098,15 +32139,15 @@
       <c r="AB79" s="8"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
       <c r="F80" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G80" s="14"/>
+        <v>219</v>
+      </c>
+      <c r="G80" s="15"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
@@ -32129,16 +32170,16 @@
       <c r="AA80" s="8"/>
       <c r="AB80" s="8"/>
     </row>
-    <row r="81" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
+    <row r="81" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
       <c r="F81" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="G81" s="14"/>
+        <v>220</v>
+      </c>
+      <c r="G81" s="15"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -32161,16 +32202,16 @@
       <c r="AA81" s="8"/>
       <c r="AB81" s="8"/>
     </row>
-    <row r="82" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
+    <row r="82" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
       <c r="F82" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="G82" s="14"/>
+        <v>221</v>
+      </c>
+      <c r="G82" s="15"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
@@ -32193,16 +32234,16 @@
       <c r="AA82" s="8"/>
       <c r="AB82" s="8"/>
     </row>
-    <row r="83" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
+    <row r="83" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
       <c r="F83" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G83" s="14"/>
+        <v>222</v>
+      </c>
+      <c r="G83" s="15"/>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
@@ -32225,16 +32266,16 @@
       <c r="AA83" s="8"/>
       <c r="AB83" s="8"/>
     </row>
-    <row r="84" spans="1:28" ht="66" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
+    <row r="84" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
       <c r="F84" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G84" s="14"/>
+        <v>223</v>
+      </c>
+      <c r="G84" s="15"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
@@ -32257,16 +32298,16 @@
       <c r="AA84" s="8"/>
       <c r="AB84" s="8"/>
     </row>
-    <row r="85" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
+    <row r="85" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
       <c r="F85" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G85" s="14"/>
+        <v>224</v>
+      </c>
+      <c r="G85" s="15"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
@@ -32289,16 +32330,16 @@
       <c r="AA85" s="8"/>
       <c r="AB85" s="8"/>
     </row>
-    <row r="86" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
+    <row r="86" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
       <c r="F86" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="G86" s="14"/>
+        <v>225</v>
+      </c>
+      <c r="G86" s="15"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
@@ -32322,15 +32363,15 @@
       <c r="AB86" s="8"/>
     </row>
     <row r="87" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
       <c r="F87" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G87" s="14"/>
+        <v>226</v>
+      </c>
+      <c r="G87" s="15"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
@@ -32353,16 +32394,16 @@
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
+    <row r="88" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
       <c r="F88" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G88" s="14"/>
+        <v>227</v>
+      </c>
+      <c r="G88" s="15"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
@@ -32385,26 +32426,16 @@
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
     </row>
-    <row r="89" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>8</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>193</v>
-      </c>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
       <c r="F89" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" s="16"/>
+        <v>199</v>
+      </c>
+      <c r="G89" s="15"/>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
@@ -32427,16 +32458,28 @@
       <c r="AA89" s="8"/>
       <c r="AB89" s="8"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
+    <row r="90" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14">
+        <v>7</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F90" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G90" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>238</v>
+      </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
@@ -32460,15 +32503,15 @@
       <c r="AB90" s="8"/>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
       <c r="F91" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="G91" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="G91" s="15"/>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
@@ -32491,16 +32534,16 @@
       <c r="AA91" s="8"/>
       <c r="AB91" s="8"/>
     </row>
-    <row r="92" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G92" s="14"/>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G92" s="15"/>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -32523,16 +32566,16 @@
       <c r="AA92" s="8"/>
       <c r="AB92" s="8"/>
     </row>
-    <row r="93" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
+    <row r="93" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
       <c r="F93" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="G93" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="G93" s="15"/>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -32555,16 +32598,16 @@
       <c r="AA93" s="8"/>
       <c r="AB93" s="8"/>
     </row>
-    <row r="94" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
+    <row r="94" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
       <c r="F94" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G94" s="14"/>
+        <v>232</v>
+      </c>
+      <c r="G94" s="15"/>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
@@ -32587,16 +32630,16 @@
       <c r="AA94" s="8"/>
       <c r="AB94" s="8"/>
     </row>
-    <row r="95" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
+    <row r="95" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
       <c r="F95" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="G95" s="14"/>
+        <v>237</v>
+      </c>
+      <c r="G95" s="15"/>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
@@ -32619,16 +32662,16 @@
       <c r="AA95" s="8"/>
       <c r="AB95" s="8"/>
     </row>
-    <row r="96" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
+    <row r="96" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
       <c r="F96" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="G96" s="14"/>
+        <v>233</v>
+      </c>
+      <c r="G96" s="15"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
@@ -32651,16 +32694,16 @@
       <c r="AA96" s="8"/>
       <c r="AB96" s="8"/>
     </row>
-    <row r="97" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="G97" s="14"/>
+    <row r="97" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G97" s="15"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
@@ -32683,16 +32726,16 @@
       <c r="AA97" s="8"/>
       <c r="AB97" s="8"/>
     </row>
-    <row r="98" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
+    <row r="98" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
       <c r="F98" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="G98" s="14"/>
+        <v>235</v>
+      </c>
+      <c r="G98" s="15"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
@@ -32715,16 +32758,16 @@
       <c r="AA98" s="8"/>
       <c r="AB98" s="8"/>
     </row>
-    <row r="99" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
+    <row r="99" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
       <c r="F99" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="G99" s="14"/>
+        <v>236</v>
+      </c>
+      <c r="G99" s="15"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
@@ -32747,16 +32790,16 @@
       <c r="AA99" s="8"/>
       <c r="AB99" s="8"/>
     </row>
-    <row r="100" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
       <c r="F100" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="G100" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="G100" s="15"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
@@ -32779,16 +32822,26 @@
       <c r="AA100" s="8"/>
       <c r="AB100" s="8"/>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
+    <row r="101" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14">
+        <v>8</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F101" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G101" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="G101" s="17"/>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -32811,28 +32864,16 @@
       <c r="AA101" s="8"/>
       <c r="AB101" s="8"/>
     </row>
-    <row r="102" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="13">
-        <v>9</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>193</v>
-      </c>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
       <c r="F102" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="16" t="s">
-        <v>289</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G102" s="15"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
@@ -32856,15 +32897,15 @@
       <c r="AB102" s="8"/>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
       <c r="F103" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G103" s="14"/>
+        <v>245</v>
+      </c>
+      <c r="G103" s="15"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
@@ -32887,16 +32928,16 @@
       <c r="AA103" s="8"/>
       <c r="AB103" s="8"/>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="G104" s="14"/>
+    <row r="104" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G104" s="15"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
@@ -32920,15 +32961,15 @@
       <c r="AB104" s="8"/>
     </row>
     <row r="105" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
       <c r="F105" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="G105" s="14"/>
+        <v>247</v>
+      </c>
+      <c r="G105" s="15"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
@@ -32952,15 +32993,15 @@
       <c r="AB105" s="8"/>
     </row>
     <row r="106" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
       <c r="F106" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="G106" s="14"/>
+        <v>248</v>
+      </c>
+      <c r="G106" s="15"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
@@ -32984,15 +33025,15 @@
       <c r="AB106" s="8"/>
     </row>
     <row r="107" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
       <c r="F107" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="G107" s="14"/>
+        <v>249</v>
+      </c>
+      <c r="G107" s="15"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
@@ -33015,16 +33056,16 @@
       <c r="AA107" s="8"/>
       <c r="AB107" s="8"/>
     </row>
-    <row r="108" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
+    <row r="108" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
       <c r="F108" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="G108" s="14"/>
+        <v>250</v>
+      </c>
+      <c r="G108" s="15"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
@@ -33047,16 +33088,16 @@
       <c r="AA108" s="8"/>
       <c r="AB108" s="8"/>
     </row>
-    <row r="109" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="G109" s="14"/>
+    <row r="109" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G109" s="15"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
@@ -33079,16 +33120,16 @@
       <c r="AA109" s="8"/>
       <c r="AB109" s="8"/>
     </row>
-    <row r="110" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
+    <row r="110" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
       <c r="F110" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="G110" s="14"/>
+        <v>252</v>
+      </c>
+      <c r="G110" s="15"/>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
@@ -33111,16 +33152,16 @@
       <c r="AA110" s="8"/>
       <c r="AB110" s="8"/>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
+    <row r="111" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
       <c r="F111" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G111" s="14"/>
+        <v>253</v>
+      </c>
+      <c r="G111" s="15"/>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
@@ -33143,28 +33184,16 @@
       <c r="AA111" s="8"/>
       <c r="AB111" s="8"/>
     </row>
-    <row r="112" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="13">
-        <v>10</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>193</v>
-      </c>
+    <row r="112" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
       <c r="F112" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>289</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="G112" s="15"/>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
@@ -33188,15 +33217,15 @@
       <c r="AB112" s="8"/>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
       <c r="F113" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G113" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="G113" s="15"/>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
@@ -33219,16 +33248,28 @@
       <c r="AA113" s="8"/>
       <c r="AB113" s="8"/>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
+    <row r="114" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="14">
+        <v>9</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F114" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="G114" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>261</v>
+      </c>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
@@ -33251,16 +33292,16 @@
       <c r="AA114" s="8"/>
       <c r="AB114" s="8"/>
     </row>
-    <row r="115" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
       <c r="F115" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="G115" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="G115" s="15"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
@@ -33283,16 +33324,16 @@
       <c r="AA115" s="8"/>
       <c r="AB115" s="8"/>
     </row>
-    <row r="116" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
       <c r="F116" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="G116" s="14"/>
+        <v>245</v>
+      </c>
+      <c r="G116" s="15"/>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
@@ -33315,16 +33356,16 @@
       <c r="AA116" s="8"/>
       <c r="AB116" s="8"/>
     </row>
-    <row r="117" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
+    <row r="117" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
       <c r="F117" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="G117" s="14"/>
+        <v>256</v>
+      </c>
+      <c r="G117" s="15"/>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
@@ -33347,16 +33388,16 @@
       <c r="AA117" s="8"/>
       <c r="AB117" s="8"/>
     </row>
-    <row r="118" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
+    <row r="118" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
       <c r="F118" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="G118" s="14"/>
+        <v>257</v>
+      </c>
+      <c r="G118" s="15"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
@@ -33379,16 +33420,16 @@
       <c r="AA118" s="8"/>
       <c r="AB118" s="8"/>
     </row>
-    <row r="119" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
+    <row r="119" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
       <c r="F119" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="G119" s="14"/>
+        <v>258</v>
+      </c>
+      <c r="G119" s="15"/>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
@@ -33412,15 +33453,15 @@
       <c r="AB119" s="8"/>
     </row>
     <row r="120" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="G120" s="14"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G120" s="15"/>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
@@ -33443,16 +33484,16 @@
       <c r="AA120" s="8"/>
       <c r="AB120" s="8"/>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
+    <row r="121" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
       <c r="F121" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G121" s="14"/>
+        <v>259</v>
+      </c>
+      <c r="G121" s="15"/>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
@@ -33475,14 +33516,16 @@
       <c r="AA121" s="8"/>
       <c r="AB121" s="8"/>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="14"/>
+    <row r="122" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G122" s="15"/>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
@@ -33505,28 +33548,16 @@
       <c r="AA122" s="8"/>
       <c r="AB122" s="8"/>
     </row>
-    <row r="123" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="13">
-        <v>11</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E123" s="17" t="s">
-        <v>193</v>
-      </c>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
       <c r="F123" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" s="16" t="s">
-        <v>309</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="G123" s="15"/>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
@@ -33549,16 +33580,28 @@
       <c r="AA123" s="8"/>
       <c r="AB123" s="8"/>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
+    <row r="124" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14">
+        <v>10</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F124" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G124" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>261</v>
+      </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
@@ -33581,16 +33624,16 @@
       <c r="AA124" s="8"/>
       <c r="AB124" s="8"/>
     </row>
-    <row r="125" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
       <c r="F125" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="G125" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="G125" s="15"/>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
@@ -33614,15 +33657,15 @@
       <c r="AB125" s="8"/>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
       <c r="F126" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="G126" s="14"/>
+        <v>230</v>
+      </c>
+      <c r="G126" s="15"/>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
@@ -33646,15 +33689,15 @@
       <c r="AB126" s="8"/>
     </row>
     <row r="127" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
       <c r="F127" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="G127" s="14"/>
+        <v>264</v>
+      </c>
+      <c r="G127" s="15"/>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
@@ -33678,15 +33721,15 @@
       <c r="AB127" s="8"/>
     </row>
     <row r="128" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
       <c r="F128" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="G128" s="14"/>
+        <v>265</v>
+      </c>
+      <c r="G128" s="15"/>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
@@ -33709,16 +33752,16 @@
       <c r="AA128" s="8"/>
       <c r="AB128" s="8"/>
     </row>
-    <row r="129" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
+    <row r="129" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
       <c r="F129" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="G129" s="14"/>
+        <v>266</v>
+      </c>
+      <c r="G129" s="15"/>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
@@ -33741,16 +33784,16 @@
       <c r="AA129" s="8"/>
       <c r="AB129" s="8"/>
     </row>
-    <row r="130" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
+    <row r="130" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
       <c r="F130" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="G130" s="14"/>
+        <v>268</v>
+      </c>
+      <c r="G130" s="15"/>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
@@ -33773,16 +33816,16 @@
       <c r="AA130" s="8"/>
       <c r="AB130" s="8"/>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
+    <row r="131" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
       <c r="F131" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="G131" s="14"/>
+        <v>269</v>
+      </c>
+      <c r="G131" s="15"/>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
@@ -33805,16 +33848,16 @@
       <c r="AA131" s="8"/>
       <c r="AB131" s="8"/>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="G132" s="14"/>
+    <row r="132" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G132" s="15"/>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
@@ -33837,16 +33880,16 @@
       <c r="AA132" s="8"/>
       <c r="AB132" s="8"/>
     </row>
-    <row r="133" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
       <c r="F133" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="G133" s="14"/>
+        <v>262</v>
+      </c>
+      <c r="G133" s="15"/>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
@@ -33869,14 +33912,14 @@
       <c r="AA133" s="8"/>
       <c r="AB133" s="8"/>
     </row>
-    <row r="134" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="13"/>
-      <c r="B134" s="16"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="17"/>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
       <c r="F134" s="10"/>
-      <c r="G134" s="16"/>
+      <c r="G134" s="15"/>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
@@ -33899,14 +33942,28 @@
       <c r="AA134" s="8"/>
       <c r="AB134" s="8"/>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="14"/>
+    <row r="135" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="14">
+        <v>11</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" s="17" t="s">
+        <v>281</v>
+      </c>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
@@ -33930,13 +33987,15 @@
       <c r="AB135" s="8"/>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="14"/>
+      <c r="A136" s="15"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G136" s="15"/>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
@@ -33960,13 +34019,15 @@
       <c r="AB136" s="8"/>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="14"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G137" s="15"/>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
@@ -33990,13 +34051,15 @@
       <c r="AB137" s="8"/>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="14"/>
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G138" s="15"/>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
@@ -34019,14 +34082,16 @@
       <c r="AA138" s="8"/>
       <c r="AB138" s="8"/>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="14"/>
+    <row r="139" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G139" s="15"/>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
@@ -34049,14 +34114,16 @@
       <c r="AA139" s="8"/>
       <c r="AB139" s="8"/>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="14"/>
+    <row r="140" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A140" s="15"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G140" s="15"/>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
@@ -34079,14 +34146,16 @@
       <c r="AA140" s="8"/>
       <c r="AB140" s="8"/>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="14"/>
+    <row r="141" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G141" s="15"/>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
@@ -34109,14 +34178,16 @@
       <c r="AA141" s="8"/>
       <c r="AB141" s="8"/>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="14"/>
+    <row r="142" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G142" s="15"/>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
@@ -34140,13 +34211,15 @@
       <c r="AB142" s="8"/>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="14"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="G143" s="15"/>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
@@ -34170,13 +34243,15 @@
       <c r="AB143" s="8"/>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A144" s="14"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="14"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G144" s="15"/>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
@@ -34199,14 +34274,16 @@
       <c r="AA144" s="8"/>
       <c r="AB144" s="8"/>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="14"/>
+    <row r="145" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G145" s="15"/>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
@@ -34229,80 +34306,458 @@
       <c r="AA145" s="8"/>
       <c r="AB145" s="8"/>
     </row>
+    <row r="146" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="14"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
+      <c r="N146" s="8"/>
+      <c r="O146" s="8"/>
+      <c r="P146" s="8"/>
+      <c r="Q146" s="8"/>
+      <c r="R146" s="8"/>
+      <c r="S146" s="8"/>
+      <c r="T146" s="8"/>
+      <c r="U146" s="8"/>
+      <c r="V146" s="8"/>
+      <c r="W146" s="8"/>
+      <c r="X146" s="8"/>
+      <c r="Y146" s="8"/>
+      <c r="Z146" s="8"/>
+      <c r="AA146" s="8"/>
+      <c r="AB146" s="8"/>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A147" s="15"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+      <c r="Q147" s="8"/>
+      <c r="R147" s="8"/>
+      <c r="S147" s="8"/>
+      <c r="T147" s="8"/>
+      <c r="U147" s="8"/>
+      <c r="V147" s="8"/>
+      <c r="W147" s="8"/>
+      <c r="X147" s="8"/>
+      <c r="Y147" s="8"/>
+      <c r="Z147" s="8"/>
+      <c r="AA147" s="8"/>
+      <c r="AB147" s="8"/>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A148" s="15"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
+      <c r="U148" s="8"/>
+      <c r="V148" s="8"/>
+      <c r="W148" s="8"/>
+      <c r="X148" s="8"/>
+      <c r="Y148" s="8"/>
+      <c r="Z148" s="8"/>
+      <c r="AA148" s="8"/>
+      <c r="AB148" s="8"/>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A149" s="15"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+      <c r="Q149" s="8"/>
+      <c r="R149" s="8"/>
+      <c r="S149" s="8"/>
+      <c r="T149" s="8"/>
+      <c r="U149" s="8"/>
+      <c r="V149" s="8"/>
+      <c r="W149" s="8"/>
+      <c r="X149" s="8"/>
+      <c r="Y149" s="8"/>
+      <c r="Z149" s="8"/>
+      <c r="AA149" s="8"/>
+      <c r="AB149" s="8"/>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A150" s="15"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="8"/>
+      <c r="O150" s="8"/>
+      <c r="P150" s="8"/>
+      <c r="Q150" s="8"/>
+      <c r="R150" s="8"/>
+      <c r="S150" s="8"/>
+      <c r="T150" s="8"/>
+      <c r="U150" s="8"/>
+      <c r="V150" s="8"/>
+      <c r="W150" s="8"/>
+      <c r="X150" s="8"/>
+      <c r="Y150" s="8"/>
+      <c r="Z150" s="8"/>
+      <c r="AA150" s="8"/>
+      <c r="AB150" s="8"/>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A151" s="15"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
+      <c r="N151" s="8"/>
+      <c r="O151" s="8"/>
+      <c r="P151" s="8"/>
+      <c r="Q151" s="8"/>
+      <c r="R151" s="8"/>
+      <c r="S151" s="8"/>
+      <c r="T151" s="8"/>
+      <c r="U151" s="8"/>
+      <c r="V151" s="8"/>
+      <c r="W151" s="8"/>
+      <c r="X151" s="8"/>
+      <c r="Y151" s="8"/>
+      <c r="Z151" s="8"/>
+      <c r="AA151" s="8"/>
+      <c r="AB151" s="8"/>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A152" s="15"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="8"/>
+      <c r="P152" s="8"/>
+      <c r="Q152" s="8"/>
+      <c r="R152" s="8"/>
+      <c r="S152" s="8"/>
+      <c r="T152" s="8"/>
+      <c r="U152" s="8"/>
+      <c r="V152" s="8"/>
+      <c r="W152" s="8"/>
+      <c r="X152" s="8"/>
+      <c r="Y152" s="8"/>
+      <c r="Z152" s="8"/>
+      <c r="AA152" s="8"/>
+      <c r="AB152" s="8"/>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A153" s="15"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="8"/>
+      <c r="N153" s="8"/>
+      <c r="O153" s="8"/>
+      <c r="P153" s="8"/>
+      <c r="Q153" s="8"/>
+      <c r="R153" s="8"/>
+      <c r="S153" s="8"/>
+      <c r="T153" s="8"/>
+      <c r="U153" s="8"/>
+      <c r="V153" s="8"/>
+      <c r="W153" s="8"/>
+      <c r="X153" s="8"/>
+      <c r="Y153" s="8"/>
+      <c r="Z153" s="8"/>
+      <c r="AA153" s="8"/>
+      <c r="AB153" s="8"/>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="8"/>
+      <c r="N154" s="8"/>
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+      <c r="Q154" s="8"/>
+      <c r="R154" s="8"/>
+      <c r="S154" s="8"/>
+      <c r="T154" s="8"/>
+      <c r="U154" s="8"/>
+      <c r="V154" s="8"/>
+      <c r="W154" s="8"/>
+      <c r="X154" s="8"/>
+      <c r="Y154" s="8"/>
+      <c r="Z154" s="8"/>
+      <c r="AA154" s="8"/>
+      <c r="AB154" s="8"/>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="8"/>
+      <c r="N155" s="8"/>
+      <c r="O155" s="8"/>
+      <c r="P155" s="8"/>
+      <c r="Q155" s="8"/>
+      <c r="R155" s="8"/>
+      <c r="S155" s="8"/>
+      <c r="T155" s="8"/>
+      <c r="U155" s="8"/>
+      <c r="V155" s="8"/>
+      <c r="W155" s="8"/>
+      <c r="X155" s="8"/>
+      <c r="Y155" s="8"/>
+      <c r="Z155" s="8"/>
+      <c r="AA155" s="8"/>
+      <c r="AB155" s="8"/>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A156" s="15"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="8"/>
+      <c r="L156" s="8"/>
+      <c r="M156" s="8"/>
+      <c r="N156" s="8"/>
+      <c r="O156" s="8"/>
+      <c r="P156" s="8"/>
+      <c r="Q156" s="8"/>
+      <c r="R156" s="8"/>
+      <c r="S156" s="8"/>
+      <c r="T156" s="8"/>
+      <c r="U156" s="8"/>
+      <c r="V156" s="8"/>
+      <c r="W156" s="8"/>
+      <c r="X156" s="8"/>
+      <c r="Y156" s="8"/>
+      <c r="Z156" s="8"/>
+      <c r="AA156" s="8"/>
+      <c r="AB156" s="8"/>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A157" s="15"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
+      <c r="L157" s="8"/>
+      <c r="M157" s="8"/>
+      <c r="N157" s="8"/>
+      <c r="O157" s="8"/>
+      <c r="P157" s="8"/>
+      <c r="Q157" s="8"/>
+      <c r="R157" s="8"/>
+      <c r="S157" s="8"/>
+      <c r="T157" s="8"/>
+      <c r="U157" s="8"/>
+      <c r="V157" s="8"/>
+      <c r="W157" s="8"/>
+      <c r="X157" s="8"/>
+      <c r="Y157" s="8"/>
+      <c r="Z157" s="8"/>
+      <c r="AA157" s="8"/>
+      <c r="AB157" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="G134:G145"/>
-    <mergeCell ref="A134:A145"/>
-    <mergeCell ref="B134:B145"/>
-    <mergeCell ref="C134:C145"/>
-    <mergeCell ref="D134:D145"/>
-    <mergeCell ref="E134:E145"/>
-    <mergeCell ref="G52:G64"/>
-    <mergeCell ref="A52:A64"/>
-    <mergeCell ref="B52:B64"/>
-    <mergeCell ref="C52:C64"/>
-    <mergeCell ref="D52:D64"/>
-    <mergeCell ref="E52:E64"/>
-    <mergeCell ref="G27:G40"/>
-    <mergeCell ref="A41:A51"/>
-    <mergeCell ref="B41:B51"/>
-    <mergeCell ref="C41:C51"/>
-    <mergeCell ref="D41:D51"/>
-    <mergeCell ref="E41:E51"/>
-    <mergeCell ref="G41:G51"/>
-    <mergeCell ref="A27:A40"/>
-    <mergeCell ref="B27:B40"/>
-    <mergeCell ref="C27:C40"/>
-    <mergeCell ref="D27:D40"/>
-    <mergeCell ref="E27:E40"/>
-    <mergeCell ref="G2:G12"/>
-    <mergeCell ref="A13:A26"/>
-    <mergeCell ref="B13:B26"/>
-    <mergeCell ref="C13:C26"/>
-    <mergeCell ref="D13:D26"/>
-    <mergeCell ref="E13:E26"/>
-    <mergeCell ref="G13:G26"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="D2:D12"/>
-    <mergeCell ref="E2:E12"/>
-    <mergeCell ref="G65:G77"/>
-    <mergeCell ref="A78:A88"/>
-    <mergeCell ref="B78:B88"/>
-    <mergeCell ref="C78:C88"/>
-    <mergeCell ref="D78:D88"/>
-    <mergeCell ref="E78:E88"/>
-    <mergeCell ref="G78:G88"/>
-    <mergeCell ref="A65:A77"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="C65:C77"/>
-    <mergeCell ref="D65:D77"/>
-    <mergeCell ref="E65:E77"/>
-    <mergeCell ref="G89:G101"/>
-    <mergeCell ref="A102:A111"/>
-    <mergeCell ref="B102:B111"/>
-    <mergeCell ref="C102:C111"/>
-    <mergeCell ref="D102:D111"/>
-    <mergeCell ref="E102:E111"/>
-    <mergeCell ref="G102:G111"/>
-    <mergeCell ref="A89:A101"/>
-    <mergeCell ref="B89:B101"/>
-    <mergeCell ref="C89:C101"/>
-    <mergeCell ref="D89:D101"/>
-    <mergeCell ref="E89:E101"/>
-    <mergeCell ref="G112:G122"/>
-    <mergeCell ref="A123:A133"/>
-    <mergeCell ref="B123:B133"/>
-    <mergeCell ref="C123:C133"/>
-    <mergeCell ref="D123:D133"/>
-    <mergeCell ref="E123:E133"/>
-    <mergeCell ref="G123:G133"/>
-    <mergeCell ref="A112:A122"/>
-    <mergeCell ref="B112:B122"/>
-    <mergeCell ref="C112:C122"/>
-    <mergeCell ref="D112:D122"/>
-    <mergeCell ref="E112:E122"/>
+  <mergeCells count="90">
+    <mergeCell ref="E42:E52"/>
+    <mergeCell ref="G42:G52"/>
+    <mergeCell ref="G146:G157"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="B146:B157"/>
+    <mergeCell ref="C146:C157"/>
+    <mergeCell ref="D146:D157"/>
+    <mergeCell ref="E146:E157"/>
+    <mergeCell ref="G64:G76"/>
+    <mergeCell ref="A64:A76"/>
+    <mergeCell ref="B64:B76"/>
+    <mergeCell ref="C64:C76"/>
+    <mergeCell ref="D64:D76"/>
+    <mergeCell ref="E64:E76"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="C53:C63"/>
+    <mergeCell ref="D53:D63"/>
+    <mergeCell ref="E53:E63"/>
+    <mergeCell ref="G53:G63"/>
+    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="B30:B41"/>
+    <mergeCell ref="C30:C41"/>
+    <mergeCell ref="D30:D41"/>
+    <mergeCell ref="E30:E41"/>
+    <mergeCell ref="A42:A52"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="D42:D52"/>
+    <mergeCell ref="G22:G29"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="G77:G89"/>
+    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="B90:B100"/>
+    <mergeCell ref="C90:C100"/>
+    <mergeCell ref="D90:D100"/>
+    <mergeCell ref="E90:E100"/>
+    <mergeCell ref="G90:G100"/>
+    <mergeCell ref="A77:A89"/>
+    <mergeCell ref="B77:B89"/>
+    <mergeCell ref="C77:C89"/>
+    <mergeCell ref="D77:D89"/>
+    <mergeCell ref="E77:E89"/>
+    <mergeCell ref="G101:G113"/>
+    <mergeCell ref="A114:A123"/>
+    <mergeCell ref="B114:B123"/>
+    <mergeCell ref="C114:C123"/>
+    <mergeCell ref="D114:D123"/>
+    <mergeCell ref="E114:E123"/>
+    <mergeCell ref="G114:G123"/>
+    <mergeCell ref="A101:A113"/>
+    <mergeCell ref="B101:B113"/>
+    <mergeCell ref="C101:C113"/>
+    <mergeCell ref="D101:D113"/>
+    <mergeCell ref="E101:E113"/>
+    <mergeCell ref="G124:G134"/>
+    <mergeCell ref="A135:A145"/>
+    <mergeCell ref="B135:B145"/>
+    <mergeCell ref="C135:C145"/>
+    <mergeCell ref="D135:D145"/>
+    <mergeCell ref="E135:E145"/>
+    <mergeCell ref="G135:G145"/>
+    <mergeCell ref="A124:A134"/>
+    <mergeCell ref="B124:B134"/>
+    <mergeCell ref="C124:C134"/>
+    <mergeCell ref="D124:D134"/>
+    <mergeCell ref="E124:E134"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="G12:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="330">
   <si>
     <t>ID</t>
   </si>
@@ -622,27 +622,6 @@
     <t>13. Выйти из приложения с logout.</t>
   </si>
   <si>
-    <t>на каждом этапе проверять введенные данные в соответствии с тестом</t>
-  </si>
-  <si>
-    <t>Создание новости с просмотром и комментированием</t>
-  </si>
-  <si>
-    <t>Войти с авторирацией в приложение. Создать новость и отредактировать.</t>
-  </si>
-  <si>
-    <t>3. На главной странице в блоке Новости нажать Все новости и перейти в окно Новостей.</t>
-  </si>
-  <si>
-    <t>4. Создать новость (Категория - объявление, Заголовок - Медосмотр, дата - текущая, время - текущее+1час, Описание - Всем сотрудникам срочно пройти медосмотр!)</t>
-  </si>
-  <si>
-    <t>5. Сохранить новость</t>
-  </si>
-  <si>
-    <t>9. Зайти в новость. Сделать неактивной.</t>
-  </si>
-  <si>
     <t>Прохождение по основным кнопкам</t>
   </si>
   <si>
@@ -673,76 +652,10 @@
     <t>Войти с авторизацией в приложение. Сверить даты текущих новостей</t>
   </si>
   <si>
-    <t>Просмотр текущих новостей</t>
-  </si>
-  <si>
-    <t>3. На главной странице сверить даты у всех новостей относительно текущей даты.  Новости запомнить.</t>
-  </si>
-  <si>
-    <t>4. Зайти в раздел Новостей.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Создать новость текущей датой в категории День Рождения. Сохранить. </t>
-  </si>
-  <si>
-    <t>6. Перейти в на главный экран. Сверить новости (должна появится наша новость + 2 новости из сохраненных)</t>
-  </si>
-  <si>
-    <t>7. Повторить пункты 4-5 создав еще одну новость - благодарность от директора с датой "назавтра".</t>
-  </si>
-  <si>
-    <t>8. Проверить что данной новости в списке на главной странице и в списке новостей нет.</t>
-  </si>
-  <si>
-    <t>9. Зайти в редактирование новостей и изменить дату на текущую.</t>
-  </si>
-  <si>
-    <t>10. Проверить наличие новости на главной странице и на странице новостей.</t>
-  </si>
-  <si>
-    <t>11. Зайти в редактирование новости и сделать новость неактивной.</t>
-  </si>
-  <si>
-    <t>12. Убедиться что новость пропала с главной странице ина странице новостей.</t>
-  </si>
-  <si>
-    <t>Проверка фильтров новостей</t>
-  </si>
-  <si>
     <t>medium</t>
   </si>
   <si>
     <t>3. Зайти на страницу новостей</t>
-  </si>
-  <si>
-    <t>4. Последовательно установить фильтр на каждую из категорий. Проверить, что отфильтрованные новости относятся к этой категории.</t>
-  </si>
-  <si>
-    <t>5. Установить фильтр в интервале начало/конец - текущий день. Проверить что в фильтре только новости за текущую дату.</t>
-  </si>
-  <si>
-    <t>7. Зайти в редактирование новостей проверить фильтры на активную/неактивную форму (установить, убедиться что фильтр работает)</t>
-  </si>
-  <si>
-    <t>8. Вернуться на главный экран, снова зайти в раздел новостей, убедиться что фильтр снялся.</t>
-  </si>
-  <si>
-    <t>9. Зайти в фильтр. Выбрать любой, нажать Отмена. Убедиться что фильтр не установился.</t>
-  </si>
-  <si>
-    <t>10. Повторить пункт 9 для окна редактирования новостей.</t>
-  </si>
-  <si>
-    <t>6. Установить фильтр в интервале дата начала текущая, дата конца - текущая дата минус 1 день. Проверить работу фильтра.</t>
-  </si>
-  <si>
-    <t>Пункт 6 должен выдавать ошибку установки интервала. Сейчас он просто не выдает ничего.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. Найти новость на главном меню.  </t>
-  </si>
-  <si>
-    <t>10. Зайти во вкладку новости. Найти новость в неактивных. Сделать активной снова. Исправить дату на + 1 день.</t>
   </si>
   <si>
     <t>10. Вернуться в приложение (логин не требуется/проверить).</t>
@@ -805,9 +718,6 @@
     <t>9. Взять любую заявку и повторить пункты 4-6 для комментария (каждый раз создавая новый комментарий)</t>
   </si>
   <si>
-    <t>все введенные заявки и комментарии проверять на полное соответсвие введенному тексту</t>
-  </si>
-  <si>
     <t>10. Выйти из приложения с logout.</t>
   </si>
   <si>
@@ -863,9 +773,6 @@
   </si>
   <si>
     <t>11. Снова стартануть приложение, убедиться что требуется авторизация (авторизовываться не требуется)</t>
-  </si>
-  <si>
-    <t>возможно данный тест придется писать не на espresso</t>
   </si>
   <si>
     <t>2. Ввести неверный логин\пароль. Проверить.</t>
@@ -988,10 +895,121 @@
     <t>6. Отредактировать комментарий с проверкой отмены</t>
   </si>
   <si>
-    <t>Прохождение статусов заявки</t>
+    <t>2. Создать заявку со статусом Открыто. Изменить поля Заголовок и Описание.</t>
   </si>
   <si>
-    <t>Последовательно проверить все изменения статусов от Открыта до Исполнено/Отменено.</t>
+    <t>3. Отменить. Проверить отсутствие доступа к изменению.</t>
+  </si>
+  <si>
+    <t>4. Создать заявку со статусом Открыто. Перевести в Работу. Проверить изменение полей Заголовок и Описание.</t>
+  </si>
+  <si>
+    <t>5. Перевести заявку в статус Открыто. Вернуть обратно.</t>
+  </si>
+  <si>
+    <t>6. Перевести заявку в исполненые. Проверить доступ к изменению.</t>
+  </si>
+  <si>
+    <t>7. Создать заявку без исполнителя. Изменить статус заявки заполнив Исполнителя.</t>
+  </si>
+  <si>
+    <t>Прохождение по статусам заявок с редактированием заявки и использованием фильтра заявок.</t>
+  </si>
+  <si>
+    <t>Последовательно проверить все изменения статусов от Открыта до Исполнено/Отменено. Проверка редактирования заявки на каждом этапе. Поиск заявки для изменения статуса с помощью фильтра по статусу.</t>
+  </si>
+  <si>
+    <t>проверка всплывающих сообщений пока под вопросом. При прогоне фильтра появился вопрос с написанием Canceled-Cancelled - в статусе с одной  l в фильтре c двумя. В правописании ошибок нет (британское-американское написание), но нужно выбрать один вариант.</t>
+  </si>
+  <si>
+    <t>2. Войти в меню и перейти в новости.</t>
+  </si>
+  <si>
+    <t>3. Нажать на переход в меню редактирование и создать новость.</t>
+  </si>
+  <si>
+    <t>4. Заполнить все поля. Отменить создание.</t>
+  </si>
+  <si>
+    <t>Создание новости с проверкой пустых полей, отмены создания, удаление новости.</t>
+  </si>
+  <si>
+    <t>8. Удалить.</t>
+  </si>
+  <si>
+    <t>5. Создать еще одну новость (ту же). Сохранить.</t>
+  </si>
+  <si>
+    <t>6. Последовательно проверить все поля на заполнение. Отменить сохранение.</t>
+  </si>
+  <si>
+    <t>7. На странице новостей найти созданную новость (п.5).</t>
+  </si>
+  <si>
+    <t>9. Выйти из приложения с logout.</t>
+  </si>
+  <si>
+    <t>В данном меню категории только на русском языке. Не могу использовать русскую клавиатуру (?).</t>
+  </si>
+  <si>
+    <t>Просмотр текущих новостей на главной странице и редактирование. Активность новости.</t>
+  </si>
+  <si>
+    <t>Проверка создания новости с пустыми и заполненными полями, отмена создания. Удаление созданной новости</t>
+  </si>
+  <si>
+    <t>Проверка наличия текущей новости на главном экране. Редактирование новости. Удаление из активной с проверкой главного экрана и возвращение активности.</t>
+  </si>
+  <si>
+    <t>Создать новости во всех категориях. Проверить включение новостей в фильтры по категориям. Одну новость перевести в неактивные. Проверить наличие новостей в активных и неактивных. Повторить для фильтров в редактировании.</t>
+  </si>
+  <si>
+    <t>Непонятно как проверять отсутствие компонента на экране</t>
+  </si>
+  <si>
+    <t>2. Создать новость. Перейдя в раздел новостей с главного экрана.</t>
+  </si>
+  <si>
+    <t>3. Вернуться на главный экран. Найти новость.</t>
+  </si>
+  <si>
+    <t>4. Сделать новость неактивной. Проверить наличие на главном экране.</t>
+  </si>
+  <si>
+    <t>5. Вернуть активность. Проверить на экране.</t>
+  </si>
+  <si>
+    <t>6. Отредактировать новость. Сменить категорию, заголовок и описание. Сначала проверить отмену редактирования потом сохранить.</t>
+  </si>
+  <si>
+    <t>7. Проверить новость на главном экране.</t>
+  </si>
+  <si>
+    <t>2. Создать 8 новостей в 8 категориях</t>
+  </si>
+  <si>
+    <t>6.  Перевести одну из новостей в неактивные.</t>
+  </si>
+  <si>
+    <t>5. Повторить все тоже для раздела редактирования новостей.</t>
+  </si>
+  <si>
+    <t>7. Установить фильтр по активности. Проверить что переведенная в неактивные новость попала в выборку (раздел редактирования новостей). Проверить одну из остальных новостей, что она попадает в выборку по активности.</t>
+  </si>
+  <si>
+    <t>4. Последовательно установить фильтр на каждую из категорий (все остальные компоненты не определены). Проверить, что новость из соответсвующей категории включена в выборку по фильтру.</t>
+  </si>
+  <si>
+    <t>8. Вернуться на главный экран, снова зайти в раздел новостей. Установить фильтр по категории и активности для двух новостей (активной и не активной). Проверить попадание в выборку.</t>
+  </si>
+  <si>
+    <t>непонятно по русскому шрифту</t>
+  </si>
+  <si>
+    <t>возможно данный тест нельзя создать на Espresso</t>
+  </si>
+  <si>
+    <t>Проверка фильтров новостей.</t>
   </si>
 </sst>
 </file>
@@ -29501,18 +29519,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB157"/>
+  <dimension ref="A1:AB145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="39.44140625" customWidth="1"/>
     <col min="7" max="7" width="34.33203125" customWidth="1"/>
@@ -29567,10 +29585,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
@@ -29582,7 +29600,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -29613,7 +29631,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="10" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="8"/>
@@ -29645,7 +29663,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="10" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="8"/>
@@ -29677,7 +29695,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="10" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="8"/>
@@ -29709,7 +29727,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="10" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="8"/>
@@ -29805,7 +29823,7 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="10" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="8"/>
@@ -29837,7 +29855,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="10" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="8"/>
@@ -29869,7 +29887,7 @@
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="10" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="8"/>
@@ -29899,10 +29917,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>8</v>
@@ -29911,7 +29929,7 @@
         <v>193</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="8"/>
@@ -29943,7 +29961,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="10" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="8"/>
@@ -29975,7 +29993,7 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="11" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="8"/>
@@ -30007,7 +30025,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="10" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="8"/>
@@ -30069,10 +30087,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>8</v>
@@ -30081,7 +30099,7 @@
         <v>193</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="8"/>
@@ -30113,7 +30131,7 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="10" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="8"/>
@@ -30145,7 +30163,7 @@
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="10" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="8"/>
@@ -30177,7 +30195,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="10" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="8"/>
@@ -30239,10 +30257,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>8</v>
@@ -30251,10 +30269,10 @@
         <v>193</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -30285,7 +30303,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="11" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="8"/>
@@ -30317,7 +30335,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="11" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="8"/>
@@ -30349,7 +30367,7 @@
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="11" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="8"/>
@@ -30381,7 +30399,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="11" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="8"/>
@@ -30413,7 +30431,7 @@
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="11" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="8"/>
@@ -30445,7 +30463,7 @@
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="11" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="8"/>
@@ -30477,7 +30495,7 @@
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="10" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="8"/>
@@ -30507,10 +30525,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>8</v>
@@ -30519,7 +30537,7 @@
         <v>193</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="8"/>
@@ -30551,7 +30569,7 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="10" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="8"/>
@@ -30615,7 +30633,7 @@
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="10" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="8"/>
@@ -30647,7 +30665,7 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="10" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="8"/>
@@ -30679,7 +30697,7 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="10" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="8"/>
@@ -30711,7 +30729,7 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="10" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="8"/>
@@ -30743,7 +30761,7 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="10" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="8"/>
@@ -30775,7 +30793,7 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="10" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="8"/>
@@ -30807,7 +30825,7 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="10" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="8"/>
@@ -30839,7 +30857,7 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="10" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="8"/>
@@ -30901,10 +30919,10 @@
         <v>6</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>8</v>
@@ -30913,9 +30931,11 @@
         <v>193</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="G42" s="17"/>
+        <v>260</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>299</v>
+      </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -30938,13 +30958,15 @@
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>291</v>
+      </c>
       <c r="G43" s="15"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -30968,13 +30990,15 @@
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
-      <c r="F44" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>292</v>
+      </c>
       <c r="G44" s="15"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -30998,13 +31022,15 @@
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>293</v>
+      </c>
       <c r="G45" s="15"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
@@ -31028,13 +31054,15 @@
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="10"/>
+      <c r="F46" s="10" t="s">
+        <v>294</v>
+      </c>
       <c r="G46" s="15"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
@@ -31058,13 +31086,15 @@
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="10"/>
+      <c r="F47" s="10" t="s">
+        <v>295</v>
+      </c>
       <c r="G47" s="15"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -31088,13 +31118,15 @@
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="F48" s="10"/>
+      <c r="F48" s="10" t="s">
+        <v>296</v>
+      </c>
       <c r="G48" s="15"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -31124,7 +31156,9 @@
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="10"/>
+      <c r="F49" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="G49" s="15"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -31148,14 +31182,28 @@
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="15"/>
+    <row r="50" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>7</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>309</v>
+      </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -31184,7 +31232,9 @@
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="10"/>
+      <c r="F51" s="10" t="s">
+        <v>300</v>
+      </c>
       <c r="G51" s="15"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
@@ -31208,14 +31258,14 @@
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="10" t="s">
-        <v>198</v>
+        <v>301</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="8"/>
@@ -31240,28 +31290,16 @@
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
     </row>
-    <row r="53" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
-        <v>4</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>193</v>
-      </c>
+    <row r="53" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
       <c r="F53" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>200</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="G53" s="15"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -31284,14 +31322,14 @@
       <c r="AA53" s="8"/>
       <c r="AB53" s="8"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="10" t="s">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="8"/>
@@ -31316,14 +31354,14 @@
       <c r="AA54" s="8"/>
       <c r="AB54" s="8"/>
     </row>
-    <row r="55" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="10" t="s">
-        <v>203</v>
+        <v>306</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="8"/>
@@ -31348,14 +31386,14 @@
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
     </row>
-    <row r="56" spans="1:28" ht="66" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="10" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="8"/>
@@ -31387,7 +31425,7 @@
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
       <c r="F57" s="10" t="s">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="8"/>
@@ -31419,7 +31457,7 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="10" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="8"/>
@@ -31444,16 +31482,28 @@
       <c r="AA58" s="8"/>
       <c r="AB58" s="8"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
+    <row r="59" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>8</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F59" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G59" s="15"/>
+        <v>260</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>314</v>
+      </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -31476,14 +31526,14 @@
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="10" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="8"/>
@@ -31508,14 +31558,14 @@
       <c r="AA60" s="8"/>
       <c r="AB60" s="8"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="10" t="s">
-        <v>206</v>
+        <v>316</v>
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="8"/>
@@ -31540,14 +31590,14 @@
       <c r="AA61" s="8"/>
       <c r="AB61" s="8"/>
     </row>
-    <row r="62" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="10" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="8"/>
@@ -31572,14 +31622,14 @@
       <c r="AA62" s="8"/>
       <c r="AB62" s="8"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="10" t="s">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="8"/>
@@ -31604,28 +31654,16 @@
       <c r="AA63" s="8"/>
       <c r="AB63" s="8"/>
     </row>
-    <row r="64" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
-        <v>5</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>193</v>
-      </c>
+    <row r="64" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
       <c r="F64" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>215</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G64" s="15"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
@@ -31655,7 +31693,7 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="10" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="8"/>
@@ -31680,14 +31718,14 @@
       <c r="AA65" s="8"/>
       <c r="AB65" s="8"/>
     </row>
-    <row r="66" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="10" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="8"/>
@@ -31712,16 +31750,26 @@
       <c r="AA66" s="8"/>
       <c r="AB66" s="8"/>
     </row>
-    <row r="67" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
+    <row r="67" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>9</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F67" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G67" s="15"/>
+        <v>260</v>
+      </c>
+      <c r="G67" s="17"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
@@ -31751,7 +31799,7 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="10" t="s">
-        <v>72</v>
+        <v>321</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="8"/>
@@ -31776,14 +31824,14 @@
       <c r="AA68" s="8"/>
       <c r="AB68" s="8"/>
     </row>
-    <row r="69" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" s="8"/>
@@ -31808,14 +31856,14 @@
       <c r="AA69" s="8"/>
       <c r="AB69" s="8"/>
     </row>
-    <row r="70" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="66" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="10" t="s">
-        <v>211</v>
+        <v>325</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="8"/>
@@ -31840,14 +31888,14 @@
       <c r="AA70" s="8"/>
       <c r="AB70" s="8"/>
     </row>
-    <row r="71" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="10" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="8"/>
@@ -31879,7 +31927,7 @@
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="10" t="s">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="8"/>
@@ -31904,14 +31952,14 @@
       <c r="AA72" s="8"/>
       <c r="AB72" s="8"/>
     </row>
-    <row r="73" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
       <c r="F73" s="10" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="8"/>
@@ -31936,14 +31984,14 @@
       <c r="AA73" s="8"/>
       <c r="AB73" s="8"/>
     </row>
-    <row r="74" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="66" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="10" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="8"/>
@@ -31968,14 +32016,14 @@
       <c r="AA74" s="8"/>
       <c r="AB74" s="8"/>
     </row>
-    <row r="75" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
       <c r="F75" s="10" t="s">
-        <v>243</v>
+        <v>308</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="8"/>
@@ -32000,16 +32048,26 @@
       <c r="AA75" s="8"/>
       <c r="AB75" s="8"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
+    <row r="76" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <v>10</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F76" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G76" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="G76" s="17"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
@@ -32032,26 +32090,16 @@
       <c r="AA76" s="8"/>
       <c r="AB76" s="8"/>
     </row>
-    <row r="77" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14">
-        <v>6</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>193</v>
-      </c>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
       <c r="F77" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="17"/>
+        <v>194</v>
+      </c>
+      <c r="G77" s="15"/>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
@@ -32081,7 +32129,7 @@
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="10" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="8"/>
@@ -32106,14 +32154,14 @@
       <c r="AA78" s="8"/>
       <c r="AB78" s="8"/>
     </row>
-    <row r="79" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
-      <c r="F79" s="10" t="s">
-        <v>218</v>
+      <c r="F79" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="G79" s="15"/>
       <c r="H79" s="8"/>
@@ -32138,14 +32186,14 @@
       <c r="AA79" s="8"/>
       <c r="AB79" s="8"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
       <c r="F80" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="8"/>
@@ -32177,7 +32225,7 @@
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
       <c r="F81" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="8"/>
@@ -32202,14 +32250,14 @@
       <c r="AA81" s="8"/>
       <c r="AB81" s="8"/>
     </row>
-    <row r="82" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="8"/>
@@ -32234,14 +32282,14 @@
       <c r="AA82" s="8"/>
       <c r="AB82" s="8"/>
     </row>
-    <row r="83" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="8"/>
@@ -32266,14 +32314,14 @@
       <c r="AA83" s="8"/>
       <c r="AB83" s="8"/>
     </row>
-    <row r="84" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
-      <c r="F84" s="10" t="s">
-        <v>223</v>
+      <c r="F84" s="13" t="s">
+        <v>222</v>
       </c>
       <c r="G84" s="15"/>
       <c r="H84" s="8"/>
@@ -32305,7 +32353,7 @@
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
       <c r="F85" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="8"/>
@@ -32330,14 +32378,14 @@
       <c r="AA85" s="8"/>
       <c r="AB85" s="8"/>
     </row>
-    <row r="86" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
       <c r="F86" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="8"/>
@@ -32369,7 +32417,7 @@
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
       <c r="F87" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G87" s="15"/>
       <c r="H87" s="8"/>
@@ -32394,14 +32442,14 @@
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
     </row>
-    <row r="88" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="10" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="8"/>
@@ -32426,16 +32474,28 @@
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
+    <row r="89" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14">
+        <v>11</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F89" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G89" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>327</v>
+      </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
@@ -32458,28 +32518,16 @@
       <c r="AA89" s="8"/>
       <c r="AB89" s="8"/>
     </row>
-    <row r="90" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14">
-        <v>7</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>193</v>
-      </c>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
       <c r="F90" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="17" t="s">
-        <v>238</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G90" s="15"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
@@ -32509,7 +32557,7 @@
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
       <c r="F91" s="10" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="8"/>
@@ -32534,14 +32582,14 @@
       <c r="AA91" s="8"/>
       <c r="AB91" s="8"/>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
       <c r="F92" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G92" s="15"/>
       <c r="H92" s="8"/>
@@ -32566,14 +32614,14 @@
       <c r="AA92" s="8"/>
       <c r="AB92" s="8"/>
     </row>
-    <row r="93" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
       <c r="F93" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G93" s="15"/>
       <c r="H93" s="8"/>
@@ -32598,14 +32646,14 @@
       <c r="AA93" s="8"/>
       <c r="AB93" s="8"/>
     </row>
-    <row r="94" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G94" s="15"/>
       <c r="H94" s="8"/>
@@ -32662,14 +32710,14 @@
       <c r="AA95" s="8"/>
       <c r="AB95" s="8"/>
     </row>
-    <row r="96" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
       <c r="F96" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G96" s="15"/>
       <c r="H96" s="8"/>
@@ -32701,7 +32749,7 @@
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
       <c r="F97" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G97" s="15"/>
       <c r="H97" s="8"/>
@@ -32726,14 +32774,14 @@
       <c r="AA97" s="8"/>
       <c r="AB97" s="8"/>
     </row>
-    <row r="98" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="8"/>
@@ -32758,16 +32806,28 @@
       <c r="AA98" s="8"/>
       <c r="AB98" s="8"/>
     </row>
-    <row r="99" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
+    <row r="99" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14">
+        <v>12</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F99" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G99" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>327</v>
+      </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
@@ -32797,7 +32857,7 @@
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
       <c r="F100" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G100" s="15"/>
       <c r="H100" s="8"/>
@@ -32822,26 +32882,16 @@
       <c r="AA100" s="8"/>
       <c r="AB100" s="8"/>
     </row>
-    <row r="101" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="14">
-        <v>8</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E101" s="18" t="s">
-        <v>193</v>
-      </c>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
       <c r="F101" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" s="17"/>
+        <v>211</v>
+      </c>
+      <c r="G101" s="15"/>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -32864,14 +32914,14 @@
       <c r="AA101" s="8"/>
       <c r="AB101" s="8"/>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="10" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="G102" s="15"/>
       <c r="H102" s="8"/>
@@ -32896,14 +32946,14 @@
       <c r="AA102" s="8"/>
       <c r="AB102" s="8"/>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
       <c r="F103" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G103" s="15"/>
       <c r="H103" s="8"/>
@@ -32928,14 +32978,14 @@
       <c r="AA103" s="8"/>
       <c r="AB103" s="8"/>
     </row>
-    <row r="104" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
-      <c r="F104" s="13" t="s">
-        <v>246</v>
+      <c r="F104" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="G104" s="15"/>
       <c r="H104" s="8"/>
@@ -32960,14 +33010,14 @@
       <c r="AA104" s="8"/>
       <c r="AB104" s="8"/>
     </row>
-    <row r="105" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
       <c r="F105" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="8"/>
@@ -32992,14 +33042,14 @@
       <c r="AA105" s="8"/>
       <c r="AB105" s="8"/>
     </row>
-    <row r="106" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
       <c r="F106" s="10" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G106" s="15"/>
       <c r="H106" s="8"/>
@@ -33024,14 +33074,14 @@
       <c r="AA106" s="8"/>
       <c r="AB106" s="8"/>
     </row>
-    <row r="107" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
-      <c r="F107" s="10" t="s">
-        <v>249</v>
+      <c r="F107" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="G107" s="15"/>
       <c r="H107" s="8"/>
@@ -33056,14 +33106,14 @@
       <c r="AA107" s="8"/>
       <c r="AB107" s="8"/>
     </row>
-    <row r="108" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="F108" s="10" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="G108" s="15"/>
       <c r="H108" s="8"/>
@@ -33088,15 +33138,13 @@
       <c r="AA108" s="8"/>
       <c r="AB108" s="8"/>
     </row>
-    <row r="109" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
-      <c r="F109" s="13" t="s">
-        <v>251</v>
-      </c>
+      <c r="F109" s="10"/>
       <c r="G109" s="15"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
@@ -33120,16 +33168,28 @@
       <c r="AA109" s="8"/>
       <c r="AB109" s="8"/>
     </row>
-    <row r="110" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
+    <row r="110" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14">
+        <v>13</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F110" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G110" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>328</v>
+      </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
@@ -33152,14 +33212,14 @@
       <c r="AA110" s="8"/>
       <c r="AB110" s="8"/>
     </row>
-    <row r="111" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="F111" s="10" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="G111" s="15"/>
       <c r="H111" s="8"/>
@@ -33184,14 +33244,14 @@
       <c r="AA111" s="8"/>
       <c r="AB111" s="8"/>
     </row>
-    <row r="112" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
       <c r="F112" s="10" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G112" s="15"/>
       <c r="H112" s="8"/>
@@ -33223,7 +33283,7 @@
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
       <c r="F113" s="10" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="G113" s="15"/>
       <c r="H113" s="8"/>
@@ -33248,28 +33308,16 @@
       <c r="AA113" s="8"/>
       <c r="AB113" s="8"/>
     </row>
-    <row r="114" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="14">
-        <v>9</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E114" s="18" t="s">
-        <v>193</v>
-      </c>
+    <row r="114" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
       <c r="F114" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" s="17" t="s">
-        <v>261</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G114" s="15"/>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
@@ -33292,14 +33340,14 @@
       <c r="AA114" s="8"/>
       <c r="AB114" s="8"/>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="10" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="G115" s="15"/>
       <c r="H115" s="8"/>
@@ -33324,14 +33372,14 @@
       <c r="AA115" s="8"/>
       <c r="AB115" s="8"/>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G116" s="15"/>
       <c r="H116" s="8"/>
@@ -33363,7 +33411,7 @@
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
       <c r="F117" s="10" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G117" s="15"/>
       <c r="H117" s="8"/>
@@ -33388,14 +33436,14 @@
       <c r="AA117" s="8"/>
       <c r="AB117" s="8"/>
     </row>
-    <row r="118" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="15"/>
       <c r="C118" s="15"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
       <c r="F118" s="10" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G118" s="15"/>
       <c r="H118" s="8"/>
@@ -33420,14 +33468,14 @@
       <c r="AA118" s="8"/>
       <c r="AB118" s="8"/>
     </row>
-    <row r="119" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
       <c r="F119" s="10" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G119" s="15"/>
       <c r="H119" s="8"/>
@@ -33452,14 +33500,14 @@
       <c r="AA119" s="8"/>
       <c r="AB119" s="8"/>
     </row>
-    <row r="120" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
       <c r="F120" s="10" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="G120" s="15"/>
       <c r="H120" s="8"/>
@@ -33484,16 +33532,28 @@
       <c r="AA120" s="8"/>
       <c r="AB120" s="8"/>
     </row>
-    <row r="121" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A121" s="15"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
+    <row r="121" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14">
+        <v>14</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>193</v>
+      </c>
       <c r="F121" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G121" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>208</v>
+      </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
@@ -33516,14 +33576,14 @@
       <c r="AA121" s="8"/>
       <c r="AB121" s="8"/>
     </row>
-    <row r="122" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
       <c r="F122" s="10" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="G122" s="15"/>
       <c r="H122" s="8"/>
@@ -33548,14 +33608,14 @@
       <c r="AA122" s="8"/>
       <c r="AB122" s="8"/>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
       <c r="F123" s="10" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="G123" s="15"/>
       <c r="H123" s="8"/>
@@ -33580,28 +33640,16 @@
       <c r="AA123" s="8"/>
       <c r="AB123" s="8"/>
     </row>
-    <row r="124" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14">
-        <v>10</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E124" s="18" t="s">
-        <v>193</v>
-      </c>
+    <row r="124" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
       <c r="F124" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" s="17" t="s">
-        <v>261</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G124" s="15"/>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
@@ -33631,7 +33679,7 @@
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
       <c r="F125" s="10" t="s">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="G125" s="15"/>
       <c r="H125" s="8"/>
@@ -33656,14 +33704,14 @@
       <c r="AA125" s="8"/>
       <c r="AB125" s="8"/>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
       <c r="F126" s="10" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="G126" s="15"/>
       <c r="H126" s="8"/>
@@ -33695,7 +33743,7 @@
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
       <c r="F127" s="10" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="G127" s="15"/>
       <c r="H127" s="8"/>
@@ -33720,14 +33768,14 @@
       <c r="AA127" s="8"/>
       <c r="AB127" s="8"/>
     </row>
-    <row r="128" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="15"/>
       <c r="C128" s="15"/>
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="10" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="G128" s="15"/>
       <c r="H128" s="8"/>
@@ -33752,14 +33800,14 @@
       <c r="AA128" s="8"/>
       <c r="AB128" s="8"/>
     </row>
-    <row r="129" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
       <c r="F129" s="10" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="G129" s="15"/>
       <c r="H129" s="8"/>
@@ -33784,14 +33832,14 @@
       <c r="AA129" s="8"/>
       <c r="AB129" s="8"/>
     </row>
-    <row r="130" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
       <c r="F130" s="10" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="G130" s="15"/>
       <c r="H130" s="8"/>
@@ -33816,14 +33864,14 @@
       <c r="AA130" s="8"/>
       <c r="AB130" s="8"/>
     </row>
-    <row r="131" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
       <c r="F131" s="10" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="G131" s="15"/>
       <c r="H131" s="8"/>
@@ -33848,14 +33896,14 @@
       <c r="AA131" s="8"/>
       <c r="AB131" s="8"/>
     </row>
-    <row r="132" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
-      <c r="F132" s="13" t="s">
-        <v>270</v>
+      <c r="F132" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="G132" s="15"/>
       <c r="H132" s="8"/>
@@ -33887,7 +33935,7 @@
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
       <c r="F133" s="10" t="s">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="G133" s="15"/>
       <c r="H133" s="8"/>
@@ -33912,14 +33960,14 @@
       <c r="AA133" s="8"/>
       <c r="AB133" s="8"/>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
+    <row r="134" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="14"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="18"/>
       <c r="F134" s="10"/>
-      <c r="G134" s="15"/>
+      <c r="G134" s="17"/>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
@@ -33942,28 +33990,14 @@
       <c r="AA134" s="8"/>
       <c r="AB134" s="8"/>
     </row>
-    <row r="135" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14">
-        <v>11</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E135" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G135" s="17" t="s">
-        <v>281</v>
-      </c>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="15"/>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
@@ -33992,9 +34026,7 @@
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
-      <c r="F136" s="10" t="s">
-        <v>194</v>
-      </c>
+      <c r="F136" s="10"/>
       <c r="G136" s="15"/>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -34024,9 +34056,7 @@
       <c r="C137" s="15"/>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
-      <c r="F137" s="10" t="s">
-        <v>271</v>
-      </c>
+      <c r="F137" s="10"/>
       <c r="G137" s="15"/>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
@@ -34056,9 +34086,7 @@
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
       <c r="E138" s="15"/>
-      <c r="F138" s="10" t="s">
-        <v>272</v>
-      </c>
+      <c r="F138" s="10"/>
       <c r="G138" s="15"/>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
@@ -34082,15 +34110,13 @@
       <c r="AA138" s="8"/>
       <c r="AB138" s="8"/>
     </row>
-    <row r="139" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
-      <c r="F139" s="10" t="s">
-        <v>274</v>
-      </c>
+      <c r="F139" s="10"/>
       <c r="G139" s="15"/>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -34114,15 +34140,13 @@
       <c r="AA139" s="8"/>
       <c r="AB139" s="8"/>
     </row>
-    <row r="140" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
       <c r="B140" s="15"/>
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
       <c r="E140" s="15"/>
-      <c r="F140" s="10" t="s">
-        <v>275</v>
-      </c>
+      <c r="F140" s="10"/>
       <c r="G140" s="15"/>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -34146,15 +34170,13 @@
       <c r="AA140" s="8"/>
       <c r="AB140" s="8"/>
     </row>
-    <row r="141" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="15"/>
       <c r="B141" s="15"/>
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
-      <c r="F141" s="10" t="s">
-        <v>276</v>
-      </c>
+      <c r="F141" s="10"/>
       <c r="G141" s="15"/>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
@@ -34178,15 +34200,13 @@
       <c r="AA141" s="8"/>
       <c r="AB141" s="8"/>
     </row>
-    <row r="142" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
       <c r="C142" s="15"/>
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
-      <c r="F142" s="10" t="s">
-        <v>277</v>
-      </c>
+      <c r="F142" s="10"/>
       <c r="G142" s="15"/>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
@@ -34216,9 +34236,7 @@
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
-      <c r="F143" s="10" t="s">
-        <v>278</v>
-      </c>
+      <c r="F143" s="10"/>
       <c r="G143" s="15"/>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
@@ -34248,9 +34266,7 @@
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
-      <c r="F144" s="10" t="s">
-        <v>279</v>
-      </c>
+      <c r="F144" s="10"/>
       <c r="G144" s="15"/>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
@@ -34274,15 +34290,13 @@
       <c r="AA144" s="8"/>
       <c r="AB144" s="8"/>
     </row>
-    <row r="145" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="15"/>
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
       <c r="E145" s="15"/>
-      <c r="F145" s="10" t="s">
-        <v>280</v>
-      </c>
+      <c r="F145" s="10"/>
       <c r="G145" s="15"/>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
@@ -34306,398 +34320,40 @@
       <c r="AA145" s="8"/>
       <c r="AB145" s="8"/>
     </row>
-    <row r="146" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="17"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="8"/>
-      <c r="N146" s="8"/>
-      <c r="O146" s="8"/>
-      <c r="P146" s="8"/>
-      <c r="Q146" s="8"/>
-      <c r="R146" s="8"/>
-      <c r="S146" s="8"/>
-      <c r="T146" s="8"/>
-      <c r="U146" s="8"/>
-      <c r="V146" s="8"/>
-      <c r="W146" s="8"/>
-      <c r="X146" s="8"/>
-      <c r="Y146" s="8"/>
-      <c r="Z146" s="8"/>
-      <c r="AA146" s="8"/>
-      <c r="AB146" s="8"/>
-    </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
-      <c r="N147" s="8"/>
-      <c r="O147" s="8"/>
-      <c r="P147" s="8"/>
-      <c r="Q147" s="8"/>
-      <c r="R147" s="8"/>
-      <c r="S147" s="8"/>
-      <c r="T147" s="8"/>
-      <c r="U147" s="8"/>
-      <c r="V147" s="8"/>
-      <c r="W147" s="8"/>
-      <c r="X147" s="8"/>
-      <c r="Y147" s="8"/>
-      <c r="Z147" s="8"/>
-      <c r="AA147" s="8"/>
-      <c r="AB147" s="8"/>
-    </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
-      <c r="K148" s="8"/>
-      <c r="L148" s="8"/>
-      <c r="M148" s="8"/>
-      <c r="N148" s="8"/>
-      <c r="O148" s="8"/>
-      <c r="P148" s="8"/>
-      <c r="Q148" s="8"/>
-      <c r="R148" s="8"/>
-      <c r="S148" s="8"/>
-      <c r="T148" s="8"/>
-      <c r="U148" s="8"/>
-      <c r="V148" s="8"/>
-      <c r="W148" s="8"/>
-      <c r="X148" s="8"/>
-      <c r="Y148" s="8"/>
-      <c r="Z148" s="8"/>
-      <c r="AA148" s="8"/>
-      <c r="AB148" s="8"/>
-    </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A149" s="15"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
-      <c r="K149" s="8"/>
-      <c r="L149" s="8"/>
-      <c r="M149" s="8"/>
-      <c r="N149" s="8"/>
-      <c r="O149" s="8"/>
-      <c r="P149" s="8"/>
-      <c r="Q149" s="8"/>
-      <c r="R149" s="8"/>
-      <c r="S149" s="8"/>
-      <c r="T149" s="8"/>
-      <c r="U149" s="8"/>
-      <c r="V149" s="8"/>
-      <c r="W149" s="8"/>
-      <c r="X149" s="8"/>
-      <c r="Y149" s="8"/>
-      <c r="Z149" s="8"/>
-      <c r="AA149" s="8"/>
-      <c r="AB149" s="8"/>
-    </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A150" s="15"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="8"/>
-      <c r="J150" s="8"/>
-      <c r="K150" s="8"/>
-      <c r="L150" s="8"/>
-      <c r="M150" s="8"/>
-      <c r="N150" s="8"/>
-      <c r="O150" s="8"/>
-      <c r="P150" s="8"/>
-      <c r="Q150" s="8"/>
-      <c r="R150" s="8"/>
-      <c r="S150" s="8"/>
-      <c r="T150" s="8"/>
-      <c r="U150" s="8"/>
-      <c r="V150" s="8"/>
-      <c r="W150" s="8"/>
-      <c r="X150" s="8"/>
-      <c r="Y150" s="8"/>
-      <c r="Z150" s="8"/>
-      <c r="AA150" s="8"/>
-      <c r="AB150" s="8"/>
-    </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A151" s="15"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
-      <c r="K151" s="8"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="8"/>
-      <c r="N151" s="8"/>
-      <c r="O151" s="8"/>
-      <c r="P151" s="8"/>
-      <c r="Q151" s="8"/>
-      <c r="R151" s="8"/>
-      <c r="S151" s="8"/>
-      <c r="T151" s="8"/>
-      <c r="U151" s="8"/>
-      <c r="V151" s="8"/>
-      <c r="W151" s="8"/>
-      <c r="X151" s="8"/>
-      <c r="Y151" s="8"/>
-      <c r="Z151" s="8"/>
-      <c r="AA151" s="8"/>
-      <c r="AB151" s="8"/>
-    </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A152" s="15"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="8"/>
-      <c r="I152" s="8"/>
-      <c r="J152" s="8"/>
-      <c r="K152" s="8"/>
-      <c r="L152" s="8"/>
-      <c r="M152" s="8"/>
-      <c r="N152" s="8"/>
-      <c r="O152" s="8"/>
-      <c r="P152" s="8"/>
-      <c r="Q152" s="8"/>
-      <c r="R152" s="8"/>
-      <c r="S152" s="8"/>
-      <c r="T152" s="8"/>
-      <c r="U152" s="8"/>
-      <c r="V152" s="8"/>
-      <c r="W152" s="8"/>
-      <c r="X152" s="8"/>
-      <c r="Y152" s="8"/>
-      <c r="Z152" s="8"/>
-      <c r="AA152" s="8"/>
-      <c r="AB152" s="8"/>
-    </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A153" s="15"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="8"/>
-      <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="8"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="8"/>
-      <c r="N153" s="8"/>
-      <c r="O153" s="8"/>
-      <c r="P153" s="8"/>
-      <c r="Q153" s="8"/>
-      <c r="R153" s="8"/>
-      <c r="S153" s="8"/>
-      <c r="T153" s="8"/>
-      <c r="U153" s="8"/>
-      <c r="V153" s="8"/>
-      <c r="W153" s="8"/>
-      <c r="X153" s="8"/>
-      <c r="Y153" s="8"/>
-      <c r="Z153" s="8"/>
-      <c r="AA153" s="8"/>
-      <c r="AB153" s="8"/>
-    </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
-      <c r="K154" s="8"/>
-      <c r="L154" s="8"/>
-      <c r="M154" s="8"/>
-      <c r="N154" s="8"/>
-      <c r="O154" s="8"/>
-      <c r="P154" s="8"/>
-      <c r="Q154" s="8"/>
-      <c r="R154" s="8"/>
-      <c r="S154" s="8"/>
-      <c r="T154" s="8"/>
-      <c r="U154" s="8"/>
-      <c r="V154" s="8"/>
-      <c r="W154" s="8"/>
-      <c r="X154" s="8"/>
-      <c r="Y154" s="8"/>
-      <c r="Z154" s="8"/>
-      <c r="AA154" s="8"/>
-      <c r="AB154" s="8"/>
-    </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
-      <c r="K155" s="8"/>
-      <c r="L155" s="8"/>
-      <c r="M155" s="8"/>
-      <c r="N155" s="8"/>
-      <c r="O155" s="8"/>
-      <c r="P155" s="8"/>
-      <c r="Q155" s="8"/>
-      <c r="R155" s="8"/>
-      <c r="S155" s="8"/>
-      <c r="T155" s="8"/>
-      <c r="U155" s="8"/>
-      <c r="V155" s="8"/>
-      <c r="W155" s="8"/>
-      <c r="X155" s="8"/>
-      <c r="Y155" s="8"/>
-      <c r="Z155" s="8"/>
-      <c r="AA155" s="8"/>
-      <c r="AB155" s="8"/>
-    </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
-      <c r="B156" s="15"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
-      <c r="K156" s="8"/>
-      <c r="L156" s="8"/>
-      <c r="M156" s="8"/>
-      <c r="N156" s="8"/>
-      <c r="O156" s="8"/>
-      <c r="P156" s="8"/>
-      <c r="Q156" s="8"/>
-      <c r="R156" s="8"/>
-      <c r="S156" s="8"/>
-      <c r="T156" s="8"/>
-      <c r="U156" s="8"/>
-      <c r="V156" s="8"/>
-      <c r="W156" s="8"/>
-      <c r="X156" s="8"/>
-      <c r="Y156" s="8"/>
-      <c r="Z156" s="8"/>
-      <c r="AA156" s="8"/>
-      <c r="AB156" s="8"/>
-    </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A157" s="15"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
-      <c r="J157" s="8"/>
-      <c r="K157" s="8"/>
-      <c r="L157" s="8"/>
-      <c r="M157" s="8"/>
-      <c r="N157" s="8"/>
-      <c r="O157" s="8"/>
-      <c r="P157" s="8"/>
-      <c r="Q157" s="8"/>
-      <c r="R157" s="8"/>
-      <c r="S157" s="8"/>
-      <c r="T157" s="8"/>
-      <c r="U157" s="8"/>
-      <c r="V157" s="8"/>
-      <c r="W157" s="8"/>
-      <c r="X157" s="8"/>
-      <c r="Y157" s="8"/>
-      <c r="Z157" s="8"/>
-      <c r="AA157" s="8"/>
-      <c r="AB157" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="E42:E52"/>
-    <mergeCell ref="G42:G52"/>
-    <mergeCell ref="G146:G157"/>
-    <mergeCell ref="A146:A157"/>
-    <mergeCell ref="B146:B157"/>
-    <mergeCell ref="C146:C157"/>
-    <mergeCell ref="D146:D157"/>
-    <mergeCell ref="E146:E157"/>
-    <mergeCell ref="G64:G76"/>
-    <mergeCell ref="A64:A76"/>
-    <mergeCell ref="B64:B76"/>
-    <mergeCell ref="C64:C76"/>
-    <mergeCell ref="D64:D76"/>
-    <mergeCell ref="E64:E76"/>
+    <mergeCell ref="E42:E49"/>
+    <mergeCell ref="G42:G49"/>
+    <mergeCell ref="G134:G145"/>
+    <mergeCell ref="A134:A145"/>
+    <mergeCell ref="B134:B145"/>
+    <mergeCell ref="C134:C145"/>
+    <mergeCell ref="D134:D145"/>
+    <mergeCell ref="E134:E145"/>
+    <mergeCell ref="G121:G133"/>
+    <mergeCell ref="A121:A133"/>
+    <mergeCell ref="B121:B133"/>
+    <mergeCell ref="C121:C133"/>
+    <mergeCell ref="D121:D133"/>
+    <mergeCell ref="E121:E133"/>
+    <mergeCell ref="G59:G66"/>
+    <mergeCell ref="A67:A75"/>
     <mergeCell ref="G30:G41"/>
-    <mergeCell ref="A53:A63"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="C53:C63"/>
-    <mergeCell ref="D53:D63"/>
-    <mergeCell ref="E53:E63"/>
-    <mergeCell ref="G53:G63"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:D58"/>
+    <mergeCell ref="E50:E58"/>
+    <mergeCell ref="G50:G58"/>
     <mergeCell ref="A30:A41"/>
     <mergeCell ref="B30:B41"/>
     <mergeCell ref="C30:C41"/>
     <mergeCell ref="D30:D41"/>
     <mergeCell ref="E30:E41"/>
-    <mergeCell ref="A42:A52"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="C42:C52"/>
-    <mergeCell ref="D42:D52"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="D42:D49"/>
     <mergeCell ref="G22:G29"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
@@ -34709,42 +34365,40 @@
     <mergeCell ref="C22:C29"/>
     <mergeCell ref="D22:D29"/>
     <mergeCell ref="E22:E29"/>
-    <mergeCell ref="G77:G89"/>
-    <mergeCell ref="A90:A100"/>
-    <mergeCell ref="B90:B100"/>
-    <mergeCell ref="C90:C100"/>
-    <mergeCell ref="D90:D100"/>
-    <mergeCell ref="E90:E100"/>
-    <mergeCell ref="G90:G100"/>
-    <mergeCell ref="A77:A89"/>
-    <mergeCell ref="B77:B89"/>
-    <mergeCell ref="C77:C89"/>
-    <mergeCell ref="D77:D89"/>
-    <mergeCell ref="E77:E89"/>
-    <mergeCell ref="G101:G113"/>
-    <mergeCell ref="A114:A123"/>
-    <mergeCell ref="B114:B123"/>
-    <mergeCell ref="C114:C123"/>
-    <mergeCell ref="D114:D123"/>
-    <mergeCell ref="E114:E123"/>
-    <mergeCell ref="G114:G123"/>
-    <mergeCell ref="A101:A113"/>
-    <mergeCell ref="B101:B113"/>
-    <mergeCell ref="C101:C113"/>
-    <mergeCell ref="D101:D113"/>
-    <mergeCell ref="E101:E113"/>
-    <mergeCell ref="G124:G134"/>
-    <mergeCell ref="A135:A145"/>
-    <mergeCell ref="B135:B145"/>
-    <mergeCell ref="C135:C145"/>
-    <mergeCell ref="D135:D145"/>
-    <mergeCell ref="E135:E145"/>
-    <mergeCell ref="G135:G145"/>
-    <mergeCell ref="A124:A134"/>
-    <mergeCell ref="B124:B134"/>
-    <mergeCell ref="C124:C134"/>
-    <mergeCell ref="D124:D134"/>
-    <mergeCell ref="E124:E134"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="E67:E75"/>
+    <mergeCell ref="G67:G75"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="D59:D66"/>
+    <mergeCell ref="E59:E66"/>
+    <mergeCell ref="G76:G88"/>
+    <mergeCell ref="A89:A98"/>
+    <mergeCell ref="B89:B98"/>
+    <mergeCell ref="C89:C98"/>
+    <mergeCell ref="D89:D98"/>
+    <mergeCell ref="E89:E98"/>
+    <mergeCell ref="G89:G98"/>
+    <mergeCell ref="A76:A88"/>
+    <mergeCell ref="B76:B88"/>
+    <mergeCell ref="C76:C88"/>
+    <mergeCell ref="D76:D88"/>
+    <mergeCell ref="E76:E88"/>
+    <mergeCell ref="G99:G109"/>
+    <mergeCell ref="A110:A120"/>
+    <mergeCell ref="B110:B120"/>
+    <mergeCell ref="C110:C120"/>
+    <mergeCell ref="D110:D120"/>
+    <mergeCell ref="E110:E120"/>
+    <mergeCell ref="G110:G120"/>
+    <mergeCell ref="A99:A109"/>
+    <mergeCell ref="B99:B109"/>
+    <mergeCell ref="C99:C109"/>
+    <mergeCell ref="D99:D109"/>
+    <mergeCell ref="E99:E109"/>
     <mergeCell ref="G2:G11"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:B21"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="343">
   <si>
     <t>ID</t>
   </si>
@@ -619,37 +619,7 @@
     <t>11. Выйти из приложения с logout.</t>
   </si>
   <si>
-    <t>13. Выйти из приложения с logout.</t>
-  </si>
-  <si>
     <t>Прохождение по основным кнопкам</t>
-  </si>
-  <si>
-    <t>Войти с авторирацией в приложение. Пройти по разным страницам со сворачиванием-разворачиванием списков</t>
-  </si>
-  <si>
-    <t>3. На главной странице в блоке Заявки нажать потом отжать "домик" (свернуть/развернуть заявки)</t>
-  </si>
-  <si>
-    <t>6. На главной страницу в блоке Новости нажать потом отжать "домик" (свернуть/развернуть новости)</t>
-  </si>
-  <si>
-    <t>7. На главной странице найти Все новости - перейти по ссылке.</t>
-  </si>
-  <si>
-    <t>4. На главной странице найти кнопку Все заявки - перейти на вкладку.</t>
-  </si>
-  <si>
-    <t>8. Перейти в тематические цитаты (нажать на бабочку) потом вернуться на главную страницу</t>
-  </si>
-  <si>
-    <t>9. Перейти в О приложении и далее по ссылкам на вкладке О приложении.</t>
-  </si>
-  <si>
-    <t>п. 9 выполнить переход на сторонние ресурсы нельзя - не работает</t>
-  </si>
-  <si>
-    <t>Войти с авторизацией в приложение. Сверить даты текущих новостей</t>
   </si>
   <si>
     <t>medium</t>
@@ -658,91 +628,16 @@
     <t>3. Зайти на страницу новостей</t>
   </si>
   <si>
-    <t>10. Вернуться в приложение (логин не требуется/проверить).</t>
-  </si>
-  <si>
-    <t>11. Пройти в Заявки. Последовательно выбрать все варианты фильтров. Проверить пару заявок из выборки на соответсвие фильтру.</t>
-  </si>
-  <si>
-    <t>12. Пройти в Новости. Последовательно отсортировать новости по Категориям. Проверить пару новостей соответствию фильтру.</t>
-  </si>
-  <si>
     <t>Проверка фильтров заявок</t>
   </si>
   <si>
-    <t>3. Зайти на страницу заявок</t>
-  </si>
-  <si>
-    <t>4. Создать 4 заявки с разным статусом (Открыта/в работе/выполнена/оменена)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Установить фильтр на одну из категорий. </t>
-  </si>
-  <si>
-    <t>6. Проверить, что отфильтрованные заявки относятся к этой категории.</t>
-  </si>
-  <si>
-    <t>7. Проверить что созданная нами заявка в данной категории попала в фильтр.</t>
-  </si>
-  <si>
-    <t>8. Повторить пункты 5-7 для других категорий</t>
-  </si>
-  <si>
-    <t>9. Выбрать фильтр из нескольких пунктов, Нажать Отмена.</t>
-  </si>
-  <si>
-    <t>10. Проверить что выбранные фильтр не установился.</t>
-  </si>
-  <si>
-    <t>11. Выбрать фильтр из всех пунктов. Убедиться что все 4 созданные заявки попали в выборку.</t>
-  </si>
-  <si>
-    <t>12. Установить фильтр без выбранных пунктов. Уюедиться что выборка пуста.</t>
-  </si>
-  <si>
     <t>Проверка доступности символов при создании заявки</t>
-  </si>
-  <si>
-    <t>4. Создать заявку с набором из русского алфавита в теме и в описании</t>
-  </si>
-  <si>
-    <t>5. Создать заявку с набором цифр и знаков (всех) в теме и описании</t>
-  </si>
-  <si>
-    <t>6. Создать заявку с набором из латинского алфавита в теме и описании</t>
-  </si>
-  <si>
-    <t>8. Создать пустую заявку, получить ошибку, создать заявку из русской буквы (одной) в теме и описании.</t>
-  </si>
-  <si>
-    <t>9. Взять любую заявку и повторить пункты 4-6 для комментария (каждый раз создавая новый комментарий)</t>
   </si>
   <si>
     <t>10. Выйти из приложения с logout.</t>
   </si>
   <si>
     <t>Проверка доступности символов при создании новости</t>
-  </si>
-  <si>
-    <t>4. Создать новость с набором из русского алфавита в заголовке и в описании</t>
-  </si>
-  <si>
-    <t>5. Создать новость с набором цифр и знаков (всех) в заголовке и описании</t>
-  </si>
-  <si>
-    <t>6. Создать новость с набором из латинского алфавита в заголовке и описании</t>
-  </si>
-  <si>
-    <t>7. Создать заявку из русских букв в количестве 50 в теме,  без описания. Получить ошибку. Повторить тему в описании.</t>
-  </si>
-  <si>
-    <t>7. Создать новость из русских букв в количестве 50 в теме, без описания. Получить ошибку. Повторить тему в описании.</t>
-  </si>
-  <si>
-    <t>8. Создать пустую новость, получить ошибку, создать новость из русской буквы (одной) в теме и описании.</t>
-  </si>
-  <si>
-    <t>9. Взять любую из созданных новостей, отредактировать тему и описание, изменив содержание на текст "Проверка связи"</t>
   </si>
   <si>
     <t>3. Дождаться открытия главной страницы</t>
@@ -1006,10 +901,154 @@
     <t>непонятно по русскому шрифту</t>
   </si>
   <si>
-    <t>возможно данный тест нельзя создать на Espresso</t>
+    <t>Проверка фильтров новостей.</t>
   </si>
   <si>
-    <t>Проверка фильтров новостей.</t>
+    <t>без фильтров по времени</t>
+  </si>
+  <si>
+    <t>2. Зайти на страницу заявок и создать 4 заявки. Присвоить заявкам 4 разных статуса.</t>
+  </si>
+  <si>
+    <t>4. Проверить фильтр, устанавливая по одной галочке и проверяя соответствующую заявку в фильтре.</t>
+  </si>
+  <si>
+    <t>3. Установить все галочки и проверить наличие всех 4 заявок</t>
+  </si>
+  <si>
+    <t>5. Выбрать 2 фильтра и проверить наличие 2 заявок</t>
+  </si>
+  <si>
+    <t>6. Выбрать 3 фильтра и проверить наличие 3 заявок.</t>
+  </si>
+  <si>
+    <t>7. снять все галочки. Убедиться что выборка пустая.</t>
+  </si>
+  <si>
+    <t>без фильтров по времени. Вручную еще проверить, что заявки не попавшие в фильтр не попали в выборку (7 пункт в принципе это заменяет)</t>
+  </si>
+  <si>
+    <t>2. Зайти на страницу заявок</t>
+  </si>
+  <si>
+    <t>3. Создать заявку с набором из русского алфавита и цифр в теме и в описании</t>
+  </si>
+  <si>
+    <t>4. Создать заявку с набором из латинского алфавита и знаков в теме и описании</t>
+  </si>
+  <si>
+    <t>5. Создать заявку из русских букв в количестве 50 в теме,  без описания. Получить ошибку. Повторить тему в описании.</t>
+  </si>
+  <si>
+    <t>6. Создать пустую заявку, получить ошибку, создать заявку из русской буквы (одной) в теме и описании.</t>
+  </si>
+  <si>
+    <t>7. Взять любую заявку и повторить пункты 4-5 для комментария (каждый раз создавая новый комментарий)</t>
+  </si>
+  <si>
+    <t>2. Зайти на страницу новостей</t>
+  </si>
+  <si>
+    <t>3. Создать новость с набором из русского алфавита и символов в заголовке и в описании</t>
+  </si>
+  <si>
+    <t>4. Создать новость с набором из латинского алфавита и цифр в заголовке и описании</t>
+  </si>
+  <si>
+    <t>5. Создать новость из русских букв в количестве 50 в теме. Сохранить. Отредактировать повторив тему в описании.</t>
+  </si>
+  <si>
+    <t>6. Создать пустую новость, получить ошибку, создать новость из русской буквы (одной) в теме и описании.</t>
+  </si>
+  <si>
+    <t>7. Выйти из приложения с logout.</t>
+  </si>
+  <si>
+    <t>9. Выключить девайс, включить заново. Проверить авторизацию.</t>
+  </si>
+  <si>
+    <t>ручной тест</t>
+  </si>
+  <si>
+    <t>2. На главной странице в блоке Заявки нажать потом отжать "галочку" (свернуть/развернуть заявки, проверить это действие)</t>
+  </si>
+  <si>
+    <t>3. На главной страницу в блоке Новости нажать потом отжать "галочку" (свернуть/развернуть новости, проверить действие)</t>
+  </si>
+  <si>
+    <t>4. Перейти в тематические цитаты (нажать на бабочку). Раскрыть/закрыть пару цитат. Проверить заголовок и несколько первых цитат (предварительно сохранив тексты в массив). Потом вернуться на главную страницу</t>
+  </si>
+  <si>
+    <t>5. Перейти в О приложении и далее по ссылкам на вкладке О приложении.</t>
+  </si>
+  <si>
+    <t>6. Вернуться в приложение.</t>
+  </si>
+  <si>
+    <t>п. 5 выполнить переход на сторонние ресурсы нельзя - не работает. Пробег по меню новостей и заявок осуществлялся в других тестах. Повторять не надо.</t>
+  </si>
+  <si>
+    <t>Проверка даты и времени в заявке</t>
+  </si>
+  <si>
+    <t>Проверить сохранение авторизации при выключении девайса, сворачивании окон и т.д.</t>
+  </si>
+  <si>
+    <t>Создание новостей с разными статусами и проверка попадания этих новостей в фильтры по этим статусам и их комбинации</t>
+  </si>
+  <si>
+    <t>Проверка доступности использования всех основных символов в полях тема, описание и комментарий</t>
+  </si>
+  <si>
+    <t>Проверка доступности использования всех основных символов в полях заголовок и описание</t>
+  </si>
+  <si>
+    <t>Пройти по разным страницам со сворачиванием-разворачиванием списков. Посмотреть цитаты и О программе.</t>
+  </si>
+  <si>
+    <t>Проверить время создания/плановую дату заявки. Проверить фильтр по дате.</t>
+  </si>
+  <si>
+    <t>Проверка даты и времени в новости</t>
+  </si>
+  <si>
+    <t>Проверить время создания/плановую дату заявки.</t>
+  </si>
+  <si>
+    <t>2. Создать заявки с текущей датой. С датами "Завтра", "Через месяц", "Через год" и время "00-00", "12-35", "24-59".</t>
+  </si>
+  <si>
+    <t>3. Проверить даты созданных заявок (плановую и создания).</t>
+  </si>
+  <si>
+    <t>4. Исправить плановую дату в первой заявке (в статусе Открыта) на более позднюю. Проверить изменения.</t>
+  </si>
+  <si>
+    <t>5. Изменить дату у последней заявки (через год) на "сегодня". Проверить.</t>
+  </si>
+  <si>
+    <t>Проверка недоступности изменений (в том числе и времени) была проверена в тесте 6</t>
+  </si>
+  <si>
+    <t>2. Создать новости с текущей датой. С датами "Завтра", "Через месяц", "Через год" и время "00-00", "12-35", "24-59".</t>
+  </si>
+  <si>
+    <t>3. Проверить даты созданных новостей (даты публикации и создания).</t>
+  </si>
+  <si>
+    <t>4. Проверить фильтры по дате для созданных новостей.</t>
+  </si>
+  <si>
+    <t>5. Проверить фильтры во вкладке редактирования новости</t>
+  </si>
+  <si>
+    <t>6. Изменить даты в новостях у первой на более раннюю, у последней - на сегодня. Проверить изменения.</t>
+  </si>
+  <si>
+    <t>7. Изменить дату на девайсе. Создать новость со старой датой. Вернуть дату. Проверить, что новость "пропала".</t>
+  </si>
+  <si>
+    <t>7 пункт вручную (возможно не на всех девайсах можно).</t>
   </si>
 </sst>
 </file>
@@ -1195,17 +1234,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1559,23 +1598,23 @@
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="8"/>
@@ -1740,10 +1779,10 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -1756,7 +1795,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="8"/>
@@ -1886,23 +1925,23 @@
       <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="18"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -2034,10 +2073,10 @@
       <c r="A15" s="14">
         <v>4</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -2050,7 +2089,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -2182,10 +2221,10 @@
       <c r="A19" s="14">
         <v>5</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -2198,7 +2237,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -2361,7 +2400,7 @@
       <c r="A24" s="14">
         <v>6</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -2403,18 +2442,18 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="10" t="s">
         <v>57</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -2438,18 +2477,18 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="10" t="s">
         <v>60</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -2473,18 +2512,18 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="20"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2508,18 +2547,18 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2546,7 +2585,7 @@
       <c r="A29" s="14">
         <v>7</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -2564,7 +2603,7 @@
       <c r="G29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2729,7 +2768,7 @@
       <c r="A34" s="14">
         <v>8</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="14" t="s">
@@ -2747,7 +2786,7 @@
       <c r="G34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="16" t="s">
         <v>78</v>
       </c>
       <c r="I34" s="8"/>
@@ -2881,7 +2920,7 @@
       <c r="A38" s="14">
         <v>9</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -2899,7 +2938,7 @@
       <c r="G38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="16"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2924,7 +2963,7 @@
     </row>
     <row r="39" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -2959,7 +2998,7 @@
     </row>
     <row r="40" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="19"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -2996,7 +3035,7 @@
       <c r="A41" s="14">
         <v>10</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="18" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="14" t="s">
@@ -3005,7 +3044,7 @@
       <c r="D41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="10" t="s">
@@ -3014,7 +3053,7 @@
       <c r="G41" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="16" t="s">
         <v>78</v>
       </c>
       <c r="I41" s="8"/>
@@ -3358,7 +3397,7 @@
       <c r="A51" s="14">
         <v>11</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C51" s="14" t="s">
@@ -3367,7 +3406,7 @@
       <c r="D51" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="16" t="s">
         <v>118</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -3376,7 +3415,7 @@
       <c r="G51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="16" t="s">
         <v>78</v>
       </c>
       <c r="I51" s="8"/>
@@ -3637,18 +3676,18 @@
       <c r="AC58" s="8"/>
     </row>
     <row r="59" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
       <c r="F59" s="10" t="s">
         <v>109</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H59" s="16"/>
+      <c r="H59" s="19"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -3675,7 +3714,7 @@
       <c r="A60" s="14">
         <v>12</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -3684,7 +3723,7 @@
       <c r="D60" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="18" t="s">
         <v>100</v>
       </c>
       <c r="F60" s="11" t="s">
@@ -3693,7 +3732,7 @@
       <c r="G60" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="18"/>
+      <c r="H60" s="16"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -3718,7 +3757,7 @@
     </row>
     <row r="61" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="19"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -3751,7 +3790,7 @@
     </row>
     <row r="62" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="19"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
@@ -3786,7 +3825,7 @@
     </row>
     <row r="63" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
@@ -3819,7 +3858,7 @@
     </row>
     <row r="64" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -3854,7 +3893,7 @@
     </row>
     <row r="65" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
@@ -3889,7 +3928,7 @@
     </row>
     <row r="66" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -3926,7 +3965,7 @@
       <c r="A67" s="14">
         <v>13</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C67" s="14" t="s">
@@ -3935,14 +3974,14 @@
       <c r="D67" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="18" t="s">
         <v>100</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>168</v>
       </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="18"/>
+      <c r="H67" s="16"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -3967,7 +4006,7 @@
     </row>
     <row r="68" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
-      <c r="B68" s="19"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -4000,7 +4039,7 @@
     </row>
     <row r="69" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
-      <c r="B69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -4035,7 +4074,7 @@
     </row>
     <row r="70" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
-      <c r="B70" s="19"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
@@ -4068,7 +4107,7 @@
     </row>
     <row r="71" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
-      <c r="B71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
@@ -4101,7 +4140,7 @@
     </row>
     <row r="72" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -4136,7 +4175,7 @@
     </row>
     <row r="73" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
@@ -4173,7 +4212,7 @@
       <c r="A74" s="14">
         <v>14</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C74" s="14" t="s">
@@ -4191,7 +4230,7 @@
       <c r="G74" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H74" s="18"/>
+      <c r="H74" s="16"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -4216,7 +4255,7 @@
     </row>
     <row r="75" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
-      <c r="B75" s="19"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
@@ -4249,7 +4288,7 @@
     </row>
     <row r="76" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
-      <c r="B76" s="19"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
@@ -4284,7 +4323,7 @@
     </row>
     <row r="77" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
-      <c r="B77" s="19"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -4319,7 +4358,7 @@
     </row>
     <row r="78" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
@@ -4354,7 +4393,7 @@
     </row>
     <row r="79" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
@@ -4391,7 +4430,7 @@
       <c r="A80" s="14">
         <v>15</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C80" s="14" t="s">
@@ -4400,7 +4439,7 @@
       <c r="D80" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="16" t="s">
         <v>125</v>
       </c>
       <c r="F80" s="10" t="s">
@@ -4409,7 +4448,7 @@
       <c r="G80" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="16" t="s">
         <v>133</v>
       </c>
       <c r="I80" s="8"/>
@@ -4505,18 +4544,18 @@
       <c r="AC82" s="8"/>
     </row>
     <row r="83" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
       <c r="F83" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H83" s="16"/>
+      <c r="H83" s="19"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -4543,7 +4582,7 @@
       <c r="A84" s="14">
         <v>16</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="14" t="s">
@@ -4552,14 +4591,14 @@
       <c r="D84" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="18" t="s">
         <v>156</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>145</v>
       </c>
       <c r="G84" s="9"/>
-      <c r="H84" s="17" t="s">
+      <c r="H84" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I84" s="8"/>
@@ -4651,18 +4690,18 @@
       <c r="AC86" s="8"/>
     </row>
     <row r="87" spans="1:29" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
       <c r="F87" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H87" s="16"/>
+      <c r="H87" s="19"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -4689,7 +4728,7 @@
       <c r="A88" s="14">
         <v>17</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C88" s="14" t="s">
@@ -4698,14 +4737,14 @@
       <c r="D88" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="18" t="s">
         <v>156</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>145</v>
       </c>
       <c r="G88" s="9"/>
-      <c r="H88" s="18" t="s">
+      <c r="H88" s="16" t="s">
         <v>133</v>
       </c>
       <c r="I88" s="8"/>
@@ -4797,18 +4836,18 @@
       <c r="AC90" s="8"/>
     </row>
     <row r="91" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
       <c r="F91" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H91" s="16"/>
+      <c r="H91" s="19"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -4835,7 +4874,7 @@
       <c r="A92" s="14">
         <v>18</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C92" s="14" t="s">
@@ -4946,7 +4985,7 @@
       <c r="A95" s="14">
         <v>19</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="14" t="s">
@@ -4955,14 +4994,14 @@
       <c r="D95" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="E95" s="18" t="s">
         <v>156</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>145</v>
       </c>
       <c r="G95" s="9"/>
-      <c r="H95" s="18" t="s">
+      <c r="H95" s="16" t="s">
         <v>133</v>
       </c>
       <c r="I95" s="8"/>
@@ -5092,7 +5131,7 @@
       <c r="A99" s="14">
         <v>20</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C99" s="14" t="s">
@@ -5101,14 +5140,14 @@
       <c r="D99" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E99" s="18" t="s">
         <v>158</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>157</v>
       </c>
       <c r="G99" s="9"/>
-      <c r="H99" s="18"/>
+      <c r="H99" s="16"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -5304,7 +5343,7 @@
       <c r="A105" s="14">
         <v>21</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C105" s="14" t="s">
@@ -5313,14 +5352,14 @@
       <c r="D105" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="17" t="s">
+      <c r="E105" s="18" t="s">
         <v>100</v>
       </c>
       <c r="F105" s="11" t="s">
         <v>166</v>
       </c>
       <c r="G105" s="9"/>
-      <c r="H105" s="18"/>
+      <c r="H105" s="16"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -5345,7 +5384,7 @@
     </row>
     <row r="106" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
-      <c r="B106" s="19"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
@@ -5378,7 +5417,7 @@
     </row>
     <row r="107" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -5411,7 +5450,7 @@
     </row>
     <row r="108" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
-      <c r="B108" s="19"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
@@ -5446,7 +5485,7 @@
     </row>
     <row r="109" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
-      <c r="B109" s="19"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
@@ -5479,7 +5518,7 @@
     </row>
     <row r="110" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
-      <c r="B110" s="19"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
@@ -5512,7 +5551,7 @@
     </row>
     <row r="111" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
-      <c r="B111" s="19"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
@@ -5549,7 +5588,7 @@
       <c r="A112" s="14">
         <v>22</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="18" t="s">
         <v>143</v>
       </c>
       <c r="C112" s="14" t="s">
@@ -5558,14 +5597,14 @@
       <c r="D112" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E112" s="16" t="s">
         <v>136</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>137</v>
       </c>
       <c r="G112" s="9"/>
-      <c r="H112" s="18"/>
+      <c r="H112" s="16"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
@@ -5659,18 +5698,18 @@
       <c r="AC114" s="8"/>
     </row>
     <row r="115" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
       <c r="F115" s="10" t="s">
         <v>139</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H115" s="16"/>
+      <c r="H115" s="19"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
@@ -29379,47 +29418,73 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="D99:D104"/>
+    <mergeCell ref="E99:E104"/>
+    <mergeCell ref="H99:H104"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="E105:E111"/>
+    <mergeCell ref="H105:H111"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="D74:D79"/>
+    <mergeCell ref="E74:E79"/>
+    <mergeCell ref="H74:H79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="D67:D73"/>
+    <mergeCell ref="E67:E73"/>
+    <mergeCell ref="H67:H73"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="C41:C50"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="C51:C59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="H41:H50"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="H60:H66"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
     <mergeCell ref="B95:B98"/>
     <mergeCell ref="E95:E98"/>
     <mergeCell ref="A29:A33"/>
@@ -29444,73 +29509,47 @@
     <mergeCell ref="D51:D59"/>
     <mergeCell ref="E51:E59"/>
     <mergeCell ref="H51:H59"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="H41:H50"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="H60:H66"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="D67:D73"/>
-    <mergeCell ref="E67:E73"/>
-    <mergeCell ref="H67:H73"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="C41:C50"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="C74:C79"/>
-    <mergeCell ref="D74:D79"/>
-    <mergeCell ref="E74:E79"/>
-    <mergeCell ref="H74:H79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="H112:H115"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="D99:D104"/>
-    <mergeCell ref="E99:E104"/>
-    <mergeCell ref="H99:H104"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="B105:B111"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="D105:D111"/>
-    <mergeCell ref="E105:E111"/>
-    <mergeCell ref="H105:H111"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29519,11 +29558,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB145"/>
+  <dimension ref="A1:AB143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76:B88"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29584,23 +29623,23 @@
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>259</v>
+      <c r="B2" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>257</v>
+      <c r="G2" s="18" t="s">
+        <v>222</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -29631,7 +29670,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="10" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="8"/>
@@ -29663,7 +29702,7 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="10" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="8"/>
@@ -29695,7 +29734,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="10" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="8"/>
@@ -29727,7 +29766,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="10" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="8"/>
@@ -29823,7 +29862,7 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="10" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="8"/>
@@ -29855,7 +29894,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="10" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="8"/>
@@ -29887,7 +29926,7 @@
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="10" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="8"/>
@@ -29916,22 +29955,22 @@
       <c r="A12" s="14">
         <v>2</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>264</v>
+      <c r="B12" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="17"/>
+        <v>225</v>
+      </c>
+      <c r="G12" s="18"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -29961,7 +30000,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="10" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="8"/>
@@ -29993,7 +30032,7 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="11" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="8"/>
@@ -30025,7 +30064,7 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="10" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="8"/>
@@ -30086,22 +30125,22 @@
       <c r="A17" s="14">
         <v>3</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>268</v>
+      <c r="B17" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>233</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="17"/>
+        <v>225</v>
+      </c>
+      <c r="G17" s="18"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -30131,7 +30170,7 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="10" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="8"/>
@@ -30163,7 +30202,7 @@
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="10" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="8"/>
@@ -30195,7 +30234,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="10" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="8"/>
@@ -30256,23 +30295,23 @@
       <c r="A22" s="14">
         <v>4</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>273</v>
+      <c r="B22" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>238</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>281</v>
+        <v>225</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>246</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -30303,7 +30342,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="11" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="8"/>
@@ -30335,7 +30374,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="11" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="8"/>
@@ -30367,7 +30406,7 @@
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="11" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="8"/>
@@ -30399,7 +30438,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="11" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="8"/>
@@ -30431,7 +30470,7 @@
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="11" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="8"/>
@@ -30463,7 +30502,7 @@
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="11" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="8"/>
@@ -30495,7 +30534,7 @@
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="10" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="8"/>
@@ -30524,22 +30563,22 @@
       <c r="A30" s="14">
         <v>5</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>277</v>
+      <c r="B30" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G30" s="17"/>
+        <v>225</v>
+      </c>
+      <c r="G30" s="18"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -30569,7 +30608,7 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="10" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="8"/>
@@ -30633,7 +30672,7 @@
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="10" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="8"/>
@@ -30665,7 +30704,7 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="10" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="8"/>
@@ -30697,7 +30736,7 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="10" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="8"/>
@@ -30729,7 +30768,7 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="10" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="8"/>
@@ -30761,7 +30800,7 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="10" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="8"/>
@@ -30793,7 +30832,7 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="10" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="8"/>
@@ -30825,7 +30864,7 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="10" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="8"/>
@@ -30857,7 +30896,7 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="10" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="8"/>
@@ -30918,23 +30957,23 @@
       <c r="A42" s="14">
         <v>6</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>298</v>
+      <c r="B42" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>299</v>
+        <v>225</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
@@ -30965,7 +31004,7 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="10" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="8"/>
@@ -30997,7 +31036,7 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="10" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="8"/>
@@ -31029,7 +31068,7 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="10" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="8"/>
@@ -31061,7 +31100,7 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="10" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="8"/>
@@ -31093,7 +31132,7 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="10" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="8"/>
@@ -31125,7 +31164,7 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="10" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="8"/>
@@ -31186,23 +31225,23 @@
       <c r="A50" s="14">
         <v>7</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>311</v>
+      <c r="B50" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>276</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>309</v>
+        <v>225</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -31233,7 +31272,7 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="10" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="8"/>
@@ -31265,7 +31304,7 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="10" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="8"/>
@@ -31297,7 +31336,7 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="10" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="8"/>
@@ -31329,7 +31368,7 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="10" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="8"/>
@@ -31361,7 +31400,7 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="10" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="8"/>
@@ -31393,7 +31432,7 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="10" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="8"/>
@@ -31425,7 +31464,7 @@
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
       <c r="F57" s="10" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="8"/>
@@ -31457,7 +31496,7 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="10" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G58" s="15"/>
       <c r="H58" s="8"/>
@@ -31486,23 +31525,23 @@
       <c r="A59" s="14">
         <v>8</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="D59" s="18" t="s">
+      <c r="B59" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>314</v>
+        <v>225</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -31533,7 +31572,7 @@
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="10" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="8"/>
@@ -31565,7 +31604,7 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="10" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="8"/>
@@ -31597,7 +31636,7 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="10" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="8"/>
@@ -31629,7 +31668,7 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="10" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="8"/>
@@ -31661,7 +31700,7 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="10" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="8"/>
@@ -31693,7 +31732,7 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="10" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="8"/>
@@ -31725,7 +31764,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="10" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="8"/>
@@ -31754,22 +31793,24 @@
       <c r="A67" s="14">
         <v>9</v>
       </c>
-      <c r="B67" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="E67" s="18" t="s">
+      <c r="B67" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G67" s="17"/>
+        <v>225</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>294</v>
+      </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
@@ -31799,7 +31840,7 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="10" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="8"/>
@@ -31831,7 +31872,7 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="10" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" s="8"/>
@@ -31863,7 +31904,7 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="10" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="8"/>
@@ -31895,7 +31936,7 @@
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="10" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="8"/>
@@ -31927,7 +31968,7 @@
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="10" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="8"/>
@@ -31959,7 +32000,7 @@
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
       <c r="F73" s="10" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="8"/>
@@ -31991,7 +32032,7 @@
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="10" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="8"/>
@@ -32023,7 +32064,7 @@
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
       <c r="F75" s="10" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="8"/>
@@ -32052,22 +32093,24 @@
       <c r="A76" s="14">
         <v>10</v>
       </c>
-      <c r="B76" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>209</v>
+      <c r="B76" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E76" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="17"/>
+        <v>225</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>301</v>
+      </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
@@ -32090,14 +32133,14 @@
       <c r="AA76" s="8"/>
       <c r="AB76" s="8"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
       <c r="F77" s="10" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="8"/>
@@ -32122,14 +32165,14 @@
       <c r="AA77" s="8"/>
       <c r="AB77" s="8"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="10" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="8"/>
@@ -32154,14 +32197,14 @@
       <c r="AA78" s="8"/>
       <c r="AB78" s="8"/>
     </row>
-    <row r="79" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
       <c r="F79" s="13" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
       <c r="G79" s="15"/>
       <c r="H79" s="8"/>
@@ -32193,7 +32236,7 @@
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
       <c r="F80" s="10" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="8"/>
@@ -32225,7 +32268,7 @@
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
       <c r="F81" s="10" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="8"/>
@@ -32257,7 +32300,7 @@
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="10" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="8"/>
@@ -32282,14 +32325,14 @@
       <c r="AA82" s="8"/>
       <c r="AB82" s="8"/>
     </row>
-    <row r="83" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="10" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="G83" s="15"/>
       <c r="H83" s="8"/>
@@ -32314,16 +32357,28 @@
       <c r="AA83" s="8"/>
       <c r="AB83" s="8"/>
     </row>
-    <row r="84" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="G84" s="15"/>
+    <row r="84" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14">
+        <v>11</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>292</v>
+      </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
@@ -32346,14 +32401,14 @@
       <c r="AA84" s="8"/>
       <c r="AB84" s="8"/>
     </row>
-    <row r="85" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
       <c r="F85" s="10" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="8"/>
@@ -32378,14 +32433,14 @@
       <c r="AA85" s="8"/>
       <c r="AB85" s="8"/>
     </row>
-    <row r="86" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
       <c r="F86" s="10" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="8"/>
@@ -32417,7 +32472,7 @@
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
       <c r="F87" s="10" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
       <c r="G87" s="15"/>
       <c r="H87" s="8"/>
@@ -32442,14 +32497,14 @@
       <c r="AA87" s="8"/>
       <c r="AB87" s="8"/>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="10" t="s">
-        <v>199</v>
+        <v>305</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="8"/>
@@ -32474,28 +32529,16 @@
       <c r="AA88" s="8"/>
       <c r="AB88" s="8"/>
     </row>
-    <row r="89" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14">
-        <v>11</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>193</v>
-      </c>
+    <row r="89" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
       <c r="F89" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" s="17" t="s">
-        <v>327</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G89" s="15"/>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
@@ -32518,14 +32561,14 @@
       <c r="AA89" s="8"/>
       <c r="AB89" s="8"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
       <c r="F90" s="10" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
       <c r="G90" s="15"/>
       <c r="H90" s="8"/>
@@ -32557,7 +32600,7 @@
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
       <c r="F91" s="10" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="8"/>
@@ -32582,16 +32625,28 @@
       <c r="AA91" s="8"/>
       <c r="AB91" s="8"/>
     </row>
-    <row r="92" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
+    <row r="92" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
+        <v>12</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>193</v>
+      </c>
       <c r="F92" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G92" s="15"/>
+        <v>225</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>292</v>
+      </c>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -32614,14 +32669,14 @@
       <c r="AA92" s="8"/>
       <c r="AB92" s="8"/>
     </row>
-    <row r="93" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
       <c r="F93" s="10" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="G93" s="15"/>
       <c r="H93" s="8"/>
@@ -32646,14 +32701,14 @@
       <c r="AA93" s="8"/>
       <c r="AB93" s="8"/>
     </row>
-    <row r="94" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="10" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="G94" s="15"/>
       <c r="H94" s="8"/>
@@ -32678,14 +32733,14 @@
       <c r="AA94" s="8"/>
       <c r="AB94" s="8"/>
     </row>
-    <row r="95" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
       <c r="F95" s="10" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="G95" s="15"/>
       <c r="H95" s="8"/>
@@ -32710,14 +32765,14 @@
       <c r="AA95" s="8"/>
       <c r="AB95" s="8"/>
     </row>
-    <row r="96" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
       <c r="F96" s="10" t="s">
-        <v>230</v>
+        <v>311</v>
       </c>
       <c r="G96" s="15"/>
       <c r="H96" s="8"/>
@@ -32749,7 +32804,7 @@
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
       <c r="F97" s="10" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="G97" s="15"/>
       <c r="H97" s="8"/>
@@ -32781,7 +32836,7 @@
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="10" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="8"/>
@@ -32808,25 +32863,25 @@
     </row>
     <row r="99" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
-        <v>12</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>209</v>
+        <v>13</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E99" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G99" s="17" t="s">
-        <v>327</v>
+      <c r="G99" s="18" t="s">
+        <v>315</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
@@ -32889,7 +32944,7 @@
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
       <c r="F101" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G101" s="15"/>
       <c r="H101" s="8"/>
@@ -32914,14 +32969,14 @@
       <c r="AA101" s="8"/>
       <c r="AB101" s="8"/>
     </row>
-    <row r="102" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="10" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="G102" s="15"/>
       <c r="H102" s="8"/>
@@ -32953,7 +33008,7 @@
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
       <c r="F103" s="10" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="G103" s="15"/>
       <c r="H103" s="8"/>
@@ -32978,14 +33033,14 @@
       <c r="AA103" s="8"/>
       <c r="AB103" s="8"/>
     </row>
-    <row r="104" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
       <c r="F104" s="10" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="G104" s="15"/>
       <c r="H104" s="8"/>
@@ -33010,14 +33065,14 @@
       <c r="AA104" s="8"/>
       <c r="AB104" s="8"/>
     </row>
-    <row r="105" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
       <c r="F105" s="10" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="8"/>
@@ -33042,14 +33097,14 @@
       <c r="AA105" s="8"/>
       <c r="AB105" s="8"/>
     </row>
-    <row r="106" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
       <c r="F106" s="10" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="G106" s="15"/>
       <c r="H106" s="8"/>
@@ -33074,14 +33129,14 @@
       <c r="AA106" s="8"/>
       <c r="AB106" s="8"/>
     </row>
-    <row r="107" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
-      <c r="F107" s="13" t="s">
-        <v>240</v>
+      <c r="F107" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="G107" s="15"/>
       <c r="H107" s="8"/>
@@ -33113,7 +33168,7 @@
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="F108" s="10" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G108" s="15"/>
       <c r="H108" s="8"/>
@@ -33144,7 +33199,9 @@
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
-      <c r="F109" s="10"/>
+      <c r="F109" s="10" t="s">
+        <v>214</v>
+      </c>
       <c r="G109" s="15"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
@@ -33168,28 +33225,16 @@
       <c r="AA109" s="8"/>
       <c r="AB109" s="8"/>
     </row>
-    <row r="110" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="14">
-        <v>13</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E110" s="18" t="s">
-        <v>193</v>
-      </c>
+    <row r="110" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
       <c r="F110" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" s="17" t="s">
-        <v>328</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G110" s="15"/>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
@@ -33212,16 +33257,28 @@
       <c r="AA110" s="8"/>
       <c r="AB110" s="8"/>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
+    <row r="111" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14">
+        <v>14</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>193</v>
+      </c>
       <c r="F111" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G111" s="15"/>
+        <v>225</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>321</v>
+      </c>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
@@ -33244,14 +33301,14 @@
       <c r="AA111" s="8"/>
       <c r="AB111" s="8"/>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
       <c r="F112" s="10" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="G112" s="15"/>
       <c r="H112" s="8"/>
@@ -33276,14 +33333,14 @@
       <c r="AA112" s="8"/>
       <c r="AB112" s="8"/>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
       <c r="F113" s="10" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="G113" s="15"/>
       <c r="H113" s="8"/>
@@ -33308,14 +33365,14 @@
       <c r="AA113" s="8"/>
       <c r="AB113" s="8"/>
     </row>
-    <row r="114" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
       <c r="F114" s="10" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="G114" s="15"/>
       <c r="H114" s="8"/>
@@ -33347,7 +33404,7 @@
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="10" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="G115" s="15"/>
       <c r="H115" s="8"/>
@@ -33372,14 +33429,14 @@
       <c r="AA115" s="8"/>
       <c r="AB115" s="8"/>
     </row>
-    <row r="116" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="10" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="G116" s="15"/>
       <c r="H116" s="8"/>
@@ -33404,14 +33461,14 @@
       <c r="AA116" s="8"/>
       <c r="AB116" s="8"/>
     </row>
-    <row r="117" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
       <c r="F117" s="10" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="G117" s="15"/>
       <c r="H117" s="8"/>
@@ -33436,16 +33493,28 @@
       <c r="AA117" s="8"/>
       <c r="AB117" s="8"/>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
+    <row r="118" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14">
+        <v>15</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>193</v>
+      </c>
       <c r="F118" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="G118" s="15"/>
+        <v>225</v>
+      </c>
+      <c r="G118" s="18" t="s">
+        <v>335</v>
+      </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
@@ -33468,14 +33537,14 @@
       <c r="AA118" s="8"/>
       <c r="AB118" s="8"/>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
       <c r="F119" s="10" t="s">
-        <v>249</v>
+        <v>331</v>
       </c>
       <c r="G119" s="15"/>
       <c r="H119" s="8"/>
@@ -33500,14 +33569,14 @@
       <c r="AA119" s="8"/>
       <c r="AB119" s="8"/>
     </row>
-    <row r="120" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
       <c r="F120" s="10" t="s">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="G120" s="15"/>
       <c r="H120" s="8"/>
@@ -33532,28 +33601,16 @@
       <c r="AA120" s="8"/>
       <c r="AB120" s="8"/>
     </row>
-    <row r="121" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14">
-        <v>14</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>193</v>
-      </c>
+    <row r="121" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
       <c r="F121" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" s="17" t="s">
-        <v>208</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G121" s="15"/>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
@@ -33576,14 +33633,14 @@
       <c r="AA121" s="8"/>
       <c r="AB121" s="8"/>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
       <c r="F122" s="10" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="G122" s="15"/>
       <c r="H122" s="8"/>
@@ -33608,14 +33665,14 @@
       <c r="AA122" s="8"/>
       <c r="AB122" s="8"/>
     </row>
-    <row r="123" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
       <c r="F123" s="10" t="s">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c r="G123" s="15"/>
       <c r="H123" s="8"/>
@@ -33640,16 +33697,28 @@
       <c r="AA123" s="8"/>
       <c r="AB123" s="8"/>
     </row>
-    <row r="124" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
+    <row r="124" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14">
+        <v>16</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>193</v>
+      </c>
       <c r="F124" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G124" s="15"/>
+        <v>225</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>342</v>
+      </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
@@ -33672,14 +33741,14 @@
       <c r="AA124" s="8"/>
       <c r="AB124" s="8"/>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
       <c r="F125" s="10" t="s">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="G125" s="15"/>
       <c r="H125" s="8"/>
@@ -33704,14 +33773,14 @@
       <c r="AA125" s="8"/>
       <c r="AB125" s="8"/>
     </row>
-    <row r="126" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
       <c r="F126" s="10" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="G126" s="15"/>
       <c r="H126" s="8"/>
@@ -33743,7 +33812,7 @@
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
       <c r="F127" s="10" t="s">
-        <v>204</v>
+        <v>338</v>
       </c>
       <c r="G127" s="15"/>
       <c r="H127" s="8"/>
@@ -33768,14 +33837,14 @@
       <c r="AA127" s="8"/>
       <c r="AB127" s="8"/>
     </row>
-    <row r="128" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="15"/>
       <c r="C128" s="15"/>
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="10" t="s">
-        <v>206</v>
+        <v>339</v>
       </c>
       <c r="G128" s="15"/>
       <c r="H128" s="8"/>
@@ -33800,14 +33869,14 @@
       <c r="AA128" s="8"/>
       <c r="AB128" s="8"/>
     </row>
-    <row r="129" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
-      <c r="F129" s="10" t="s">
-        <v>207</v>
+      <c r="F129" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="G129" s="15"/>
       <c r="H129" s="8"/>
@@ -33832,14 +33901,14 @@
       <c r="AA129" s="8"/>
       <c r="AB129" s="8"/>
     </row>
-    <row r="130" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
       <c r="F130" s="10" t="s">
-        <v>212</v>
+        <v>341</v>
       </c>
       <c r="G130" s="15"/>
       <c r="H130" s="8"/>
@@ -33864,14 +33933,14 @@
       <c r="AA130" s="8"/>
       <c r="AB130" s="8"/>
     </row>
-    <row r="131" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
       <c r="F131" s="10" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="G131" s="15"/>
       <c r="H131" s="8"/>
@@ -33896,16 +33965,14 @@
       <c r="AA131" s="8"/>
       <c r="AB131" s="8"/>
     </row>
-    <row r="132" spans="1:28" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A132" s="15"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G132" s="15"/>
+    <row r="132" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="14"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="18"/>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
@@ -33934,9 +34001,7 @@
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
-      <c r="F133" s="10" t="s">
-        <v>199</v>
-      </c>
+      <c r="F133" s="10"/>
       <c r="G133" s="15"/>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
@@ -33960,14 +34025,14 @@
       <c r="AA133" s="8"/>
       <c r="AB133" s="8"/>
     </row>
-    <row r="134" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="18"/>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
       <c r="F134" s="10"/>
-      <c r="G134" s="17"/>
+      <c r="G134" s="15"/>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
@@ -34260,84 +34325,78 @@
       <c r="AA143" s="8"/>
       <c r="AB143" s="8"/>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="8"/>
-      <c r="K144" s="8"/>
-      <c r="L144" s="8"/>
-      <c r="M144" s="8"/>
-      <c r="N144" s="8"/>
-      <c r="O144" s="8"/>
-      <c r="P144" s="8"/>
-      <c r="Q144" s="8"/>
-      <c r="R144" s="8"/>
-      <c r="S144" s="8"/>
-      <c r="T144" s="8"/>
-      <c r="U144" s="8"/>
-      <c r="V144" s="8"/>
-      <c r="W144" s="8"/>
-      <c r="X144" s="8"/>
-      <c r="Y144" s="8"/>
-      <c r="Z144" s="8"/>
-      <c r="AA144" s="8"/>
-      <c r="AB144" s="8"/>
-    </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A145" s="15"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
-      <c r="K145" s="8"/>
-      <c r="L145" s="8"/>
-      <c r="M145" s="8"/>
-      <c r="N145" s="8"/>
-      <c r="O145" s="8"/>
-      <c r="P145" s="8"/>
-      <c r="Q145" s="8"/>
-      <c r="R145" s="8"/>
-      <c r="S145" s="8"/>
-      <c r="T145" s="8"/>
-      <c r="U145" s="8"/>
-      <c r="V145" s="8"/>
-      <c r="W145" s="8"/>
-      <c r="X145" s="8"/>
-      <c r="Y145" s="8"/>
-      <c r="Z145" s="8"/>
-      <c r="AA145" s="8"/>
-      <c r="AB145" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="E42:E49"/>
-    <mergeCell ref="G42:G49"/>
-    <mergeCell ref="G134:G145"/>
-    <mergeCell ref="A134:A145"/>
-    <mergeCell ref="B134:B145"/>
-    <mergeCell ref="C134:C145"/>
-    <mergeCell ref="D134:D145"/>
-    <mergeCell ref="E134:E145"/>
-    <mergeCell ref="G121:G133"/>
-    <mergeCell ref="A121:A133"/>
-    <mergeCell ref="B121:B133"/>
-    <mergeCell ref="C121:C133"/>
-    <mergeCell ref="D121:D133"/>
-    <mergeCell ref="E121:E133"/>
-    <mergeCell ref="G59:G66"/>
-    <mergeCell ref="A67:A75"/>
+  <mergeCells count="102">
+    <mergeCell ref="G124:G131"/>
+    <mergeCell ref="A132:A143"/>
+    <mergeCell ref="B132:B143"/>
+    <mergeCell ref="C132:C143"/>
+    <mergeCell ref="D132:D143"/>
+    <mergeCell ref="E132:E143"/>
+    <mergeCell ref="G132:G143"/>
+    <mergeCell ref="A124:A131"/>
+    <mergeCell ref="B124:B131"/>
+    <mergeCell ref="C124:C131"/>
+    <mergeCell ref="D124:D131"/>
+    <mergeCell ref="E124:E131"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G92:G98"/>
+    <mergeCell ref="A99:A110"/>
+    <mergeCell ref="B99:B110"/>
+    <mergeCell ref="C99:C110"/>
+    <mergeCell ref="D99:D110"/>
+    <mergeCell ref="E99:E110"/>
+    <mergeCell ref="G99:G110"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="C92:C98"/>
+    <mergeCell ref="D92:D98"/>
+    <mergeCell ref="E92:E98"/>
+    <mergeCell ref="G76:G83"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="D84:D91"/>
+    <mergeCell ref="E84:E91"/>
+    <mergeCell ref="G84:G91"/>
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="B76:B83"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="D76:D83"/>
+    <mergeCell ref="E76:E83"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="D59:D66"/>
+    <mergeCell ref="E59:E66"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="E67:E75"/>
+    <mergeCell ref="G67:G75"/>
+    <mergeCell ref="G22:G29"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E22:E29"/>
     <mergeCell ref="G30:G41"/>
     <mergeCell ref="A50:A58"/>
     <mergeCell ref="B50:B58"/>
@@ -34354,64 +34413,22 @@
     <mergeCell ref="B42:B49"/>
     <mergeCell ref="C42:C49"/>
     <mergeCell ref="D42:D49"/>
-    <mergeCell ref="G22:G29"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="E67:E75"/>
-    <mergeCell ref="G67:G75"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="D59:D66"/>
-    <mergeCell ref="E59:E66"/>
-    <mergeCell ref="G76:G88"/>
-    <mergeCell ref="A89:A98"/>
-    <mergeCell ref="B89:B98"/>
-    <mergeCell ref="C89:C98"/>
-    <mergeCell ref="D89:D98"/>
-    <mergeCell ref="E89:E98"/>
-    <mergeCell ref="G89:G98"/>
-    <mergeCell ref="A76:A88"/>
-    <mergeCell ref="B76:B88"/>
-    <mergeCell ref="C76:C88"/>
-    <mergeCell ref="D76:D88"/>
-    <mergeCell ref="E76:E88"/>
-    <mergeCell ref="G99:G109"/>
-    <mergeCell ref="A110:A120"/>
-    <mergeCell ref="B110:B120"/>
-    <mergeCell ref="C110:C120"/>
-    <mergeCell ref="D110:D120"/>
-    <mergeCell ref="E110:E120"/>
-    <mergeCell ref="G110:G120"/>
-    <mergeCell ref="A99:A109"/>
-    <mergeCell ref="B99:B109"/>
-    <mergeCell ref="C99:C109"/>
-    <mergeCell ref="D99:D109"/>
-    <mergeCell ref="E99:E109"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="E42:E49"/>
+    <mergeCell ref="G42:G49"/>
+    <mergeCell ref="G118:G123"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="E118:E123"/>
+    <mergeCell ref="G111:G117"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="C111:C117"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="E111:E117"/>
+    <mergeCell ref="G59:G66"/>
+    <mergeCell ref="A67:A75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Вариант 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1021,12 +1022,6 @@
     <t>3. Проверить даты созданных заявок (плановую и создания).</t>
   </si>
   <si>
-    <t>4. Исправить плановую дату в первой заявке (в статусе Открыта) на более позднюю. Проверить изменения.</t>
-  </si>
-  <si>
-    <t>5. Изменить дату у последней заявки (через год) на "сегодня". Проверить.</t>
-  </si>
-  <si>
     <t>Проверка недоступности изменений (в том числе и времени) была проверена в тесте 6</t>
   </si>
   <si>
@@ -1049,6 +1044,12 @@
   </si>
   <si>
     <t>7 пункт вручную (возможно не на всех девайсах можно).</t>
+  </si>
+  <si>
+    <t>5. Изменить дату/время у последней заявки (через год) на "сегодня". Проверить.</t>
+  </si>
+  <si>
+    <t>4. Исправить плановую дату/время в первой заявке (в статусе Открыта) на более позднюю. Проверить изменения.</t>
   </si>
 </sst>
 </file>
@@ -1234,17 +1235,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1598,23 +1599,23 @@
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="8"/>
@@ -1779,10 +1780,10 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -1795,7 +1796,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="18" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="8"/>
@@ -1925,23 +1926,23 @@
       <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -2073,10 +2074,10 @@
       <c r="A15" s="14">
         <v>4</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -2089,7 +2090,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="16"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -2221,10 +2222,10 @@
       <c r="A19" s="14">
         <v>5</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -2237,7 +2238,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="16"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -2400,7 +2401,7 @@
       <c r="A24" s="14">
         <v>6</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -2442,18 +2443,18 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="10" t="s">
         <v>57</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="17"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -2477,18 +2478,18 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="10" t="s">
         <v>60</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="17"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -2512,18 +2513,18 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="17"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2547,18 +2548,18 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="17"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2585,7 +2586,7 @@
       <c r="A29" s="14">
         <v>7</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -2603,7 +2604,7 @@
       <c r="G29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2768,7 +2769,7 @@
       <c r="A34" s="14">
         <v>8</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="14" t="s">
@@ -2786,7 +2787,7 @@
       <c r="G34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I34" s="8"/>
@@ -2920,7 +2921,7 @@
       <c r="A38" s="14">
         <v>9</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -2938,7 +2939,7 @@
       <c r="G38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H38" s="16"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2963,7 +2964,7 @@
     </row>
     <row r="39" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -2998,7 +2999,7 @@
     </row>
     <row r="40" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="20"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -3035,7 +3036,7 @@
       <c r="A41" s="14">
         <v>10</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="14" t="s">
@@ -3044,7 +3045,7 @@
       <c r="D41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="10" t="s">
@@ -3053,7 +3054,7 @@
       <c r="G41" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I41" s="8"/>
@@ -3397,7 +3398,7 @@
       <c r="A51" s="14">
         <v>11</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>117</v>
       </c>
       <c r="C51" s="14" t="s">
@@ -3406,7 +3407,7 @@
       <c r="D51" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>118</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -3415,7 +3416,7 @@
       <c r="G51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I51" s="8"/>
@@ -3676,18 +3677,18 @@
       <c r="AC58" s="8"/>
     </row>
     <row r="59" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
       <c r="F59" s="10" t="s">
         <v>109</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H59" s="19"/>
+      <c r="H59" s="16"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -3714,7 +3715,7 @@
       <c r="A60" s="14">
         <v>12</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>116</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -3723,7 +3724,7 @@
       <c r="D60" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="17" t="s">
         <v>100</v>
       </c>
       <c r="F60" s="11" t="s">
@@ -3732,7 +3733,7 @@
       <c r="G60" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="16"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -3757,7 +3758,7 @@
     </row>
     <row r="61" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -3790,7 +3791,7 @@
     </row>
     <row r="62" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
@@ -3825,7 +3826,7 @@
     </row>
     <row r="63" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
@@ -3858,7 +3859,7 @@
     </row>
     <row r="64" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -3893,7 +3894,7 @@
     </row>
     <row r="65" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
@@ -3928,7 +3929,7 @@
     </row>
     <row r="66" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -3965,7 +3966,7 @@
       <c r="A67" s="14">
         <v>13</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>115</v>
       </c>
       <c r="C67" s="14" t="s">
@@ -3974,14 +3975,14 @@
       <c r="D67" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="17" t="s">
         <v>100</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>168</v>
       </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="16"/>
+      <c r="H67" s="18"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -4006,7 +4007,7 @@
     </row>
     <row r="68" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -4039,7 +4040,7 @@
     </row>
     <row r="69" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -4074,7 +4075,7 @@
     </row>
     <row r="70" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
@@ -4107,7 +4108,7 @@
     </row>
     <row r="71" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
-      <c r="B71" s="20"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
@@ -4140,7 +4141,7 @@
     </row>
     <row r="72" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -4175,7 +4176,7 @@
     </row>
     <row r="73" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
@@ -4212,7 +4213,7 @@
       <c r="A74" s="14">
         <v>14</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>114</v>
       </c>
       <c r="C74" s="14" t="s">
@@ -4230,7 +4231,7 @@
       <c r="G74" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H74" s="16"/>
+      <c r="H74" s="18"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -4255,7 +4256,7 @@
     </row>
     <row r="75" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
@@ -4288,7 +4289,7 @@
     </row>
     <row r="76" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
@@ -4323,7 +4324,7 @@
     </row>
     <row r="77" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -4358,7 +4359,7 @@
     </row>
     <row r="78" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
@@ -4393,7 +4394,7 @@
     </row>
     <row r="79" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
@@ -4430,7 +4431,7 @@
       <c r="A80" s="14">
         <v>15</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C80" s="14" t="s">
@@ -4439,7 +4440,7 @@
       <c r="D80" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>125</v>
       </c>
       <c r="F80" s="10" t="s">
@@ -4448,7 +4449,7 @@
       <c r="G80" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H80" s="16" t="s">
+      <c r="H80" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I80" s="8"/>
@@ -4544,18 +4545,18 @@
       <c r="AC82" s="8"/>
     </row>
     <row r="83" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H83" s="19"/>
+      <c r="H83" s="16"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -4582,7 +4583,7 @@
       <c r="A84" s="14">
         <v>16</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="14" t="s">
@@ -4591,14 +4592,14 @@
       <c r="D84" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>145</v>
       </c>
       <c r="G84" s="9"/>
-      <c r="H84" s="18" t="s">
+      <c r="H84" s="17" t="s">
         <v>78</v>
       </c>
       <c r="I84" s="8"/>
@@ -4690,18 +4691,18 @@
       <c r="AC86" s="8"/>
     </row>
     <row r="87" spans="1:29" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
       <c r="F87" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H87" s="19"/>
+      <c r="H87" s="16"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -4728,7 +4729,7 @@
       <c r="A88" s="14">
         <v>17</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C88" s="14" t="s">
@@ -4737,14 +4738,14 @@
       <c r="D88" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E88" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>145</v>
       </c>
       <c r="G88" s="9"/>
-      <c r="H88" s="16" t="s">
+      <c r="H88" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I88" s="8"/>
@@ -4836,18 +4837,18 @@
       <c r="AC90" s="8"/>
     </row>
     <row r="91" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
       <c r="F91" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H91" s="19"/>
+      <c r="H91" s="16"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -4874,7 +4875,7 @@
       <c r="A92" s="14">
         <v>18</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C92" s="14" t="s">
@@ -4985,7 +4986,7 @@
       <c r="A95" s="14">
         <v>19</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="14" t="s">
@@ -4994,14 +4995,14 @@
       <c r="D95" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="18" t="s">
+      <c r="E95" s="17" t="s">
         <v>156</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>145</v>
       </c>
       <c r="G95" s="9"/>
-      <c r="H95" s="16" t="s">
+      <c r="H95" s="18" t="s">
         <v>133</v>
       </c>
       <c r="I95" s="8"/>
@@ -5131,7 +5132,7 @@
       <c r="A99" s="14">
         <v>20</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C99" s="14" t="s">
@@ -5140,14 +5141,14 @@
       <c r="D99" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E99" s="17" t="s">
         <v>158</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>157</v>
       </c>
       <c r="G99" s="9"/>
-      <c r="H99" s="16"/>
+      <c r="H99" s="18"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -5343,7 +5344,7 @@
       <c r="A105" s="14">
         <v>21</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C105" s="14" t="s">
@@ -5352,14 +5353,14 @@
       <c r="D105" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E105" s="17" t="s">
         <v>100</v>
       </c>
       <c r="F105" s="11" t="s">
         <v>166</v>
       </c>
       <c r="G105" s="9"/>
-      <c r="H105" s="16"/>
+      <c r="H105" s="18"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -5384,7 +5385,7 @@
     </row>
     <row r="106" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
-      <c r="B106" s="20"/>
+      <c r="B106" s="19"/>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
@@ -5417,7 +5418,7 @@
     </row>
     <row r="107" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
-      <c r="B107" s="20"/>
+      <c r="B107" s="19"/>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -5450,7 +5451,7 @@
     </row>
     <row r="108" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
-      <c r="B108" s="20"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
@@ -5485,7 +5486,7 @@
     </row>
     <row r="109" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
-      <c r="B109" s="20"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
@@ -5518,7 +5519,7 @@
     </row>
     <row r="110" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
-      <c r="B110" s="20"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
@@ -5551,7 +5552,7 @@
     </row>
     <row r="111" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
-      <c r="B111" s="20"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
@@ -5588,7 +5589,7 @@
       <c r="A112" s="14">
         <v>22</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="17" t="s">
         <v>143</v>
       </c>
       <c r="C112" s="14" t="s">
@@ -5597,14 +5598,14 @@
       <c r="D112" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>136</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>137</v>
       </c>
       <c r="G112" s="9"/>
-      <c r="H112" s="16"/>
+      <c r="H112" s="18"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
@@ -5698,18 +5699,18 @@
       <c r="AC114" s="8"/>
     </row>
     <row r="115" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
       <c r="F115" s="10" t="s">
         <v>139</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H115" s="19"/>
+      <c r="H115" s="16"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
@@ -29418,24 +29419,96 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="H112:H115"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="D99:D104"/>
-    <mergeCell ref="E99:E104"/>
-    <mergeCell ref="H99:H104"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="B105:B111"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="D105:D111"/>
-    <mergeCell ref="E105:E111"/>
-    <mergeCell ref="H105:H111"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="D41:D50"/>
+    <mergeCell ref="E41:E50"/>
+    <mergeCell ref="D51:D59"/>
+    <mergeCell ref="E51:E59"/>
+    <mergeCell ref="H51:H59"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="H41:H50"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="H60:H66"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="D67:D73"/>
+    <mergeCell ref="E67:E73"/>
+    <mergeCell ref="H67:H73"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="C41:C50"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="C51:C59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:B66"/>
     <mergeCell ref="D80:D83"/>
     <mergeCell ref="E80:E83"/>
     <mergeCell ref="D84:D87"/>
@@ -29460,96 +29533,24 @@
     <mergeCell ref="D92:D94"/>
     <mergeCell ref="E92:E94"/>
     <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="D67:D73"/>
-    <mergeCell ref="E67:E73"/>
-    <mergeCell ref="H67:H73"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="C41:C50"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="H41:H50"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="H60:H66"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="E88:E91"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="D41:D50"/>
-    <mergeCell ref="E41:E50"/>
-    <mergeCell ref="D51:D59"/>
-    <mergeCell ref="E51:E59"/>
-    <mergeCell ref="H51:H59"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="D99:D104"/>
+    <mergeCell ref="E99:E104"/>
+    <mergeCell ref="H99:H104"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="E105:E111"/>
+    <mergeCell ref="H105:H111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29560,9 +29561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J129" sqref="J129"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124:C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29623,22 +29624,22 @@
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>224</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>222</v>
       </c>
       <c r="H2" s="8"/>
@@ -29955,22 +29956,22 @@
       <c r="A12" s="14">
         <v>2</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>229</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -30125,22 +30126,22 @@
       <c r="A17" s="14">
         <v>3</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>233</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -30295,22 +30296,22 @@
       <c r="A22" s="14">
         <v>4</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>238</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="17" t="s">
         <v>246</v>
       </c>
       <c r="H22" s="8"/>
@@ -30563,22 +30564,22 @@
       <c r="A30" s="14">
         <v>5</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="18" t="s">
         <v>242</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G30" s="18"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -30957,22 +30958,22 @@
       <c r="A42" s="14">
         <v>6</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>263</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="17" t="s">
         <v>264</v>
       </c>
       <c r="H42" s="8"/>
@@ -31225,22 +31226,22 @@
       <c r="A50" s="14">
         <v>7</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="18" t="s">
         <v>276</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="17" t="s">
         <v>274</v>
       </c>
       <c r="H50" s="8"/>
@@ -31525,22 +31526,22 @@
       <c r="A59" s="14">
         <v>8</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G59" s="17" t="s">
         <v>279</v>
       </c>
       <c r="H59" s="8"/>
@@ -31793,22 +31794,22 @@
       <c r="A67" s="14">
         <v>9</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="17" t="s">
         <v>294</v>
       </c>
       <c r="H67" s="8"/>
@@ -32093,22 +32094,22 @@
       <c r="A76" s="14">
         <v>10</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="18" t="s">
         <v>324</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G76" s="18" t="s">
+      <c r="G76" s="17" t="s">
         <v>301</v>
       </c>
       <c r="H76" s="8"/>
@@ -32361,22 +32362,22 @@
       <c r="A84" s="14">
         <v>11</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="18" t="s">
         <v>325</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G84" s="18" t="s">
+      <c r="G84" s="17" t="s">
         <v>292</v>
       </c>
       <c r="H84" s="8"/>
@@ -32629,22 +32630,22 @@
       <c r="A92" s="14">
         <v>12</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="18" t="s">
         <v>326</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G92" s="18" t="s">
+      <c r="G92" s="17" t="s">
         <v>292</v>
       </c>
       <c r="H92" s="8"/>
@@ -32865,22 +32866,22 @@
       <c r="A99" s="14">
         <v>13</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C99" s="18" t="s">
         <v>323</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G99" s="18" t="s">
+      <c r="G99" s="17" t="s">
         <v>315</v>
       </c>
       <c r="H99" s="8"/>
@@ -33261,22 +33262,22 @@
       <c r="A111" s="14">
         <v>14</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="18" t="s">
         <v>327</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G111" s="18" t="s">
+      <c r="G111" s="17" t="s">
         <v>321</v>
       </c>
       <c r="H111" s="8"/>
@@ -33497,23 +33498,23 @@
       <c r="A118" s="14">
         <v>15</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="18" t="s">
         <v>328</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G118" s="18" t="s">
-        <v>335</v>
+      <c r="G118" s="17" t="s">
+        <v>333</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -33608,7 +33609,7 @@
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
       <c r="F121" s="10" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="G121" s="15"/>
       <c r="H121" s="8"/>
@@ -33640,7 +33641,7 @@
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
       <c r="F122" s="10" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="G122" s="15"/>
       <c r="H122" s="8"/>
@@ -33701,23 +33702,23 @@
       <c r="A124" s="14">
         <v>16</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="C124" s="18" t="s">
         <v>330</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G124" s="18" t="s">
-        <v>342</v>
+      <c r="G124" s="17" t="s">
+        <v>340</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -33748,7 +33749,7 @@
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
       <c r="F125" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G125" s="15"/>
       <c r="H125" s="8"/>
@@ -33780,7 +33781,7 @@
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
       <c r="F126" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G126" s="15"/>
       <c r="H126" s="8"/>
@@ -33812,7 +33813,7 @@
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
       <c r="F127" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G127" s="15"/>
       <c r="H127" s="8"/>
@@ -33844,7 +33845,7 @@
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G128" s="15"/>
       <c r="H128" s="8"/>
@@ -33876,7 +33877,7 @@
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
       <c r="F129" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G129" s="15"/>
       <c r="H129" s="8"/>
@@ -33908,7 +33909,7 @@
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
       <c r="F130" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G130" s="15"/>
       <c r="H130" s="8"/>
@@ -33967,12 +33968,12 @@
     </row>
     <row r="132" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="16"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="18"/>
       <c r="D132" s="14"/>
-      <c r="E132" s="16"/>
+      <c r="E132" s="18"/>
       <c r="F132" s="10"/>
-      <c r="G132" s="18"/>
+      <c r="G132" s="17"/>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
@@ -34327,65 +34328,18 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="G124:G131"/>
-    <mergeCell ref="A132:A143"/>
-    <mergeCell ref="B132:B143"/>
-    <mergeCell ref="C132:C143"/>
-    <mergeCell ref="D132:D143"/>
-    <mergeCell ref="E132:E143"/>
-    <mergeCell ref="G132:G143"/>
-    <mergeCell ref="A124:A131"/>
-    <mergeCell ref="B124:B131"/>
-    <mergeCell ref="C124:C131"/>
-    <mergeCell ref="D124:D131"/>
-    <mergeCell ref="E124:E131"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="G92:G98"/>
-    <mergeCell ref="A99:A110"/>
-    <mergeCell ref="B99:B110"/>
-    <mergeCell ref="C99:C110"/>
-    <mergeCell ref="D99:D110"/>
-    <mergeCell ref="E99:E110"/>
-    <mergeCell ref="G99:G110"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="C92:C98"/>
-    <mergeCell ref="D92:D98"/>
-    <mergeCell ref="E92:E98"/>
-    <mergeCell ref="G76:G83"/>
-    <mergeCell ref="A84:A91"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="D84:D91"/>
-    <mergeCell ref="E84:E91"/>
-    <mergeCell ref="G84:G91"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="B76:B83"/>
-    <mergeCell ref="C76:C83"/>
-    <mergeCell ref="D76:D83"/>
-    <mergeCell ref="E76:E83"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="D59:D66"/>
-    <mergeCell ref="E59:E66"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="E67:E75"/>
-    <mergeCell ref="G67:G75"/>
+    <mergeCell ref="G118:G123"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="E118:E123"/>
+    <mergeCell ref="G111:G117"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="C111:C117"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="E111:E117"/>
     <mergeCell ref="G22:G29"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
@@ -34415,20 +34369,67 @@
     <mergeCell ref="D42:D49"/>
     <mergeCell ref="E42:E49"/>
     <mergeCell ref="G42:G49"/>
-    <mergeCell ref="G118:G123"/>
-    <mergeCell ref="A118:A123"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="E118:E123"/>
-    <mergeCell ref="G111:G117"/>
-    <mergeCell ref="A111:A117"/>
-    <mergeCell ref="B111:B117"/>
-    <mergeCell ref="C111:C117"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="E111:E117"/>
+    <mergeCell ref="D59:D66"/>
+    <mergeCell ref="E59:E66"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C67:C75"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="E67:E75"/>
+    <mergeCell ref="G76:G83"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="D84:D91"/>
+    <mergeCell ref="E84:E91"/>
+    <mergeCell ref="G84:G91"/>
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="B76:B83"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="D76:D83"/>
+    <mergeCell ref="E76:E83"/>
     <mergeCell ref="G59:G66"/>
     <mergeCell ref="A67:A75"/>
+    <mergeCell ref="G67:G75"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="G92:G98"/>
+    <mergeCell ref="A99:A110"/>
+    <mergeCell ref="B99:B110"/>
+    <mergeCell ref="C99:C110"/>
+    <mergeCell ref="D99:D110"/>
+    <mergeCell ref="E99:E110"/>
+    <mergeCell ref="G99:G110"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="C92:C98"/>
+    <mergeCell ref="D92:D98"/>
+    <mergeCell ref="E92:E98"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G124:G131"/>
+    <mergeCell ref="A132:A143"/>
+    <mergeCell ref="B132:B143"/>
+    <mergeCell ref="C132:C143"/>
+    <mergeCell ref="D132:D143"/>
+    <mergeCell ref="E132:E143"/>
+    <mergeCell ref="G132:G143"/>
+    <mergeCell ref="A124:A131"/>
+    <mergeCell ref="B124:B131"/>
+    <mergeCell ref="C124:C131"/>
+    <mergeCell ref="D124:D131"/>
+    <mergeCell ref="E124:E131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Вариант 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -860,9 +859,6 @@
     <t>Создать новости во всех категориях. Проверить включение новостей в фильтры по категориям. Одну новость перевести в неактивные. Проверить наличие новостей в активных и неактивных. Повторить для фильтров в редактировании.</t>
   </si>
   <si>
-    <t>Непонятно как проверять отсутствие компонента на экране</t>
-  </si>
-  <si>
     <t>2. Создать новость. Перейдя в раздел новостей с главного экрана.</t>
   </si>
   <si>
@@ -1051,6 +1047,9 @@
   <si>
     <t>4. Исправить плановую дату/время в первой заявке (в статусе Открыта) на более позднюю. Проверить изменения.</t>
   </si>
+  <si>
+    <t>Непонятно как проверять отсутствие компонента на экране. Новости на главной странице может не быть, если уже создано больше 3 новостей.</t>
+  </si>
 </sst>
 </file>
 
@@ -1235,17 +1234,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1599,23 +1598,23 @@
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="8"/>
@@ -1780,10 +1779,10 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -1796,7 +1795,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="8"/>
@@ -1926,23 +1925,23 @@
       <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="18"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -2074,10 +2073,10 @@
       <c r="A15" s="14">
         <v>4</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -2090,7 +2089,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -2222,10 +2221,10 @@
       <c r="A19" s="14">
         <v>5</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -2238,7 +2237,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -2401,7 +2400,7 @@
       <c r="A24" s="14">
         <v>6</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -2443,18 +2442,18 @@
       <c r="AC24" s="8"/>
     </row>
     <row r="25" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="10" t="s">
         <v>57</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -2478,18 +2477,18 @@
       <c r="AC25" s="8"/>
     </row>
     <row r="26" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="10" t="s">
         <v>60</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -2513,18 +2512,18 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="20"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2548,18 +2547,18 @@
       <c r="AC27" s="8"/>
     </row>
     <row r="28" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2586,7 +2585,7 @@
       <c r="A29" s="14">
         <v>7</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -2604,7 +2603,7 @@
       <c r="G29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2769,7 +2768,7 @@
       <c r="A34" s="14">
         <v>8</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="14" t="s">
@@ -2787,7 +2786,7 @@
       <c r="G34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="16" t="s">
         <v>78</v>
       </c>
       <c r="I34" s="8"/>
@@ -2921,7 +2920,7 @@
       <c r="A38" s="14">
         <v>9</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -2939,7 +2938,7 @@
       <c r="G38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="16"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2964,7 +2963,7 @@
     </row>
     <row r="39" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -2999,7 +2998,7 @@
     </row>
     <row r="40" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="19"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -3036,7 +3035,7 @@
       <c r="A41" s="14">
         <v>10</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="18" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="14" t="s">
@@ -3045,7 +3044,7 @@
       <c r="D41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F41" s="10" t="s">
@@ -3054,7 +3053,7 @@
       <c r="G41" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="16" t="s">
         <v>78</v>
       </c>
       <c r="I41" s="8"/>
@@ -3398,7 +3397,7 @@
       <c r="A51" s="14">
         <v>11</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C51" s="14" t="s">
@@ -3407,7 +3406,7 @@
       <c r="D51" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="16" t="s">
         <v>118</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -3416,7 +3415,7 @@
       <c r="G51" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="16" t="s">
         <v>78</v>
       </c>
       <c r="I51" s="8"/>
@@ -3677,18 +3676,18 @@
       <c r="AC58" s="8"/>
     </row>
     <row r="59" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
       <c r="F59" s="10" t="s">
         <v>109</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H59" s="16"/>
+      <c r="H59" s="19"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -3715,7 +3714,7 @@
       <c r="A60" s="14">
         <v>12</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -3724,7 +3723,7 @@
       <c r="D60" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="18" t="s">
         <v>100</v>
       </c>
       <c r="F60" s="11" t="s">
@@ -3733,7 +3732,7 @@
       <c r="G60" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="18"/>
+      <c r="H60" s="16"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
@@ -3758,7 +3757,7 @@
     </row>
     <row r="61" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="19"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -3791,7 +3790,7 @@
     </row>
     <row r="62" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="19"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
@@ -3826,7 +3825,7 @@
     </row>
     <row r="63" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
@@ -3859,7 +3858,7 @@
     </row>
     <row r="64" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -3894,7 +3893,7 @@
     </row>
     <row r="65" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="19"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
@@ -3929,7 +3928,7 @@
     </row>
     <row r="66" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
-      <c r="B66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
@@ -3966,7 +3965,7 @@
       <c r="A67" s="14">
         <v>13</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C67" s="14" t="s">
@@ -3975,14 +3974,14 @@
       <c r="D67" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="18" t="s">
         <v>100</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>168</v>
       </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="18"/>
+      <c r="H67" s="16"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -4007,7 +4006,7 @@
     </row>
     <row r="68" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
-      <c r="B68" s="19"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
@@ -4040,7 +4039,7 @@
     </row>
     <row r="69" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
-      <c r="B69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
@@ -4075,7 +4074,7 @@
     </row>
     <row r="70" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
-      <c r="B70" s="19"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
@@ -4108,7 +4107,7 @@
     </row>
     <row r="71" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
-      <c r="B71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
@@ -4141,7 +4140,7 @@
     </row>
     <row r="72" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
-      <c r="B72" s="19"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -4176,7 +4175,7 @@
     </row>
     <row r="73" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
-      <c r="B73" s="19"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
@@ -4213,7 +4212,7 @@
       <c r="A74" s="14">
         <v>14</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C74" s="14" t="s">
@@ -4231,7 +4230,7 @@
       <c r="G74" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H74" s="18"/>
+      <c r="H74" s="16"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -4256,7 +4255,7 @@
     </row>
     <row r="75" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
-      <c r="B75" s="19"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
@@ -4289,7 +4288,7 @@
     </row>
     <row r="76" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
-      <c r="B76" s="19"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
@@ -4324,7 +4323,7 @@
     </row>
     <row r="77" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
-      <c r="B77" s="19"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
@@ -4359,7 +4358,7 @@
     </row>
     <row r="78" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
@@ -4394,7 +4393,7 @@
     </row>
     <row r="79" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
@@ -4431,7 +4430,7 @@
       <c r="A80" s="14">
         <v>15</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C80" s="14" t="s">
@@ -4440,7 +4439,7 @@
       <c r="D80" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="16" t="s">
         <v>125</v>
       </c>
       <c r="F80" s="10" t="s">
@@ -4449,7 +4448,7 @@
       <c r="G80" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="16" t="s">
         <v>133</v>
       </c>
       <c r="I80" s="8"/>
@@ -4545,18 +4544,18 @@
       <c r="AC82" s="8"/>
     </row>
     <row r="83" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
       <c r="F83" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H83" s="16"/>
+      <c r="H83" s="19"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -4583,7 +4582,7 @@
       <c r="A84" s="14">
         <v>16</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C84" s="14" t="s">
@@ -4592,14 +4591,14 @@
       <c r="D84" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="18" t="s">
         <v>156</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>145</v>
       </c>
       <c r="G84" s="9"/>
-      <c r="H84" s="17" t="s">
+      <c r="H84" s="18" t="s">
         <v>78</v>
       </c>
       <c r="I84" s="8"/>
@@ -4691,18 +4690,18 @@
       <c r="AC86" s="8"/>
     </row>
     <row r="87" spans="1:29" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
       <c r="F87" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H87" s="16"/>
+      <c r="H87" s="19"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -4729,7 +4728,7 @@
       <c r="A88" s="14">
         <v>17</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C88" s="14" t="s">
@@ -4738,14 +4737,14 @@
       <c r="D88" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="18" t="s">
         <v>156</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>145</v>
       </c>
       <c r="G88" s="9"/>
-      <c r="H88" s="18" t="s">
+      <c r="H88" s="16" t="s">
         <v>133</v>
       </c>
       <c r="I88" s="8"/>
@@ -4837,18 +4836,18 @@
       <c r="AC90" s="8"/>
     </row>
     <row r="91" spans="1:29" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
       <c r="F91" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H91" s="16"/>
+      <c r="H91" s="19"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -4875,7 +4874,7 @@
       <c r="A92" s="14">
         <v>18</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C92" s="14" t="s">
@@ -4986,7 +4985,7 @@
       <c r="A95" s="14">
         <v>19</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="14" t="s">
@@ -4995,14 +4994,14 @@
       <c r="D95" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="E95" s="18" t="s">
         <v>156</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>145</v>
       </c>
       <c r="G95" s="9"/>
-      <c r="H95" s="18" t="s">
+      <c r="H95" s="16" t="s">
         <v>133</v>
       </c>
       <c r="I95" s="8"/>
@@ -5132,7 +5131,7 @@
       <c r="A99" s="14">
         <v>20</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C99" s="14" t="s">
@@ -5141,14 +5140,14 @@
       <c r="D99" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E99" s="18" t="s">
         <v>158</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>157</v>
       </c>
       <c r="G99" s="9"/>
-      <c r="H99" s="18"/>
+      <c r="H99" s="16"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -5344,7 +5343,7 @@
       <c r="A105" s="14">
         <v>21</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C105" s="14" t="s">
@@ -5353,14 +5352,14 @@
       <c r="D105" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="17" t="s">
+      <c r="E105" s="18" t="s">
         <v>100</v>
       </c>
       <c r="F105" s="11" t="s">
         <v>166</v>
       </c>
       <c r="G105" s="9"/>
-      <c r="H105" s="18"/>
+      <c r="H105" s="16"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -5385,7 +5384,7 @@
     </row>
     <row r="106" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
-      <c r="B106" s="19"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
@@ -5418,7 +5417,7 @@
     </row>
     <row r="107" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -5451,7 +5450,7 @@
     </row>
     <row r="108" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
-      <c r="B108" s="19"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
@@ -5486,7 +5485,7 @@
     </row>
     <row r="109" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
-      <c r="B109" s="19"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
@@ -5519,7 +5518,7 @@
     </row>
     <row r="110" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
-      <c r="B110" s="19"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
@@ -5552,7 +5551,7 @@
     </row>
     <row r="111" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
-      <c r="B111" s="19"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
@@ -5589,7 +5588,7 @@
       <c r="A112" s="14">
         <v>22</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="18" t="s">
         <v>143</v>
       </c>
       <c r="C112" s="14" t="s">
@@ -5598,14 +5597,14 @@
       <c r="D112" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E112" s="16" t="s">
         <v>136</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>137</v>
       </c>
       <c r="G112" s="9"/>
-      <c r="H112" s="18"/>
+      <c r="H112" s="16"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
@@ -5699,18 +5698,18 @@
       <c r="AC114" s="8"/>
     </row>
     <row r="115" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
       <c r="F115" s="10" t="s">
         <v>139</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H115" s="16"/>
+      <c r="H115" s="19"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
@@ -29419,47 +29418,73 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="E112:E115"/>
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="D99:D104"/>
+    <mergeCell ref="E99:E104"/>
+    <mergeCell ref="H99:H104"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="D105:D111"/>
+    <mergeCell ref="E105:E111"/>
+    <mergeCell ref="H105:H111"/>
+    <mergeCell ref="D80:D83"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="E84:E87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="C74:C79"/>
+    <mergeCell ref="D74:D79"/>
+    <mergeCell ref="E74:E79"/>
+    <mergeCell ref="H74:H79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="H80:H83"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="D67:D73"/>
+    <mergeCell ref="E67:E73"/>
+    <mergeCell ref="H67:H73"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="C41:C50"/>
+    <mergeCell ref="A51:A59"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="C51:C59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="H41:H50"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="H60:H66"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
     <mergeCell ref="B95:B98"/>
     <mergeCell ref="E95:E98"/>
     <mergeCell ref="A29:A33"/>
@@ -29484,73 +29509,47 @@
     <mergeCell ref="D51:D59"/>
     <mergeCell ref="E51:E59"/>
     <mergeCell ref="H51:H59"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="H41:H50"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="H60:H66"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="D67:D73"/>
-    <mergeCell ref="E67:E73"/>
-    <mergeCell ref="H67:H73"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="C41:C50"/>
-    <mergeCell ref="A51:A59"/>
-    <mergeCell ref="B51:B59"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="E84:E87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="C74:C79"/>
-    <mergeCell ref="D74:D79"/>
-    <mergeCell ref="E74:E79"/>
-    <mergeCell ref="H74:H79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="H80:H83"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="E112:E115"/>
-    <mergeCell ref="H112:H115"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="D99:D104"/>
-    <mergeCell ref="E99:E104"/>
-    <mergeCell ref="H99:H104"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="B105:B111"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="D105:D111"/>
-    <mergeCell ref="E105:E111"/>
-    <mergeCell ref="H105:H111"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29562,8 +29561,8 @@
   <dimension ref="A1:AB143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124:C131"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29624,22 +29623,22 @@
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>224</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>222</v>
       </c>
       <c r="H2" s="8"/>
@@ -29956,22 +29955,22 @@
       <c r="A12" s="14">
         <v>2</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>229</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -30126,22 +30125,22 @@
       <c r="A17" s="14">
         <v>3</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>233</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -30296,22 +30295,22 @@
       <c r="A22" s="14">
         <v>4</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>238</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="18" t="s">
         <v>246</v>
       </c>
       <c r="H22" s="8"/>
@@ -30564,22 +30563,22 @@
       <c r="A30" s="14">
         <v>5</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>242</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -30958,22 +30957,22 @@
       <c r="A42" s="14">
         <v>6</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>263</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="18" t="s">
         <v>264</v>
       </c>
       <c r="H42" s="8"/>
@@ -31226,22 +31225,22 @@
       <c r="A50" s="14">
         <v>7</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="16" t="s">
         <v>276</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="18" t="s">
         <v>274</v>
       </c>
       <c r="H50" s="8"/>
@@ -31526,23 +31525,23 @@
       <c r="A59" s="14">
         <v>8</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G59" s="17" t="s">
-        <v>279</v>
+      <c r="G59" s="18" t="s">
+        <v>342</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
@@ -31573,7 +31572,7 @@
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="8"/>
@@ -31605,7 +31604,7 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G61" s="15"/>
       <c r="H61" s="8"/>
@@ -31637,7 +31636,7 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="8"/>
@@ -31669,7 +31668,7 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="8"/>
@@ -31701,7 +31700,7 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="8"/>
@@ -31733,7 +31732,7 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="8"/>
@@ -31794,23 +31793,23 @@
       <c r="A67" s="14">
         <v>9</v>
       </c>
-      <c r="B67" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="C67" s="18" t="s">
+      <c r="B67" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G67" s="17" t="s">
-        <v>294</v>
+      <c r="G67" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
@@ -31841,7 +31840,7 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="8"/>
@@ -31905,7 +31904,7 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="8"/>
@@ -31937,7 +31936,7 @@
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="8"/>
@@ -31969,7 +31968,7 @@
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="8"/>
@@ -32001,7 +32000,7 @@
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
       <c r="F73" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="8"/>
@@ -32033,7 +32032,7 @@
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="8"/>
@@ -32094,23 +32093,23 @@
       <c r="A76" s="14">
         <v>10</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="C76" s="18" t="s">
-        <v>324</v>
+      <c r="C76" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G76" s="17" t="s">
-        <v>301</v>
+      <c r="G76" s="18" t="s">
+        <v>300</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
@@ -32141,7 +32140,7 @@
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
       <c r="F77" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="8"/>
@@ -32173,7 +32172,7 @@
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="8"/>
@@ -32205,7 +32204,7 @@
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
       <c r="F79" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G79" s="15"/>
       <c r="H79" s="8"/>
@@ -32237,7 +32236,7 @@
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
       <c r="F80" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="8"/>
@@ -32269,7 +32268,7 @@
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
       <c r="F81" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="8"/>
@@ -32301,7 +32300,7 @@
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="8"/>
@@ -32362,23 +32361,23 @@
       <c r="A84" s="14">
         <v>11</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C84" s="18" t="s">
-        <v>325</v>
+      <c r="C84" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G84" s="17" t="s">
-        <v>292</v>
+      <c r="G84" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -32409,7 +32408,7 @@
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
       <c r="F85" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="8"/>
@@ -32441,7 +32440,7 @@
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
       <c r="F86" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G86" s="15"/>
       <c r="H86" s="8"/>
@@ -32473,7 +32472,7 @@
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
       <c r="F87" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G87" s="15"/>
       <c r="H87" s="8"/>
@@ -32505,7 +32504,7 @@
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="8"/>
@@ -32537,7 +32536,7 @@
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
       <c r="F89" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G89" s="15"/>
       <c r="H89" s="8"/>
@@ -32569,7 +32568,7 @@
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
       <c r="F90" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G90" s="15"/>
       <c r="H90" s="8"/>
@@ -32630,23 +32629,23 @@
       <c r="A92" s="14">
         <v>12</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="C92" s="18" t="s">
-        <v>326</v>
+      <c r="C92" s="16" t="s">
+        <v>325</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G92" s="17" t="s">
-        <v>292</v>
+      <c r="G92" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
@@ -32677,7 +32676,7 @@
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
       <c r="F93" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G93" s="15"/>
       <c r="H93" s="8"/>
@@ -32709,7 +32708,7 @@
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G94" s="15"/>
       <c r="H94" s="8"/>
@@ -32741,7 +32740,7 @@
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
       <c r="F95" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G95" s="15"/>
       <c r="H95" s="8"/>
@@ -32773,7 +32772,7 @@
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
       <c r="F96" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G96" s="15"/>
       <c r="H96" s="8"/>
@@ -32805,7 +32804,7 @@
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
       <c r="F97" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G97" s="15"/>
       <c r="H97" s="8"/>
@@ -32837,7 +32836,7 @@
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G98" s="15"/>
       <c r="H98" s="8"/>
@@ -32866,23 +32865,23 @@
       <c r="A99" s="14">
         <v>13</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C99" s="18" t="s">
-        <v>323</v>
+      <c r="C99" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E99" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G99" s="17" t="s">
-        <v>315</v>
+      <c r="G99" s="18" t="s">
+        <v>314</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
@@ -33137,7 +33136,7 @@
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="F107" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G107" s="15"/>
       <c r="H107" s="8"/>
@@ -33262,23 +33261,23 @@
       <c r="A111" s="14">
         <v>14</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="C111" s="18" t="s">
-        <v>327</v>
+      <c r="C111" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G111" s="17" t="s">
-        <v>321</v>
+      <c r="G111" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
@@ -33309,7 +33308,7 @@
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
       <c r="F112" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G112" s="15"/>
       <c r="H112" s="8"/>
@@ -33341,7 +33340,7 @@
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
       <c r="F113" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G113" s="15"/>
       <c r="H113" s="8"/>
@@ -33373,7 +33372,7 @@
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
       <c r="F114" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G114" s="15"/>
       <c r="H114" s="8"/>
@@ -33405,7 +33404,7 @@
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G115" s="15"/>
       <c r="H115" s="8"/>
@@ -33437,7 +33436,7 @@
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G116" s="15"/>
       <c r="H116" s="8"/>
@@ -33469,7 +33468,7 @@
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
       <c r="F117" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G117" s="15"/>
       <c r="H117" s="8"/>
@@ -33498,23 +33497,23 @@
       <c r="A118" s="14">
         <v>15</v>
       </c>
-      <c r="B118" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>328</v>
+      <c r="B118" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>327</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E118" s="18" t="s">
+      <c r="E118" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G118" s="17" t="s">
-        <v>333</v>
+      <c r="G118" s="18" t="s">
+        <v>332</v>
       </c>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
@@ -33545,7 +33544,7 @@
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
       <c r="F119" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G119" s="15"/>
       <c r="H119" s="8"/>
@@ -33577,7 +33576,7 @@
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
       <c r="F120" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G120" s="15"/>
       <c r="H120" s="8"/>
@@ -33609,7 +33608,7 @@
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
       <c r="F121" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G121" s="15"/>
       <c r="H121" s="8"/>
@@ -33641,7 +33640,7 @@
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
       <c r="F122" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G122" s="15"/>
       <c r="H122" s="8"/>
@@ -33673,7 +33672,7 @@
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
       <c r="F123" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G123" s="15"/>
       <c r="H123" s="8"/>
@@ -33702,23 +33701,23 @@
       <c r="A124" s="14">
         <v>16</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C124" s="16" t="s">
         <v>329</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>330</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="E124" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G124" s="17" t="s">
-        <v>340</v>
+      <c r="G124" s="18" t="s">
+        <v>339</v>
       </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
@@ -33749,7 +33748,7 @@
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
       <c r="F125" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G125" s="15"/>
       <c r="H125" s="8"/>
@@ -33781,7 +33780,7 @@
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
       <c r="F126" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G126" s="15"/>
       <c r="H126" s="8"/>
@@ -33813,7 +33812,7 @@
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
       <c r="F127" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G127" s="15"/>
       <c r="H127" s="8"/>
@@ -33845,7 +33844,7 @@
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G128" s="15"/>
       <c r="H128" s="8"/>
@@ -33877,7 +33876,7 @@
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
       <c r="F129" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G129" s="15"/>
       <c r="H129" s="8"/>
@@ -33909,7 +33908,7 @@
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
       <c r="F130" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G130" s="15"/>
       <c r="H130" s="8"/>
@@ -33968,12 +33967,12 @@
     </row>
     <row r="132" spans="1:28" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="18"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="16"/>
       <c r="D132" s="14"/>
-      <c r="E132" s="18"/>
+      <c r="E132" s="16"/>
       <c r="F132" s="10"/>
-      <c r="G132" s="17"/>
+      <c r="G132" s="18"/>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
@@ -34328,47 +34327,43 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="G118:G123"/>
-    <mergeCell ref="A118:A123"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="C118:C123"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="E118:E123"/>
-    <mergeCell ref="G111:G117"/>
-    <mergeCell ref="A111:A117"/>
-    <mergeCell ref="B111:B117"/>
-    <mergeCell ref="C111:C117"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="E111:E117"/>
-    <mergeCell ref="G22:G29"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:D58"/>
-    <mergeCell ref="E50:E58"/>
-    <mergeCell ref="G50:G58"/>
-    <mergeCell ref="A30:A41"/>
-    <mergeCell ref="B30:B41"/>
-    <mergeCell ref="C30:C41"/>
-    <mergeCell ref="D30:D41"/>
-    <mergeCell ref="E30:E41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="D42:D49"/>
-    <mergeCell ref="E42:E49"/>
-    <mergeCell ref="G42:G49"/>
+    <mergeCell ref="G124:G131"/>
+    <mergeCell ref="A132:A143"/>
+    <mergeCell ref="B132:B143"/>
+    <mergeCell ref="C132:C143"/>
+    <mergeCell ref="D132:D143"/>
+    <mergeCell ref="E132:E143"/>
+    <mergeCell ref="G132:G143"/>
+    <mergeCell ref="A124:A131"/>
+    <mergeCell ref="B124:B131"/>
+    <mergeCell ref="C124:C131"/>
+    <mergeCell ref="D124:D131"/>
+    <mergeCell ref="E124:E131"/>
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G92:G98"/>
+    <mergeCell ref="A99:A110"/>
+    <mergeCell ref="B99:B110"/>
+    <mergeCell ref="C99:C110"/>
+    <mergeCell ref="D99:D110"/>
+    <mergeCell ref="E99:E110"/>
+    <mergeCell ref="G99:G110"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="C92:C98"/>
+    <mergeCell ref="D92:D98"/>
+    <mergeCell ref="E92:E98"/>
     <mergeCell ref="D59:D66"/>
     <mergeCell ref="E59:E66"/>
     <mergeCell ref="B67:B75"/>
@@ -34393,43 +34388,47 @@
     <mergeCell ref="A59:A66"/>
     <mergeCell ref="B59:B66"/>
     <mergeCell ref="C59:C66"/>
-    <mergeCell ref="G92:G98"/>
-    <mergeCell ref="A99:A110"/>
-    <mergeCell ref="B99:B110"/>
-    <mergeCell ref="C99:C110"/>
-    <mergeCell ref="D99:D110"/>
-    <mergeCell ref="E99:E110"/>
-    <mergeCell ref="G99:G110"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="C92:C98"/>
-    <mergeCell ref="D92:D98"/>
-    <mergeCell ref="E92:E98"/>
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="G124:G131"/>
-    <mergeCell ref="A132:A143"/>
-    <mergeCell ref="B132:B143"/>
-    <mergeCell ref="C132:C143"/>
-    <mergeCell ref="D132:D143"/>
-    <mergeCell ref="E132:E143"/>
-    <mergeCell ref="G132:G143"/>
-    <mergeCell ref="A124:A131"/>
-    <mergeCell ref="B124:B131"/>
-    <mergeCell ref="C124:C131"/>
-    <mergeCell ref="D124:D131"/>
-    <mergeCell ref="E124:E131"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:D58"/>
+    <mergeCell ref="E50:E58"/>
+    <mergeCell ref="G50:G58"/>
+    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="B30:B41"/>
+    <mergeCell ref="C30:C41"/>
+    <mergeCell ref="D30:D41"/>
+    <mergeCell ref="E30:E41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="D42:D49"/>
+    <mergeCell ref="E42:E49"/>
+    <mergeCell ref="G42:G49"/>
+    <mergeCell ref="G22:G29"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="G118:G123"/>
+    <mergeCell ref="A118:A123"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="C118:C123"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="E118:E123"/>
+    <mergeCell ref="G111:G117"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="C111:C117"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="E111:E117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
